--- a/analysis/metadata/P08_5/P08_5_minimal_metadata.xlsx
+++ b/analysis/metadata/P08_5/P08_5_minimal_metadata.xlsx
@@ -451,6 +451,11 @@
       <c r="D2">
         <v>8.138218589999999</v>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -484,6 +489,11 @@
       <c r="D3">
         <v>8.131583335</v>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -517,6 +527,11 @@
       <c r="D4">
         <v>8.134460049999999</v>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -550,6 +565,11 @@
       <c r="D5">
         <v>8.15664361</v>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -583,6 +603,11 @@
       <c r="D6">
         <v>8.14093312</v>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -616,6 +641,11 @@
       <c r="D7">
         <v>8.15337025</v>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -649,6 +679,11 @@
       <c r="D8">
         <v>8.13886239</v>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -682,6 +717,11 @@
       <c r="D9">
         <v>8.13243228</v>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -715,6 +755,11 @@
       <c r="D10">
         <v>8.15293179</v>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -748,6 +793,11 @@
       <c r="D11">
         <v>8.13215175</v>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -781,6 +831,11 @@
       <c r="D12">
         <v>8.14557333</v>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -814,6 +869,11 @@
       <c r="D13">
         <v>8.14283024</v>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -847,6 +907,11 @@
       <c r="D14">
         <v>8.142184609999999</v>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -880,6 +945,11 @@
       <c r="D15">
         <v>8.15906148</v>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -913,6 +983,11 @@
       <c r="D16">
         <v>8.139457739999999</v>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -946,6 +1021,11 @@
       <c r="D17">
         <v>8.160539119999999</v>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -979,6 +1059,11 @@
       <c r="D18">
         <v>8.13930687</v>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -1012,6 +1097,11 @@
       <c r="D19">
         <v>8.1312297</v>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -1045,6 +1135,11 @@
       <c r="D20">
         <v>8.478552455000001</v>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -1078,6 +1173,11 @@
       <c r="D21">
         <v>8.13490032</v>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -1111,6 +1211,11 @@
       <c r="D22">
         <v>8.12922384</v>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -1144,6 +1249,11 @@
       <c r="D23">
         <v>8.13492327</v>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -1177,6 +1287,11 @@
       <c r="D24">
         <v>8.15387307</v>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -1210,6 +1325,11 @@
       <c r="D25">
         <v>8.14640273</v>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -1243,6 +1363,11 @@
       <c r="D26">
         <v>8.138498220000001</v>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -1276,6 +1401,11 @@
       <c r="D27">
         <v>8.16335014</v>
       </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J27" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -1309,6 +1439,11 @@
       <c r="D28">
         <v>8.13899486</v>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -1342,6 +1477,11 @@
       <c r="D29">
         <v>8.496170530000001</v>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -1375,6 +1515,11 @@
       <c r="D30">
         <v>8.503056969999999</v>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -1408,6 +1553,11 @@
       <c r="D31">
         <v>8.13701135</v>
       </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -1441,6 +1591,11 @@
       <c r="D32">
         <v>8.157458050000001</v>
       </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -1474,6 +1629,11 @@
       <c r="D33">
         <v>8.13698529</v>
       </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J33" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -1507,6 +1667,11 @@
       <c r="D34">
         <v>8.49378111</v>
       </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J34" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -1540,6 +1705,11 @@
       <c r="D35">
         <v>8.517051540000001</v>
       </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J35" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -1573,6 +1743,11 @@
       <c r="D36">
         <v>8.13149198</v>
       </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J36" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -1606,6 +1781,11 @@
       <c r="D37">
         <v>8.392563579999999</v>
       </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J37" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -1639,6 +1819,11 @@
       <c r="D38">
         <v>8.39243199</v>
       </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J38" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -1672,6 +1857,11 @@
       <c r="D39">
         <v>8.48910785</v>
       </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -1705,6 +1895,11 @@
       <c r="D40">
         <v>8.483768299999999</v>
       </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J40" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -1738,6 +1933,11 @@
       <c r="D41">
         <v>8.431730525000001</v>
       </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J41" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -1771,6 +1971,11 @@
       <c r="D42">
         <v>8.413040000000001</v>
       </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J42" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -1804,6 +2009,11 @@
       <c r="D43">
         <v>8.3983408</v>
       </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J43" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -1837,6 +2047,11 @@
       <c r="D44">
         <v>8.48490726</v>
       </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J44" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -1870,6 +2085,11 @@
       <c r="D45">
         <v>8.52412771</v>
       </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J45" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -1903,6 +2123,11 @@
       <c r="D46">
         <v>8.15809387</v>
       </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J46" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -1936,6 +2161,11 @@
       <c r="D47">
         <v>8.509061060000001</v>
       </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J47" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -1969,6 +2199,11 @@
       <c r="D48">
         <v>8.40302778</v>
       </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J48" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -2002,6 +2237,11 @@
       <c r="D49">
         <v>9.85323034</v>
       </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J49" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -2035,6 +2275,11 @@
       <c r="D50">
         <v>8.52081207</v>
       </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J50" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -2068,6 +2313,11 @@
       <c r="D51">
         <v>8.158108110000001</v>
       </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J51" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -2101,6 +2351,11 @@
       <c r="D52">
         <v>8.13670816</v>
       </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J52" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -2134,6 +2389,11 @@
       <c r="D53">
         <v>8.48458604</v>
       </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J53" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -2167,6 +2427,11 @@
       <c r="D54">
         <v>8.402143179999999</v>
       </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J54" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -2200,6 +2465,11 @@
       <c r="D55">
         <v>8.39056894</v>
       </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J55" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -2233,6 +2503,11 @@
       <c r="D56">
         <v>8.388415569999999</v>
       </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J56" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -2266,6 +2541,11 @@
       <c r="D57">
         <v>8.490785730000001</v>
       </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J57" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -2299,6 +2579,11 @@
       <c r="D58">
         <v>8.486678039999999</v>
       </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J58" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -2332,6 +2617,11 @@
       <c r="D59">
         <v>8.407629869999999</v>
       </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J59" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -2365,6 +2655,11 @@
       <c r="D60">
         <v>8.51117874</v>
       </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J60" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -2398,6 +2693,11 @@
       <c r="D61">
         <v>9.85436728</v>
       </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J61" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -2431,6 +2731,11 @@
       <c r="D62">
         <v>8.13179152</v>
       </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J62" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -2464,6 +2769,11 @@
       <c r="D63">
         <v>8.146218149999999</v>
       </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J63" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -2497,6 +2807,11 @@
       <c r="D64">
         <v>8.420536159999999</v>
       </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J64" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -2530,6 +2845,11 @@
       <c r="D65">
         <v>8.400977810000001</v>
       </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J65" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -2563,6 +2883,11 @@
       <c r="D66">
         <v>8.152297989999999</v>
       </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J66" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -2596,6 +2921,11 @@
       <c r="D67">
         <v>8.15241353</v>
       </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J67" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -2629,6 +2959,11 @@
       <c r="D68">
         <v>8.393632309999999</v>
       </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J68" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -2662,6 +2997,11 @@
       <c r="D69">
         <v>8.418860199999999</v>
       </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J69" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -2695,6 +3035,11 @@
       <c r="D70">
         <v>8.13981216</v>
       </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J70" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -2728,6 +3073,11 @@
       <c r="D71">
         <v>8.145147229999999</v>
       </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J71" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -2761,6 +3111,11 @@
       <c r="D72">
         <v>8.431706549999999</v>
       </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J72" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -2794,6 +3149,11 @@
       <c r="D73">
         <v>9.85999408</v>
       </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J73" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -2827,6 +3187,11 @@
       <c r="D74">
         <v>8.50583898</v>
       </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J74" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -2860,6 +3225,11 @@
       <c r="D75">
         <v>8.49288501</v>
       </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J75" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -2893,6 +3263,11 @@
       <c r="D76">
         <v>8.479676660000001</v>
       </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J76" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -2926,6 +3301,11 @@
       <c r="D77">
         <v>8.508562209999999</v>
       </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J77" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -2959,6 +3339,11 @@
       <c r="D78">
         <v>8.41974667</v>
       </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J78" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -2992,6 +3377,11 @@
       <c r="D79">
         <v>8.51102247</v>
       </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J79" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -3025,6 +3415,11 @@
       <c r="D80">
         <v>8.164109140000001</v>
       </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J80" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -3058,6 +3453,11 @@
       <c r="D81">
         <v>8.507441780000001</v>
       </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J81" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -3091,6 +3491,11 @@
       <c r="D82">
         <v>8.5099955</v>
       </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J82" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -3124,6 +3529,11 @@
       <c r="D83">
         <v>8.138321510000001</v>
       </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J83" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -3157,6 +3567,11 @@
       <c r="D84">
         <v>8.5128015</v>
       </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J84" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -3190,6 +3605,11 @@
       <c r="D85">
         <v>8.475583540000001</v>
       </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J85" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -3223,6 +3643,11 @@
       <c r="D86">
         <v>8.134112829999999</v>
       </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J86" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -3256,6 +3681,11 @@
       <c r="D87">
         <v>8.134690785</v>
       </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J87" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -3289,6 +3719,11 @@
       <c r="D88">
         <v>8.49714565</v>
       </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J88" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -3322,6 +3757,11 @@
       <c r="D89">
         <v>8.14308814</v>
       </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J89" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -3355,6 +3795,11 @@
       <c r="D90">
         <v>8.14557016</v>
       </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J90" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -3388,6 +3833,11 @@
       <c r="D91">
         <v>9.834498480000001</v>
       </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J91" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -3421,6 +3871,11 @@
       <c r="D92">
         <v>8.12995351</v>
       </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J92" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -3454,6 +3909,11 @@
       <c r="D93">
         <v>8.154735185</v>
       </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J93" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -3487,6 +3947,11 @@
       <c r="D94">
         <v>8.1395321</v>
       </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J94" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -3520,6 +3985,11 @@
       <c r="D95">
         <v>8.14642259</v>
       </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J95" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -3553,6 +4023,11 @@
       <c r="D96">
         <v>8.1511447</v>
       </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J96" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -3586,6 +4061,11 @@
       <c r="D97">
         <v>8.14467951</v>
       </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J97" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -3619,6 +4099,11 @@
       <c r="D98">
         <v>8.16150888</v>
       </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J98" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -3652,6 +4137,11 @@
       <c r="D99">
         <v>9.84171098</v>
       </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J99" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -3685,6 +4175,11 @@
       <c r="D100">
         <v>8.48699805</v>
       </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J100" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -3718,6 +4213,11 @@
       <c r="D101">
         <v>8.144240379999999</v>
       </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J101" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -3751,6 +4251,11 @@
       <c r="D102">
         <v>8.13261857</v>
       </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J102" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -3784,6 +4289,11 @@
       <c r="D103">
         <v>8.412715260000001</v>
       </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J103" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -3817,6 +4327,11 @@
       <c r="D104">
         <v>9.84280895</v>
       </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J104" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -3850,6 +4365,11 @@
       <c r="D105">
         <v>8.147601870000001</v>
       </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J105" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -3883,6 +4403,11 @@
       <c r="D106">
         <v>8.490777420000001</v>
       </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J106" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -3916,6 +4441,11 @@
       <c r="D107">
         <v>8.39409023</v>
       </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J107" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -3949,6 +4479,11 @@
       <c r="D108">
         <v>8.40030849</v>
       </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J108" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -3982,6 +4517,11 @@
       <c r="D109">
         <v>8.131925669999999</v>
       </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J109" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -4015,6 +4555,11 @@
       <c r="D110">
         <v>8.131966050000001</v>
       </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J110" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -4048,6 +4593,11 @@
       <c r="D111">
         <v>8.13392778</v>
       </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J111" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -4081,6 +4631,11 @@
       <c r="D112">
         <v>8.162831110000001</v>
       </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J112" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -4114,6 +4669,11 @@
       <c r="D113">
         <v>8.487855105</v>
       </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J113" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -4147,6 +4707,11 @@
       <c r="D114">
         <v>8.14574736</v>
       </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J114" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -4180,6 +4745,11 @@
       <c r="D115">
         <v>8.143198910000001</v>
       </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J115" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -4213,6 +4783,11 @@
       <c r="D116">
         <v>8.135558870000001</v>
       </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J116" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -4246,6 +4821,11 @@
       <c r="D117">
         <v>8.493599209999999</v>
       </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J117" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -4279,6 +4859,11 @@
       <c r="D118">
         <v>8.49153138</v>
       </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J118" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -4312,6 +4897,11 @@
       <c r="D119">
         <v>8.41404357</v>
       </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J119" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -4345,6 +4935,11 @@
       <c r="D120">
         <v>8.1580893</v>
       </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J120" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -4378,6 +4973,11 @@
       <c r="D121">
         <v>8.144596665</v>
       </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J121" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -4411,6 +5011,11 @@
       <c r="D122">
         <v>8.13065188</v>
       </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J122" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -4444,6 +5049,11 @@
       <c r="D123">
         <v>8.4789718</v>
       </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J123" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -4477,6 +5087,11 @@
       <c r="D124">
         <v>8.48605306</v>
       </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J124" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -4510,6 +5125,11 @@
       <c r="D125">
         <v>8.495252710000001</v>
       </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J125" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -4543,6 +5163,11 @@
       <c r="D126">
         <v>8.513920355</v>
       </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J126" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -4576,6 +5201,11 @@
       <c r="D127">
         <v>8.49477516</v>
       </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J127" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -4609,6 +5239,11 @@
       <c r="D128">
         <v>8.53412859</v>
       </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J128" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -4642,6 +5277,11 @@
       <c r="D129">
         <v>8.40640125</v>
       </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J129" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -4675,6 +5315,11 @@
       <c r="D130">
         <v>8.402786150000001</v>
       </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J130" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -4708,6 +5353,11 @@
       <c r="D131">
         <v>8.152876770000001</v>
       </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J131" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -4741,6 +5391,11 @@
       <c r="D132">
         <v>8.52419596</v>
       </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J132" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -4774,6 +5429,11 @@
       <c r="D133">
         <v>8.410913600000001</v>
       </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J133" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -4807,6 +5467,11 @@
       <c r="D134">
         <v>8.157472670000001</v>
       </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J134" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -4840,6 +5505,11 @@
       <c r="D135">
         <v>8.129877649999999</v>
       </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J135" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -4873,6 +5543,11 @@
       <c r="D136">
         <v>8.135458724999999</v>
       </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J136" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -4906,6 +5581,11 @@
       <c r="D137">
         <v>8.136349450000001</v>
       </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J137" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -4939,6 +5619,11 @@
       <c r="D138">
         <v>8.131864500000001</v>
       </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J138" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -4972,6 +5657,11 @@
       <c r="D139">
         <v>8.488063759999999</v>
       </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J139" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -5005,6 +5695,11 @@
       <c r="D140">
         <v>8.413140895</v>
       </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J140" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -5038,6 +5733,11 @@
       <c r="D141">
         <v>8.40212159</v>
       </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J141" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -5071,6 +5771,11 @@
       <c r="D142">
         <v>9.84195381</v>
       </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J142" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -5104,6 +5809,11 @@
       <c r="D143">
         <v>8.412617259999999</v>
       </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J143" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -5137,6 +5847,11 @@
       <c r="D144">
         <v>9.84422118</v>
       </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J144" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -5170,6 +5885,11 @@
       <c r="D145">
         <v>8.13167303</v>
       </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J145" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -5203,6 +5923,11 @@
       <c r="D146">
         <v>8.41663842</v>
       </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J146" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -5236,6 +5961,11 @@
       <c r="D147">
         <v>8.139631079999999</v>
       </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J147" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -5269,6 +5999,11 @@
       <c r="D148">
         <v>8.15384937</v>
       </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J148" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -5302,6 +6037,11 @@
       <c r="D149">
         <v>8.133813975000001</v>
       </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J149" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -5335,6 +6075,11 @@
       <c r="D150">
         <v>8.52607557</v>
       </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J150" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -5368,6 +6113,11 @@
       <c r="D151">
         <v>8.163454290000001</v>
       </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J151" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -5401,6 +6151,11 @@
       <c r="D152">
         <v>8.399976649999999</v>
       </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J152" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -5434,6 +6189,11 @@
       <c r="D153">
         <v>8.154523940000001</v>
       </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J153" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -5467,6 +6227,11 @@
       <c r="D154">
         <v>8.15861479</v>
       </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J154" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -5500,6 +6265,11 @@
       <c r="D155">
         <v>8.40195535</v>
       </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J155" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -5533,6 +6303,11 @@
       <c r="D156">
         <v>8.39883719</v>
       </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J156" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -5566,6 +6341,11 @@
       <c r="D157">
         <v>9.85687296</v>
       </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J157" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -5599,6 +6379,11 @@
       <c r="D158">
         <v>9.846063205</v>
       </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J158" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -5632,6 +6417,11 @@
       <c r="D159">
         <v>8.49024015</v>
       </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J159" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -5665,6 +6455,11 @@
       <c r="D160">
         <v>8.16146565</v>
       </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J160" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -5698,6 +6493,11 @@
       <c r="D161">
         <v>8.41539839</v>
       </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J161" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -5731,6 +6531,11 @@
       <c r="D162">
         <v>10.11080487</v>
       </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J162" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -5776,7 +6581,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2021-07-06</t>
+          <t>06/07/2021 00:00</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -5824,7 +6629,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2021-07-03</t>
+          <t>03/07/2021 00:00</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -5865,6 +6670,11 @@
       <c r="D165">
         <v>10.10485559</v>
       </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J165" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -5898,6 +6708,11 @@
       <c r="D166">
         <v>10.10601447</v>
       </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J166" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -5931,6 +6746,11 @@
       <c r="D167">
         <v>10.11485744</v>
       </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J167" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -5964,6 +6784,11 @@
       <c r="D168">
         <v>10.1040108</v>
       </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J168" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -6009,7 +6834,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2021-06-27</t>
+          <t>21/03/2022 15:30</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -6057,7 +6882,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2021-07-06</t>
+          <t>06/07/2021 00:00</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -6093,6 +6918,11 @@
       <c r="D171">
         <v>10.10668968</v>
       </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J171" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -6126,6 +6956,11 @@
       <c r="D172">
         <v>10.1112256</v>
       </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J172" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -6159,6 +6994,11 @@
       <c r="D173">
         <v>10.10620142</v>
       </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J173" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -6192,6 +7032,11 @@
       <c r="D174">
         <v>10.10654751</v>
       </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J174" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -6237,7 +7082,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>21/03/2022 15:30</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -6285,7 +7130,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2021-06-29</t>
+          <t>21/03/2022 15:30</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -6321,6 +7166,11 @@
       <c r="D177">
         <v>10.10377518</v>
       </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J177" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -6366,7 +7216,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>2021-07-05</t>
+          <t>05/07/2021 00:00</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -6414,7 +7264,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>2021-07-06</t>
+          <t>06/07/2021 00:00</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -6462,7 +7312,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>2021-07-03</t>
+          <t>03/07/2021 00:00</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -6498,6 +7348,11 @@
       <c r="D181">
         <v>10.10747345</v>
       </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J181" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -6543,7 +7398,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>2021-07-08</t>
+          <t>08/07/2021 00:00</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -6591,7 +7446,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>2021-07-04</t>
+          <t>04/07/2021 00:00</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -6627,6 +7482,11 @@
       <c r="D184">
         <v>10.11002672</v>
       </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J184" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -6660,6 +7520,11 @@
       <c r="D185">
         <v>10.10964169</v>
       </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J185" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -6693,6 +7558,11 @@
       <c r="D186">
         <v>10.10322654</v>
       </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J186" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -6726,6 +7596,11 @@
       <c r="D187">
         <v>10.11696927</v>
       </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J187" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -6759,6 +7634,11 @@
       <c r="D188">
         <v>10.11013601</v>
       </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J188" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -6792,6 +7672,11 @@
       <c r="D189">
         <v>10.11070196</v>
       </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J189" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -6825,6 +7710,11 @@
       <c r="D190">
         <v>10.11064293</v>
       </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J190" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -6858,6 +7748,11 @@
       <c r="D191">
         <v>10.11373463</v>
       </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J191" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -6891,6 +7786,11 @@
       <c r="D192">
         <v>10.11221849</v>
       </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J192" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -6924,6 +7824,11 @@
       <c r="D193">
         <v>10.11177664</v>
       </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J193" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -6957,6 +7862,11 @@
       <c r="D194">
         <v>10.10882371</v>
       </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J194" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -6990,6 +7900,11 @@
       <c r="D195">
         <v>10.11226576</v>
       </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J195" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -7023,6 +7938,11 @@
       <c r="D196">
         <v>10.10725653</v>
       </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J196" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -7056,6 +7976,11 @@
       <c r="D197">
         <v>10.117070195</v>
       </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J197" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -7089,6 +8014,11 @@
       <c r="D198">
         <v>10.10653336</v>
       </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J198" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -7122,6 +8052,11 @@
       <c r="D199">
         <v>10.11216583</v>
       </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J199" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -7155,6 +8090,11 @@
       <c r="D200">
         <v>10.10978584</v>
       </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J200" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -7188,6 +8128,11 @@
       <c r="D201">
         <v>10.11057034</v>
       </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J201" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -7221,6 +8166,11 @@
       <c r="D202">
         <v>10.1158663</v>
       </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J202" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -7254,6 +8204,11 @@
       <c r="D203">
         <v>10.10933983</v>
       </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J203" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -7287,6 +8242,11 @@
       <c r="D204">
         <v>10.10901534</v>
       </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J204" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -7320,6 +8280,11 @@
       <c r="D205">
         <v>10.10947773</v>
       </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J205" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -7353,6 +8318,11 @@
       <c r="D206">
         <v>10.10628841</v>
       </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J206" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -7386,6 +8356,11 @@
       <c r="D207">
         <v>10.10949544</v>
       </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J207" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -7419,6 +8394,11 @@
       <c r="D208">
         <v>10.12374484</v>
       </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J208" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -7452,6 +8432,11 @@
       <c r="D209">
         <v>10.11544357</v>
       </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J209" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -7485,6 +8470,11 @@
       <c r="D210">
         <v>10.10966126</v>
       </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J210" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -7518,6 +8508,11 @@
       <c r="D211">
         <v>10.1082956</v>
       </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J211" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -7551,6 +8546,11 @@
       <c r="D212">
         <v>10.11073732</v>
       </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J212" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -7584,6 +8584,11 @@
       <c r="D213">
         <v>10.11014018</v>
       </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J213" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -7617,6 +8622,11 @@
       <c r="D214">
         <v>10.10879764</v>
       </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J214" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -7650,6 +8660,11 @@
       <c r="D215">
         <v>10.11590614</v>
       </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J215" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -7683,6 +8698,11 @@
       <c r="D216">
         <v>10.11718784</v>
       </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J216" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -7716,6 +8736,11 @@
       <c r="D217">
         <v>10.1203169</v>
       </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J217" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -7749,6 +8774,11 @@
       <c r="D218">
         <v>10.10686027</v>
       </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J218" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -7782,6 +8812,11 @@
       <c r="D219">
         <v>10.11565819</v>
       </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J219" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -7815,6 +8850,11 @@
       <c r="D220">
         <v>10.10556828</v>
       </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J220" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -7848,6 +8888,11 @@
       <c r="D221">
         <v>10.11595568</v>
       </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J221" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -7881,6 +8926,11 @@
       <c r="D222">
         <v>10.10469594</v>
       </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J222" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -7914,6 +8964,11 @@
       <c r="D223">
         <v>10.10467168</v>
       </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J223" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -7947,6 +9002,11 @@
       <c r="D224">
         <v>10.10456329</v>
       </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J224" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -7980,6 +9040,11 @@
       <c r="D225">
         <v>10.10462767</v>
       </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J225" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -8013,6 +9078,11 @@
       <c r="D226">
         <v>10.1061603</v>
       </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J226" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -8046,6 +9116,11 @@
       <c r="D227">
         <v>10.11187462</v>
       </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J227" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -8079,6 +9154,11 @@
       <c r="D228">
         <v>10.12114562</v>
       </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J228" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -8112,6 +9192,11 @@
       <c r="D229">
         <v>10.11254421</v>
       </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J229" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -8145,6 +9230,11 @@
       <c r="D230">
         <v>10.10984808</v>
       </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J230" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -8190,7 +9280,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>21/03/2022 15:30</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -8226,6 +9316,11 @@
       <c r="D232">
         <v>10.10594455</v>
       </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J232" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -8259,6 +9354,11 @@
       <c r="D233">
         <v>10.11003463</v>
       </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J233" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -8292,6 +9392,11 @@
       <c r="D234">
         <v>10.11080928</v>
       </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J234" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -8325,6 +9430,11 @@
       <c r="D235">
         <v>10.11549441</v>
       </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J235" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -8358,6 +9468,11 @@
       <c r="D236">
         <v>10.11687792</v>
       </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J236" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -8403,7 +9518,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>2021-06-29</t>
+          <t>21/03/2022 15:30</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -8439,6 +9554,11 @@
       <c r="D238">
         <v>10.11466423</v>
       </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J238" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -8472,6 +9592,11 @@
       <c r="D239">
         <v>10.10253411</v>
       </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J239" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -8505,6 +9630,11 @@
       <c r="D240">
         <v>10.10507239</v>
       </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J240" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -8538,6 +9668,11 @@
       <c r="D241">
         <v>10.10566614</v>
       </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J241" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -8571,6 +9706,11 @@
       <c r="D242">
         <v>10.10851907</v>
       </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J242" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -8604,6 +9744,11 @@
       <c r="D243">
         <v>10.11401655</v>
       </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J243" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -8649,7 +9794,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>2021-06-29</t>
+          <t>21/03/2022 15:30</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -8685,6 +9830,11 @@
       <c r="D245">
         <v>10.10575115</v>
       </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J245" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -8718,6 +9868,11 @@
       <c r="D246">
         <v>10.10686557</v>
       </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J246" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -8751,6 +9906,11 @@
       <c r="D247">
         <v>10.1154107</v>
       </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J247" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -8784,6 +9944,11 @@
       <c r="D248">
         <v>10.11328419</v>
       </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J248" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -8817,6 +9982,11 @@
       <c r="D249">
         <v>10.11299835</v>
       </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J249" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -8850,6 +10020,11 @@
       <c r="D250">
         <v>10.11698202</v>
       </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J250" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -8883,6 +10058,11 @@
       <c r="D251">
         <v>10.10600706</v>
       </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J251" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -8916,6 +10096,11 @@
       <c r="D252">
         <v>10.10899737</v>
       </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J252" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -8949,6 +10134,11 @@
       <c r="D253">
         <v>10.11370384</v>
       </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J253" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -8982,6 +10172,11 @@
       <c r="D254">
         <v>10.10457717</v>
       </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J254" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -9027,7 +10222,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>2021-07-06</t>
+          <t>06/07/2021 00:00</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -9063,6 +10258,11 @@
       <c r="D256">
         <v>10.1100834</v>
       </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J256" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -9096,6 +10296,11 @@
       <c r="D257">
         <v>10.11249497</v>
       </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J257" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -9129,6 +10334,11 @@
       <c r="D258">
         <v>10.10924667</v>
       </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J258" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -9162,6 +10372,11 @@
       <c r="D259">
         <v>10.10824251</v>
       </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J259" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -9195,6 +10410,11 @@
       <c r="D260">
         <v>10.1088715</v>
       </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J260" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -9228,6 +10448,11 @@
       <c r="D261">
         <v>10.11097765</v>
       </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J261" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -9261,6 +10486,11 @@
       <c r="D262">
         <v>10.10506515</v>
       </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J262" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -9294,6 +10524,11 @@
       <c r="D263">
         <v>10.10521856</v>
       </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J263" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -9327,6 +10562,11 @@
       <c r="D264">
         <v>10.10219662</v>
       </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J264" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -9360,6 +10600,11 @@
       <c r="D265">
         <v>10.11151723</v>
       </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J265" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -9393,6 +10638,11 @@
       <c r="D266">
         <v>10.11303949</v>
       </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J266" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -9438,7 +10688,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>2021-07-10</t>
+          <t>10/07/2021 00:00</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -9474,6 +10724,11 @@
       <c r="D268">
         <v>10.11101107</v>
       </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J268" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -9513,7 +10768,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>21/03/2022 15:30</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -9550,7 +10805,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>2021-06-27</t>
+          <t>21/03/2022 15:30</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -9581,6 +10836,11 @@
       <c r="D271">
         <v>10.10931959</v>
       </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J271" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -9614,6 +10874,11 @@
       <c r="D272">
         <v>10.11007217</v>
       </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J272" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -9647,6 +10912,11 @@
       <c r="D273">
         <v>10.11663443</v>
       </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J273" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -9680,6 +10950,11 @@
       <c r="D274">
         <v>10.11532542</v>
       </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J274" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -9713,6 +10988,11 @@
       <c r="D275">
         <v>10.10170411</v>
       </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J275" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -9758,7 +11038,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>2021-07-04</t>
+          <t>04/07/2021 00:00</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -9806,7 +11086,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>2021-07-06</t>
+          <t>06/07/2021 00:00</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -9842,6 +11122,11 @@
       <c r="D278">
         <v>10.10378856</v>
       </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J278" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -9875,6 +11160,11 @@
       <c r="D279">
         <v>10.10977948</v>
       </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J279" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -9908,6 +11198,11 @@
       <c r="D280">
         <v>10.10463139</v>
       </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J280" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -9941,6 +11236,11 @@
       <c r="D281">
         <v>10.11647864</v>
       </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J281" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -9974,6 +11274,11 @@
       <c r="D282">
         <v>10.11391606</v>
       </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J282" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -10007,6 +11312,11 @@
       <c r="D283">
         <v>10.11325621</v>
       </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J283" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -10040,6 +11350,11 @@
       <c r="D284">
         <v>10.10941289</v>
       </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J284" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -10073,6 +11388,11 @@
       <c r="D285">
         <v>10.11051666</v>
       </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J285" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -10106,6 +11426,11 @@
       <c r="D286">
         <v>10.11633434</v>
       </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J286" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -10139,6 +11464,11 @@
       <c r="D287">
         <v>10.10965298</v>
       </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J287" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -10172,6 +11502,11 @@
       <c r="D288">
         <v>10.10644837</v>
       </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J288" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -10205,6 +11540,11 @@
       <c r="D289">
         <v>10.10854602</v>
       </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J289" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -10238,6 +11578,11 @@
       <c r="D290">
         <v>10.11305482</v>
       </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J290" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -10271,6 +11616,11 @@
       <c r="D291">
         <v>10.10850619</v>
       </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J291" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -10304,6 +11654,11 @@
       <c r="D292">
         <v>10.10591064</v>
       </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J292" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -10349,7 +11704,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>21/03/2022 15:30</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -10385,6 +11740,11 @@
       <c r="D294">
         <v>10.11625215</v>
       </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J294" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -10418,6 +11778,11 @@
       <c r="D295">
         <v>10.1021974</v>
       </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J295" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -10451,6 +11816,11 @@
       <c r="D296">
         <v>10.112990135</v>
       </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J296" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -10496,7 +11866,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>2021-07-06</t>
+          <t>06/07/2021 00:00</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -10532,6 +11902,11 @@
       <c r="D298">
         <v>10.10603043</v>
       </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J298" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -10565,6 +11940,11 @@
       <c r="D299">
         <v>10.11355105</v>
       </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J299" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -10598,6 +11978,11 @@
       <c r="D300">
         <v>10.1138064</v>
       </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J300" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -10631,6 +12016,11 @@
       <c r="D301">
         <v>10.11441025</v>
       </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J301" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -10664,6 +12054,11 @@
       <c r="D302">
         <v>10.11076534</v>
       </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J302" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -10697,6 +12092,11 @@
       <c r="D303">
         <v>10.10713384</v>
       </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J303" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -10730,6 +12130,11 @@
       <c r="D304">
         <v>10.10936007</v>
       </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J304" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -10763,6 +12168,11 @@
       <c r="D305">
         <v>10.11389777</v>
       </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J305" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -10796,6 +12206,11 @@
       <c r="D306">
         <v>10.11594905</v>
       </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J306" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -10829,6 +12244,11 @@
       <c r="D307">
         <v>10.10476391</v>
       </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J307" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -10862,6 +12282,11 @@
       <c r="D308">
         <v>10.116886</v>
       </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J308" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -10895,6 +12320,11 @@
       <c r="D309">
         <v>10.10822311</v>
       </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J309" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -10928,6 +12358,11 @@
       <c r="D310">
         <v>10.11314001</v>
       </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J310" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -10961,6 +12396,11 @@
       <c r="D311">
         <v>10.108533595</v>
       </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J311" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -10994,6 +12434,11 @@
       <c r="D312">
         <v>10.10619609</v>
       </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J312" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -11027,6 +12472,11 @@
       <c r="D313">
         <v>10.10631085</v>
       </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J313" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -11060,6 +12510,11 @@
       <c r="D314">
         <v>10.11161122</v>
       </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J314" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -11093,6 +12548,11 @@
       <c r="D315">
         <v>10.10593132</v>
       </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J315" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -11126,6 +12586,11 @@
       <c r="D316">
         <v>10.11246802</v>
       </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J316" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -11159,6 +12624,11 @@
       <c r="D317">
         <v>10.11658796</v>
       </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J317" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -11192,6 +12662,11 @@
       <c r="D318">
         <v>10.11429699</v>
       </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J318" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -11225,6 +12700,11 @@
       <c r="D319">
         <v>10.11692698</v>
       </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J319" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -11258,6 +12738,11 @@
       <c r="D320">
         <v>10.11573955</v>
       </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J320" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -11291,6 +12776,11 @@
       <c r="D321">
         <v>10.10878141</v>
       </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J321" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -11324,6 +12814,11 @@
       <c r="D322">
         <v>10.11231221</v>
       </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J322" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -11357,6 +12852,11 @@
       <c r="D323">
         <v>10.11390033</v>
       </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J323" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -11390,6 +12890,11 @@
       <c r="D324">
         <v>10.11710244</v>
       </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J324" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -11423,6 +12928,11 @@
       <c r="D325">
         <v>10.10493462</v>
       </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J325" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -11456,6 +12966,11 @@
       <c r="D326">
         <v>10.11322318</v>
       </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J326" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -11489,6 +13004,11 @@
       <c r="D327">
         <v>10.11265762</v>
       </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J327" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -11522,6 +13042,11 @@
       <c r="D328">
         <v>10.10613729</v>
       </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J328" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -11555,6 +13080,11 @@
       <c r="D329">
         <v>10.11248742</v>
       </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J329" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -11588,6 +13118,11 @@
       <c r="D330">
         <v>10.10653602</v>
       </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J330" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -11621,6 +13156,11 @@
       <c r="D331">
         <v>10.10911315</v>
       </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J331" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -11654,6 +13194,11 @@
       <c r="D332">
         <v>10.10904104</v>
       </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J332" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -11687,6 +13232,11 @@
       <c r="D333">
         <v>10.11707585</v>
       </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J333" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -11720,6 +13270,11 @@
       <c r="D334">
         <v>10.11504463</v>
       </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J334" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -11753,6 +13308,11 @@
       <c r="D335">
         <v>10.10843718</v>
       </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J335" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -11786,6 +13346,11 @@
       <c r="D336">
         <v>8.128472260000001</v>
       </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J336" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -11819,6 +13384,11 @@
       <c r="D337">
         <v>8.447799659999999</v>
       </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J337" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -11852,6 +13422,11 @@
       <c r="D338">
         <v>8.132718329999999</v>
       </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J338" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -11885,6 +13460,11 @@
       <c r="D339">
         <v>8.472444380000001</v>
       </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J339" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -11918,6 +13498,11 @@
       <c r="D340">
         <v>8.468660809999999</v>
       </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J340" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -11951,6 +13536,11 @@
       <c r="D341">
         <v>8.464706659999999</v>
       </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J341" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -11984,6 +13574,11 @@
       <c r="D342">
         <v>8.131112269999999</v>
       </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J342" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -12017,6 +13612,11 @@
       <c r="D343">
         <v>8.466763240000001</v>
       </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J343" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -12050,6 +13650,11 @@
       <c r="D344">
         <v>8.13471292</v>
       </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J344" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -12083,6 +13688,11 @@
       <c r="D345">
         <v>8.468868649999999</v>
       </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J345" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -12116,6 +13726,11 @@
       <c r="D346">
         <v>8.45959571</v>
       </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J346" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -12149,6 +13764,11 @@
       <c r="D347">
         <v>8.469435000000001</v>
       </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J347" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -12182,6 +13802,11 @@
       <c r="D348">
         <v>9.720592634999999</v>
       </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J348" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -12215,6 +13840,11 @@
       <c r="D349">
         <v>8.46341101</v>
       </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J349" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -12248,6 +13878,11 @@
       <c r="D350">
         <v>8.13399821</v>
       </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J350" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -12281,6 +13916,11 @@
       <c r="D351">
         <v>8.453316060000001</v>
       </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J351" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -12314,6 +13954,11 @@
       <c r="D352">
         <v>8.46668485</v>
       </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J352" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -12347,6 +13992,11 @@
       <c r="D353">
         <v>8.470142279999999</v>
       </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J353" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -12380,6 +14030,11 @@
       <c r="D354">
         <v>8.130763050000001</v>
       </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J354" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -12413,6 +14068,11 @@
       <c r="D355">
         <v>8.475072730000001</v>
       </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J355" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -12446,6 +14106,11 @@
       <c r="D356">
         <v>8.470241529999999</v>
       </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J356" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -12479,6 +14144,11 @@
       <c r="D357">
         <v>8.500786420000001</v>
       </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J357" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -12512,6 +14182,11 @@
       <c r="D358">
         <v>8.469091150000001</v>
       </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J358" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -12545,6 +14220,11 @@
       <c r="D359">
         <v>8.4536151</v>
       </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J359" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -12578,6 +14258,11 @@
       <c r="D360">
         <v>8.46857438</v>
       </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J360" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -12611,6 +14296,11 @@
       <c r="D361">
         <v>8.46355936</v>
       </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J361" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -12644,6 +14334,11 @@
       <c r="D362">
         <v>8.1303907</v>
       </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J362" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -12677,6 +14372,11 @@
       <c r="D363">
         <v>8.456623690000001</v>
       </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J363" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -12710,6 +14410,11 @@
       <c r="D364">
         <v>8.46915074</v>
       </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J364" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -12743,6 +14448,11 @@
       <c r="D365">
         <v>8.453251870000001</v>
       </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J365" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -12776,6 +14486,11 @@
       <c r="D366">
         <v>8.13315667</v>
       </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J366" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -12809,6 +14524,11 @@
       <c r="D367">
         <v>8.450825549999999</v>
       </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J367" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -12842,6 +14562,11 @@
       <c r="D368">
         <v>9.69916109</v>
       </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J368" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -12875,6 +14600,11 @@
       <c r="D369">
         <v>9.72119288</v>
       </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J369" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -12908,6 +14638,11 @@
       <c r="D370">
         <v>8.46570125</v>
       </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J370" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -12941,6 +14676,11 @@
       <c r="D371">
         <v>8.134699769999999</v>
       </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J371" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -12974,6 +14714,11 @@
       <c r="D372">
         <v>8.499033989999999</v>
       </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J372" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -13007,6 +14752,11 @@
       <c r="D373">
         <v>8.1360245</v>
       </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J373" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -13040,6 +14790,11 @@
       <c r="D374">
         <v>9.721389840000001</v>
       </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J374" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -13073,6 +14828,11 @@
       <c r="D375">
         <v>8.463206980000001</v>
       </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J375" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -13106,6 +14866,11 @@
       <c r="D376">
         <v>9.70585344</v>
       </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J376" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -13139,6 +14904,11 @@
       <c r="D377">
         <v>8.13135626</v>
       </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J377" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -13172,6 +14942,11 @@
       <c r="D378">
         <v>8.460573370000001</v>
       </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J378" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -13205,6 +14980,11 @@
       <c r="D379">
         <v>8.47400122</v>
       </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J379" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -13238,6 +15018,11 @@
       <c r="D380">
         <v>8.128480959999999</v>
       </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J380" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -13271,6 +15056,11 @@
       <c r="D381">
         <v>8.501512160000001</v>
       </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J381" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -13304,6 +15094,11 @@
       <c r="D382">
         <v>8.458758509999999</v>
       </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J382" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -13337,6 +15132,11 @@
       <c r="D383">
         <v>8.131757179999999</v>
       </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J383" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -13370,6 +15170,11 @@
       <c r="D384">
         <v>8.12860242</v>
       </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J384" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -13403,6 +15208,11 @@
       <c r="D385">
         <v>8.13153864</v>
       </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J385" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -13436,6 +15246,11 @@
       <c r="D386">
         <v>8.46966628</v>
       </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J386" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -13469,6 +15284,11 @@
       <c r="D387">
         <v>8.450383370000001</v>
       </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J387" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -13502,6 +15322,11 @@
       <c r="D388">
         <v>8.45497554</v>
       </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J388" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -13535,6 +15360,11 @@
       <c r="D389">
         <v>8.46837723</v>
       </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J389" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -13568,6 +15398,11 @@
       <c r="D390">
         <v>8.46255238</v>
       </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J390" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -13601,6 +15436,11 @@
       <c r="D391">
         <v>8.467719110000001</v>
       </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J391" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -13634,6 +15474,11 @@
       <c r="D392">
         <v>8.457440439999999</v>
       </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J392" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -13667,6 +15512,11 @@
       <c r="D393">
         <v>8.45770503</v>
       </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J393" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -13700,6 +15550,11 @@
       <c r="D394">
         <v>8.465910149999999</v>
       </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J394" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -13733,6 +15588,11 @@
       <c r="D395">
         <v>8.132404770000001</v>
       </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J395" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -13766,6 +15626,11 @@
       <c r="D396">
         <v>8.465200625</v>
       </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J396" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -13799,6 +15664,11 @@
       <c r="D397">
         <v>8.46808639</v>
       </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J397" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -13832,6 +15702,11 @@
       <c r="D398">
         <v>9.717844400000001</v>
       </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J398" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -13865,6 +15740,11 @@
       <c r="D399">
         <v>8.455009889999999</v>
       </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J399" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -13898,6 +15778,11 @@
       <c r="D400">
         <v>8.13023714</v>
       </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J400" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -13931,6 +15816,11 @@
       <c r="D401">
         <v>8.45937481</v>
       </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J401" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -13964,6 +15854,11 @@
       <c r="D402">
         <v>8.46388351</v>
       </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J402" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -13997,6 +15892,11 @@
       <c r="D403">
         <v>8.46732907</v>
       </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J403" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -14030,6 +15930,11 @@
       <c r="D404">
         <v>8.468473149999999</v>
       </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J404" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -14063,6 +15968,11 @@
       <c r="D405">
         <v>8.46563081</v>
       </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J405" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -14096,6 +16006,11 @@
       <c r="D406">
         <v>8.456636530000001</v>
       </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J406" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -14129,6 +16044,11 @@
       <c r="D407">
         <v>8.1341587</v>
       </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J407" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -14162,6 +16082,11 @@
       <c r="D408">
         <v>8.46591433</v>
       </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J408" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -14195,6 +16120,11 @@
       <c r="D409">
         <v>8.472695379999999</v>
       </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J409" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -14228,6 +16158,11 @@
       <c r="D410">
         <v>8.45650878</v>
       </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J410" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -14261,6 +16196,11 @@
       <c r="D411">
         <v>8.46287339</v>
       </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J411" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -14294,6 +16234,11 @@
       <c r="D412">
         <v>8.450175209999999</v>
       </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J412" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -14327,6 +16272,11 @@
       <c r="D413">
         <v>8.467812500000001</v>
       </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J413" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -14360,6 +16310,11 @@
       <c r="D414">
         <v>8.4559756</v>
       </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J414" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -14393,6 +16348,11 @@
       <c r="D415">
         <v>8.1339881</v>
       </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J415" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -14426,6 +16386,11 @@
       <c r="D416">
         <v>8.12830724</v>
       </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J416" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -14459,6 +16424,11 @@
       <c r="D417">
         <v>8.4549538</v>
       </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J417" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -14492,6 +16462,11 @@
       <c r="D418">
         <v>8.46651256</v>
       </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J418" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -14525,6 +16500,11 @@
       <c r="D419">
         <v>8.45925798</v>
       </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J419" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -14558,6 +16538,11 @@
       <c r="D420">
         <v>8.463208059999999</v>
       </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J420" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -14591,6 +16576,11 @@
       <c r="D421">
         <v>9.719114865</v>
       </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J421" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -14624,6 +16614,11 @@
       <c r="D422">
         <v>8.509737189999999</v>
       </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J422" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -14657,6 +16652,11 @@
       <c r="D423">
         <v>8.466886179999999</v>
       </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J423" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -14690,6 +16690,11 @@
       <c r="D424">
         <v>8.13299423</v>
       </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J424" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -14723,6 +16728,11 @@
       <c r="D425">
         <v>8.4666327</v>
       </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J425" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -14756,6 +16766,11 @@
       <c r="D426">
         <v>8.129423470000001</v>
       </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J426" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -14789,6 +16804,11 @@
       <c r="D427">
         <v>8.4652587</v>
       </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J427" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -14822,6 +16842,11 @@
       <c r="D428">
         <v>8.46621614</v>
       </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J428" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -14855,6 +16880,11 @@
       <c r="D429">
         <v>8.1349737</v>
       </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J429" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -14888,6 +16918,11 @@
       <c r="D430">
         <v>8.46855015</v>
       </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J430" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -14921,6 +16956,11 @@
       <c r="D431">
         <v>8.134068005</v>
       </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J431" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -14954,6 +16994,11 @@
       <c r="D432">
         <v>8.12846109</v>
       </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J432" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -14987,6 +17032,11 @@
       <c r="D433">
         <v>8.501449340000001</v>
       </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J433" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -15020,6 +17070,11 @@
       <c r="D434">
         <v>9.71987843</v>
       </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J434" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -15053,6 +17108,11 @@
       <c r="D435">
         <v>8.46108005</v>
       </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J435" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -15086,6 +17146,11 @@
       <c r="D436">
         <v>8.513186080000001</v>
       </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J436" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -15119,6 +17184,11 @@
       <c r="D437">
         <v>8.463704740000001</v>
       </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J437" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -15152,6 +17222,11 @@
       <c r="D438">
         <v>8.132653865</v>
       </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J438" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -15185,6 +17260,11 @@
       <c r="D439">
         <v>8.50076582</v>
       </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J439" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -15218,6 +17298,11 @@
       <c r="D440">
         <v>8.47343693</v>
       </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J440" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -15251,6 +17336,11 @@
       <c r="D441">
         <v>8.134652669999999</v>
       </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J441" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -15284,6 +17374,11 @@
       <c r="D442">
         <v>8.45530265</v>
       </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J442" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -15317,6 +17412,11 @@
       <c r="D443">
         <v>8.511033082000001</v>
       </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J443" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -15350,6 +17450,11 @@
       <c r="D444">
         <v>8.13183149</v>
       </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J444" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -15383,6 +17488,11 @@
       <c r="D445">
         <v>8.13582042</v>
       </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J445" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -15416,6 +17526,11 @@
       <c r="D446">
         <v>9.71677669</v>
       </c>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J446" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -15449,6 +17564,11 @@
       <c r="D447">
         <v>9.720240240000001</v>
       </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J447" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -15482,6 +17602,11 @@
       <c r="D448">
         <v>8.137088260000001</v>
       </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J448" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -15515,6 +17640,11 @@
       <c r="D449">
         <v>8.4913449</v>
       </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J449" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -15548,6 +17678,11 @@
       <c r="D450">
         <v>8.136474679999999</v>
       </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J450" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -15581,6 +17716,11 @@
       <c r="D451">
         <v>8.49733846</v>
       </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J451" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -15614,6 +17754,11 @@
       <c r="D452">
         <v>9.717771279999999</v>
       </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J452" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -15647,6 +17792,11 @@
       <c r="D453">
         <v>8.137046460000001</v>
       </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J453" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -15680,6 +17830,11 @@
       <c r="D454">
         <v>8.50847886</v>
       </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J454" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -15713,6 +17868,11 @@
       <c r="D455">
         <v>9.71328662</v>
       </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J455" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -15758,7 +17918,7 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>2021-07-19</t>
+          <t>19/07/2021 00:00</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -15794,6 +17954,11 @@
       <c r="D457">
         <v>8.451476449999999</v>
       </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J457" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -15839,7 +18004,7 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>2021-07-19</t>
+          <t>19/07/2021 00:00</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -15887,7 +18052,7 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>21/03/2022 15:30</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -15923,6 +18088,11 @@
       <c r="D460">
         <v>8.4731647</v>
       </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J460" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -15968,7 +18138,7 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>2021-07-19</t>
+          <t>19/07/2021 00:00</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -16004,6 +18174,11 @@
       <c r="D462">
         <v>8.474943400000001</v>
       </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J462" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -16037,6 +18212,11 @@
       <c r="D463">
         <v>10.12089578</v>
       </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J463" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -16070,6 +18250,11 @@
       <c r="D464">
         <v>9.837258135000001</v>
       </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J464" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -16103,6 +18288,11 @@
       <c r="D465">
         <v>8.47287144</v>
       </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J465" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -16136,6 +18326,11 @@
       <c r="D466">
         <v>8.46523762</v>
       </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J466" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -16169,6 +18364,11 @@
       <c r="D467">
         <v>8.442962359999999</v>
       </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J467" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -16202,6 +18402,11 @@
       <c r="D468">
         <v>8.47332078</v>
       </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J468" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -16235,6 +18440,11 @@
       <c r="D469">
         <v>8.473325000000001</v>
       </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J469" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -16268,6 +18478,11 @@
       <c r="D470">
         <v>8.45071433</v>
       </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J470" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -16301,6 +18516,11 @@
       <c r="D471">
         <v>10.12142769</v>
       </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J471" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -16334,6 +18554,11 @@
       <c r="D472">
         <v>8.47159942</v>
       </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J472" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -16367,6 +18592,11 @@
       <c r="D473">
         <v>8.43143008</v>
       </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J473" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -16400,6 +18630,11 @@
       <c r="D474">
         <v>10.11766244</v>
       </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J474" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -16433,6 +18668,11 @@
       <c r="D475">
         <v>8.419935779999999</v>
       </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J475" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -16466,6 +18706,11 @@
       <c r="D476">
         <v>9.830679835</v>
       </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J476" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -16499,6 +18744,11 @@
       <c r="D477">
         <v>9.825106359999999</v>
       </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J477" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -16532,6 +18782,11 @@
       <c r="D478">
         <v>9.8079784</v>
       </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J478" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -16577,7 +18832,7 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>2021-07-13</t>
+          <t>13/07/2021 00:00</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -16613,6 +18868,11 @@
       <c r="D480">
         <v>10.11731024</v>
       </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J480" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -16646,6 +18906,11 @@
       <c r="D481">
         <v>9.851538625</v>
       </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J481" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -16679,6 +18944,11 @@
       <c r="D482">
         <v>8.472254830000001</v>
       </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J482" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -16712,6 +18982,11 @@
       <c r="D483">
         <v>9.828703745</v>
       </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J483" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -16745,6 +19020,11 @@
       <c r="D484">
         <v>8.47158668</v>
       </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J484" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -16778,6 +19058,11 @@
       <c r="D485">
         <v>8.44556628</v>
       </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J485" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -16811,6 +19096,11 @@
       <c r="D486">
         <v>9.832621769999999</v>
       </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J486" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -16844,6 +19134,11 @@
       <c r="D487">
         <v>8.437707850000001</v>
       </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J487" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -16877,6 +19172,11 @@
       <c r="D488">
         <v>8.46433379</v>
       </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J488" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -16910,6 +19210,11 @@
       <c r="D489">
         <v>8.465069890000001</v>
       </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J489" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -16955,7 +19260,7 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>15/07/2021 00:00</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
@@ -16991,6 +19296,11 @@
       <c r="D491">
         <v>8.439534780000001</v>
       </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J491" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -17024,6 +19334,11 @@
       <c r="D492">
         <v>8.46394402</v>
       </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J492" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -17057,6 +19372,11 @@
       <c r="D493">
         <v>9.85171714</v>
       </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J493" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -17090,6 +19410,11 @@
       <c r="D494">
         <v>8.439501249999999</v>
       </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J494" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -17123,6 +19448,11 @@
       <c r="D495">
         <v>9.82496517</v>
       </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J495" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -17156,6 +19486,11 @@
       <c r="D496">
         <v>8.47962747</v>
       </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J496" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -17189,6 +19524,11 @@
       <c r="D497">
         <v>9.84031274</v>
       </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J497" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -17222,6 +19562,11 @@
       <c r="D498">
         <v>9.824606709999999</v>
       </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J498" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -17255,6 +19600,11 @@
       <c r="D499">
         <v>8.42897015</v>
       </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J499" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -17288,6 +19638,11 @@
       <c r="D500">
         <v>9.829564359999999</v>
       </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J500" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -17321,6 +19676,11 @@
       <c r="D501">
         <v>9.84813413</v>
       </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J501" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -17354,6 +19714,11 @@
       <c r="D502">
         <v>8.47641</v>
       </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J502" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -17387,6 +19752,11 @@
       <c r="D503">
         <v>9.81772595</v>
       </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J503" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -17420,6 +19790,11 @@
       <c r="D504">
         <v>8.472650809999999</v>
       </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J504" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -17453,6 +19828,11 @@
       <c r="D505">
         <v>10.1175086</v>
       </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J505" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -17486,6 +19866,11 @@
       <c r="D506">
         <v>10.11711239</v>
       </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J506" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -17531,7 +19916,7 @@
       </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>14/07/2021 00:00</t>
         </is>
       </c>
       <c r="J507" t="inlineStr">
@@ -17567,6 +19952,11 @@
       <c r="D508">
         <v>9.810754975</v>
       </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J508" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -17600,6 +19990,11 @@
       <c r="D509">
         <v>9.841658649999999</v>
       </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J509" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -17633,6 +20028,11 @@
       <c r="D510">
         <v>8.472642690000001</v>
       </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J510" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -17666,6 +20066,11 @@
       <c r="D511">
         <v>8.477068940000001</v>
       </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J511" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -17699,6 +20104,11 @@
       <c r="D512">
         <v>9.82405876</v>
       </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J512" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -17732,6 +20142,11 @@
       <c r="D513">
         <v>8.455061430000001</v>
       </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J513" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -17765,6 +20180,11 @@
       <c r="D514">
         <v>9.717722350000001</v>
       </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J514" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -17798,6 +20218,11 @@
       <c r="D515">
         <v>8.47314154</v>
       </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J515" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -17831,6 +20256,11 @@
       <c r="D516">
         <v>9.820665760000001</v>
       </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J516" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -17876,7 +20306,7 @@
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>15/07/2021 00:00</t>
         </is>
       </c>
       <c r="J517" t="inlineStr">
@@ -17924,7 +20354,7 @@
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>14/07/2021 00:00</t>
         </is>
       </c>
       <c r="J518" t="inlineStr">
@@ -17960,6 +20390,11 @@
       <c r="D519">
         <v>8.46346774</v>
       </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J519" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -17993,6 +20428,11 @@
       <c r="D520">
         <v>9.815371835000001</v>
       </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J520" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -18038,7 +20478,7 @@
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>15/07/2021 00:00</t>
         </is>
       </c>
       <c r="J521" t="inlineStr">
@@ -18086,7 +20526,7 @@
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>15/07/2021 00:00</t>
         </is>
       </c>
       <c r="J522" t="inlineStr">
@@ -18134,7 +20574,7 @@
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>2021-07-16</t>
+          <t>16/07/2021 00:00</t>
         </is>
       </c>
       <c r="J523" t="inlineStr">
@@ -18170,6 +20610,11 @@
       <c r="D524">
         <v>8.479008629999999</v>
       </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J524" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -18215,7 +20660,7 @@
       </c>
       <c r="H525" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>15/07/2021 00:00</t>
         </is>
       </c>
       <c r="J525" t="inlineStr">
@@ -18263,7 +20708,7 @@
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>2021-07-16</t>
+          <t>16/07/2021 00:00</t>
         </is>
       </c>
       <c r="J526" t="inlineStr">
@@ -18299,6 +20744,11 @@
       <c r="D527">
         <v>9.840198839999999</v>
       </c>
+      <c r="H527" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J527" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -18332,6 +20782,11 @@
       <c r="D528">
         <v>8.47637836</v>
       </c>
+      <c r="H528" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J528" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -18365,6 +20820,11 @@
       <c r="D529">
         <v>8.471648310000001</v>
       </c>
+      <c r="H529" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J529" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -18398,6 +20858,11 @@
       <c r="D530">
         <v>9.720617969999999</v>
       </c>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J530" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -18431,6 +20896,11 @@
       <c r="D531">
         <v>9.71887031</v>
       </c>
+      <c r="H531" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J531" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -18464,6 +20934,11 @@
       <c r="D532">
         <v>9.72048234</v>
       </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J532" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -18509,7 +20984,7 @@
       </c>
       <c r="H533" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>15/07/2021 00:00</t>
         </is>
       </c>
       <c r="J533" t="inlineStr">
@@ -18545,6 +21020,11 @@
       <c r="D534">
         <v>9.83938874</v>
       </c>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J534" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -18578,6 +21058,11 @@
       <c r="D535">
         <v>9.706162965000001</v>
       </c>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J535" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -18623,7 +21108,7 @@
       </c>
       <c r="H536" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>15/07/2021 00:00</t>
         </is>
       </c>
       <c r="J536" t="inlineStr">
@@ -18671,7 +21156,7 @@
       </c>
       <c r="H537" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>21/03/2022 15:30</t>
         </is>
       </c>
       <c r="J537" t="inlineStr">
@@ -18707,6 +21192,11 @@
       <c r="D538">
         <v>8.471623790000001</v>
       </c>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J538" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -18740,6 +21230,11 @@
       <c r="D539">
         <v>9.713274159999999</v>
       </c>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J539" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -18785,7 +21280,7 @@
       </c>
       <c r="H540" t="inlineStr">
         <is>
-          <t>2021-07-16</t>
+          <t>16/07/2021 00:00</t>
         </is>
       </c>
       <c r="J540" t="inlineStr">
@@ -18833,7 +21328,7 @@
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>2021-07-16</t>
+          <t>16/07/2021 00:00</t>
         </is>
       </c>
       <c r="J541" t="inlineStr">
@@ -18881,7 +21376,7 @@
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>2021-07-19</t>
+          <t>19/07/2021 00:00</t>
         </is>
       </c>
       <c r="J542" t="inlineStr">
@@ -18917,6 +21412,11 @@
       <c r="D543">
         <v>8.468941620000001</v>
       </c>
+      <c r="H543" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J543" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -18962,7 +21462,7 @@
       </c>
       <c r="H544" t="inlineStr">
         <is>
-          <t>2021-07-19</t>
+          <t>19/07/2021 00:00</t>
         </is>
       </c>
       <c r="J544" t="inlineStr">
@@ -19010,7 +21510,7 @@
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>2021-07-19</t>
+          <t>19/07/2021 00:00</t>
         </is>
       </c>
       <c r="J545" t="inlineStr">
@@ -19046,6 +21546,11 @@
       <c r="D546">
         <v>9.71963528</v>
       </c>
+      <c r="H546" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J546" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -19085,7 +21590,7 @@
       </c>
       <c r="H547" t="inlineStr">
         <is>
-          <t>2021-07-16</t>
+          <t>16/07/2021 00:00</t>
         </is>
       </c>
       <c r="J547" t="inlineStr">
@@ -19116,6 +21621,11 @@
       <c r="D548">
         <v>9.852014280000001</v>
       </c>
+      <c r="H548" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J548" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -19149,6 +21659,11 @@
       <c r="D549">
         <v>9.7180839</v>
       </c>
+      <c r="H549" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J549" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -19182,6 +21697,11 @@
       <c r="D550">
         <v>9.71653427</v>
       </c>
+      <c r="H550" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J550" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -19227,7 +21747,7 @@
       </c>
       <c r="H551" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>14/07/2021 00:00</t>
         </is>
       </c>
       <c r="J551" t="inlineStr">
@@ -19263,6 +21783,11 @@
       <c r="D552">
         <v>8.47164179</v>
       </c>
+      <c r="H552" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J552" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -19296,6 +21821,11 @@
       <c r="D553">
         <v>8.43481055</v>
       </c>
+      <c r="H553" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J553" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -19329,6 +21859,11 @@
       <c r="D554">
         <v>10.11705953</v>
       </c>
+      <c r="H554" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J554" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -19362,6 +21897,11 @@
       <c r="D555">
         <v>9.86011865</v>
       </c>
+      <c r="H555" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J555" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -19395,6 +21935,11 @@
       <c r="D556">
         <v>10.10799106</v>
       </c>
+      <c r="H556" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J556" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -19440,7 +21985,7 @@
       </c>
       <c r="H557" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>14/07/2021 00:00</t>
         </is>
       </c>
       <c r="J557" t="inlineStr">
@@ -19476,6 +22021,11 @@
       <c r="D558">
         <v>9.843387849999999</v>
       </c>
+      <c r="H558" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J558" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -19509,6 +22059,11 @@
       <c r="D559">
         <v>8.476320940000001</v>
       </c>
+      <c r="H559" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J559" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -19554,7 +22109,7 @@
       </c>
       <c r="H560" t="inlineStr">
         <is>
-          <t>2021-07-13</t>
+          <t>13/07/2021 00:00</t>
         </is>
       </c>
       <c r="J560" t="inlineStr">
@@ -19590,6 +22145,11 @@
       <c r="D561">
         <v>8.462630880000001</v>
       </c>
+      <c r="H561" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J561" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -19623,6 +22183,11 @@
       <c r="D562">
         <v>9.820440444999999</v>
       </c>
+      <c r="H562" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J562" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -19656,6 +22221,11 @@
       <c r="D563">
         <v>8.463762624999999</v>
       </c>
+      <c r="H563" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J563" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -19689,6 +22259,11 @@
       <c r="D564">
         <v>8.47618602</v>
       </c>
+      <c r="H564" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J564" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -19722,6 +22297,11 @@
       <c r="D565">
         <v>9.841652265</v>
       </c>
+      <c r="H565" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J565" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -19755,6 +22335,11 @@
       <c r="D566">
         <v>9.84406272</v>
       </c>
+      <c r="H566" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J566" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -19788,6 +22373,11 @@
       <c r="D567">
         <v>9.852670034999999</v>
       </c>
+      <c r="H567" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J567" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -19833,7 +22423,7 @@
       </c>
       <c r="H568" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>14/07/2021 00:00</t>
         </is>
       </c>
       <c r="J568" t="inlineStr">
@@ -19869,6 +22459,11 @@
       <c r="D569">
         <v>8.475446505000001</v>
       </c>
+      <c r="H569" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J569" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -19902,6 +22497,11 @@
       <c r="D570">
         <v>9.81578605</v>
       </c>
+      <c r="H570" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J570" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -19935,6 +22535,11 @@
       <c r="D571">
         <v>10.12138981</v>
       </c>
+      <c r="H571" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J571" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -19980,7 +22585,7 @@
       </c>
       <c r="H572" t="inlineStr">
         <is>
-          <t>2021-07-19</t>
+          <t>19/07/2021 00:00</t>
         </is>
       </c>
       <c r="J572" t="inlineStr">
@@ -20028,7 +22633,7 @@
       </c>
       <c r="H573" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>21/03/2022 15:30</t>
         </is>
       </c>
       <c r="J573" t="inlineStr">
@@ -20076,7 +22681,7 @@
       </c>
       <c r="H574" t="inlineStr">
         <is>
-          <t>2021-07-19</t>
+          <t>19/07/2021 00:00</t>
         </is>
       </c>
       <c r="J574" t="inlineStr">
@@ -20124,7 +22729,7 @@
       </c>
       <c r="H575" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>21/03/2022 15:30</t>
         </is>
       </c>
       <c r="J575" t="inlineStr">
@@ -20160,6 +22765,11 @@
       <c r="D576">
         <v>10.11975089</v>
       </c>
+      <c r="H576" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J576" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -20205,7 +22815,7 @@
       </c>
       <c r="H577" t="inlineStr">
         <is>
-          <t>2021-07-19</t>
+          <t>19/07/2021 00:00</t>
         </is>
       </c>
       <c r="J577" t="inlineStr">
@@ -20241,6 +22851,11 @@
       <c r="D578">
         <v>8.451988999999999</v>
       </c>
+      <c r="H578" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J578" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -20286,7 +22901,7 @@
       </c>
       <c r="H579" t="inlineStr">
         <is>
-          <t>2021-07-16</t>
+          <t>16/07/2021 00:00</t>
         </is>
       </c>
       <c r="J579" t="inlineStr">
@@ -20334,7 +22949,7 @@
       </c>
       <c r="H580" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>21/03/2022 15:30</t>
         </is>
       </c>
       <c r="J580" t="inlineStr">
@@ -20382,7 +22997,7 @@
       </c>
       <c r="H581" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>14/07/2021 00:00</t>
         </is>
       </c>
       <c r="J581" t="inlineStr">
@@ -20430,7 +23045,7 @@
       </c>
       <c r="H582" t="inlineStr">
         <is>
-          <t>2021-07-19</t>
+          <t>19/07/2021 00:00</t>
         </is>
       </c>
       <c r="J582" t="inlineStr">
@@ -20466,6 +23081,11 @@
       <c r="D583">
         <v>9.721235139999999</v>
       </c>
+      <c r="H583" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J583" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -20499,6 +23119,11 @@
       <c r="D584">
         <v>9.721653099999999</v>
       </c>
+      <c r="H584" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J584" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -20544,7 +23169,7 @@
       </c>
       <c r="H585" t="inlineStr">
         <is>
-          <t>2021-07-13</t>
+          <t>13/07/2021 00:00</t>
         </is>
       </c>
       <c r="J585" t="inlineStr">
@@ -20592,7 +23217,7 @@
       </c>
       <c r="H586" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>21/03/2022 15:30</t>
         </is>
       </c>
       <c r="J586" t="inlineStr">
@@ -20640,7 +23265,7 @@
       </c>
       <c r="H587" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>15/07/2021 00:00</t>
         </is>
       </c>
       <c r="J587" t="inlineStr">
@@ -20676,6 +23301,11 @@
       <c r="D588">
         <v>9.69892563</v>
       </c>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J588" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -20709,6 +23339,11 @@
       <c r="D589">
         <v>8.47396666</v>
       </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J589" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -20754,7 +23389,7 @@
       </c>
       <c r="H590" t="inlineStr">
         <is>
-          <t>2021-07-13</t>
+          <t>13/07/2021 00:00</t>
         </is>
       </c>
       <c r="J590" t="inlineStr">
@@ -20802,7 +23437,7 @@
       </c>
       <c r="H591" t="inlineStr">
         <is>
-          <t>2021-07-13</t>
+          <t>13/07/2021 00:00</t>
         </is>
       </c>
       <c r="J591" t="inlineStr">
@@ -20838,6 +23473,11 @@
       <c r="D592">
         <v>8.466910329999999</v>
       </c>
+      <c r="H592" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J592" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -20871,6 +23511,11 @@
       <c r="D593">
         <v>8.468838570000001</v>
       </c>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J593" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -20904,6 +23549,11 @@
       <c r="D594">
         <v>8.45987512</v>
       </c>
+      <c r="H594" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J594" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -20949,7 +23599,7 @@
       </c>
       <c r="H595" t="inlineStr">
         <is>
-          <t>2021-07-13</t>
+          <t>13/07/2021 00:00</t>
         </is>
       </c>
       <c r="J595" t="inlineStr">
@@ -20997,7 +23647,7 @@
       </c>
       <c r="H596" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>14/07/2021 00:00</t>
         </is>
       </c>
       <c r="J596" t="inlineStr">
@@ -21045,7 +23695,7 @@
       </c>
       <c r="H597" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>14/07/2021 00:00</t>
         </is>
       </c>
       <c r="J597" t="inlineStr">
@@ -21081,6 +23731,11 @@
       <c r="D598">
         <v>8.477061429999999</v>
       </c>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J598" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -21114,6 +23769,11 @@
       <c r="D599">
         <v>8.45258179</v>
       </c>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J599" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -21147,6 +23807,11 @@
       <c r="D600">
         <v>8.452887049999999</v>
       </c>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J600" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -21180,6 +23845,11 @@
       <c r="D601">
         <v>10.5205168104165</v>
       </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J601" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -21213,6 +23883,11 @@
       <c r="D602">
         <v>12.41138526</v>
       </c>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J602" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -21258,7 +23933,7 @@
       </c>
       <c r="H603" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>14/07/2021 00:00</t>
         </is>
       </c>
       <c r="J603" t="inlineStr">
@@ -21294,6 +23969,11 @@
       <c r="D604">
         <v>11.99261657</v>
       </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J604" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -21339,7 +24019,7 @@
       </c>
       <c r="H605" t="inlineStr">
         <is>
-          <t>2021-07-10</t>
+          <t>10/07/2021 00:00</t>
         </is>
       </c>
       <c r="J605" t="inlineStr">
@@ -21375,6 +24055,11 @@
       <c r="D606">
         <v>12.48643097</v>
       </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J606" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -21420,7 +24105,7 @@
       </c>
       <c r="H607" t="inlineStr">
         <is>
-          <t>2021-07-08</t>
+          <t>08/07/2021 00:00</t>
         </is>
       </c>
       <c r="I607" t="inlineStr">
@@ -21461,6 +24146,11 @@
       <c r="D608">
         <v>10.12139296</v>
       </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J608" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -21494,6 +24184,11 @@
       <c r="D609">
         <v>11.87627296</v>
       </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J609" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -21539,7 +24234,7 @@
       </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>15/07/2021 00:00</t>
         </is>
       </c>
       <c r="J610" t="inlineStr">
@@ -21575,6 +24270,11 @@
       <c r="D611">
         <v>11.88594669</v>
       </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J611" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -21608,6 +24308,11 @@
       <c r="D612">
         <v>11.74553801</v>
       </c>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J612" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -21641,6 +24346,11 @@
       <c r="D613">
         <v>10.5532616491797</v>
       </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J613" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -21674,6 +24384,11 @@
       <c r="D614">
         <v>12.32095658</v>
       </c>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J614" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -21707,6 +24422,11 @@
       <c r="D615">
         <v>12.46813802</v>
       </c>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J615" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -21740,6 +24460,11 @@
       <c r="D616">
         <v>10.11719456</v>
       </c>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J616" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -21773,6 +24498,11 @@
       <c r="D617">
         <v>10.12149751</v>
       </c>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J617" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -21806,6 +24536,11 @@
       <c r="D618">
         <v>10.11998585</v>
       </c>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J618" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -21851,7 +24586,7 @@
       </c>
       <c r="H619" t="inlineStr">
         <is>
-          <t>2021-07-17</t>
+          <t>17/07/2021 00:00</t>
         </is>
       </c>
       <c r="J619" t="inlineStr">
@@ -21887,6 +24622,11 @@
       <c r="D620">
         <v>10.12134588</v>
       </c>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J620" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -21920,6 +24660,11 @@
       <c r="D621">
         <v>10.12143175</v>
       </c>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J621" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -21953,6 +24698,11 @@
       <c r="D622">
         <v>12.40472992</v>
       </c>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J622" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -21986,6 +24736,11 @@
       <c r="D623">
         <v>11.90347502</v>
       </c>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J623" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -22019,6 +24774,11 @@
       <c r="D624">
         <v>11.84218783</v>
       </c>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J624" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -22064,7 +24824,7 @@
       </c>
       <c r="H625" t="inlineStr">
         <is>
-          <t>2021-08-07</t>
+          <t>07/08/2021 00:00</t>
         </is>
       </c>
       <c r="J625" t="inlineStr">
@@ -22100,6 +24860,11 @@
       <c r="D626">
         <v>10.12451672</v>
       </c>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J626" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -22145,7 +24910,7 @@
       </c>
       <c r="H627" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>15/07/2021 00:00</t>
         </is>
       </c>
       <c r="J627" t="inlineStr">
@@ -22181,6 +24946,11 @@
       <c r="D628">
         <v>11.84280895</v>
       </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J628" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -22214,6 +24984,11 @@
       <c r="D629">
         <v>11.86002564</v>
       </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J629" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -22247,6 +25022,11 @@
       <c r="D630">
         <v>11.90405064</v>
       </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J630" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -22280,6 +25060,11 @@
       <c r="D631">
         <v>11.88991166</v>
       </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J631" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -22325,7 +25110,7 @@
       </c>
       <c r="H632" t="inlineStr">
         <is>
-          <t>2021-07-26</t>
+          <t>21/03/2022 15:30</t>
         </is>
       </c>
       <c r="J632" t="inlineStr">
@@ -22373,7 +25158,7 @@
       </c>
       <c r="H633" t="inlineStr">
         <is>
-          <t>2021-07-27</t>
+          <t>21/03/2022 15:30</t>
         </is>
       </c>
       <c r="J633" t="inlineStr">
@@ -22409,6 +25194,11 @@
       <c r="D634">
         <v>10.5204268230646</v>
       </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J634" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -22454,7 +25244,7 @@
       </c>
       <c r="H635" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>14/07/2021 00:00</t>
         </is>
       </c>
       <c r="J635" t="inlineStr">
@@ -22490,6 +25280,11 @@
       <c r="D636">
         <v>10.12313438</v>
       </c>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J636" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -22535,7 +25330,7 @@
       </c>
       <c r="H637" t="inlineStr">
         <is>
-          <t>2021-07-26</t>
+          <t>21/03/2022 15:30</t>
         </is>
       </c>
       <c r="J637" t="inlineStr">
@@ -22583,7 +25378,7 @@
       </c>
       <c r="H638" t="inlineStr">
         <is>
-          <t>2021-07-20</t>
+          <t>20/07/2021 00:00</t>
         </is>
       </c>
       <c r="J638" t="inlineStr">
@@ -22631,7 +25426,7 @@
       </c>
       <c r="H639" t="inlineStr">
         <is>
-          <t>2021-07-20</t>
+          <t>20/07/2021 00:00</t>
         </is>
       </c>
       <c r="J639" t="inlineStr">
@@ -22679,7 +25474,7 @@
       </c>
       <c r="H640" t="inlineStr">
         <is>
-          <t>2021-07-19</t>
+          <t>19/07/2021 00:00</t>
         </is>
       </c>
       <c r="J640" t="inlineStr">
@@ -22727,7 +25522,7 @@
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>21/03/2022 15:30</t>
         </is>
       </c>
       <c r="I641" t="inlineStr">
@@ -22780,7 +25575,7 @@
       </c>
       <c r="H642" t="inlineStr">
         <is>
-          <t>2021-07-24</t>
+          <t>21/03/2022 15:30</t>
         </is>
       </c>
       <c r="J642" t="inlineStr">
@@ -22816,6 +25611,11 @@
       <c r="D643">
         <v>12.24909928</v>
       </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J643" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -22861,7 +25661,7 @@
       </c>
       <c r="H644" t="inlineStr">
         <is>
-          <t>2021-07-25</t>
+          <t>21/03/2022 15:30</t>
         </is>
       </c>
       <c r="J644" t="inlineStr">
@@ -22897,6 +25697,11 @@
       <c r="D645">
         <v>10.11754276</v>
       </c>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J645" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -22930,6 +25735,11 @@
       <c r="D646">
         <v>12.0373299</v>
       </c>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J646" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -22975,7 +25785,7 @@
       </c>
       <c r="H647" t="inlineStr">
         <is>
-          <t>2021-07-25</t>
+          <t>21/03/2022 15:30</t>
         </is>
       </c>
       <c r="J647" t="inlineStr">
@@ -23011,6 +25821,11 @@
       <c r="D648">
         <v>12.00302151</v>
       </c>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J648" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -23044,6 +25859,11 @@
       <c r="D649">
         <v>10.12176065</v>
       </c>
+      <c r="H649" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J649" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -23077,6 +25897,11 @@
       <c r="D650">
         <v>10.11646632</v>
       </c>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J650" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -23122,7 +25947,7 @@
       </c>
       <c r="H651" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>21/03/2022 15:30</t>
         </is>
       </c>
       <c r="J651" t="inlineStr">
@@ -23170,7 +25995,7 @@
       </c>
       <c r="H652" t="inlineStr">
         <is>
-          <t>2021-07-11</t>
+          <t>11/07/2021 00:00</t>
         </is>
       </c>
       <c r="J652" t="inlineStr">
@@ -23218,7 +26043,7 @@
       </c>
       <c r="H653" t="inlineStr">
         <is>
-          <t>2021-07-19</t>
+          <t>19/07/2021 00:00</t>
         </is>
       </c>
       <c r="J653" t="inlineStr">
@@ -23266,7 +26091,7 @@
       </c>
       <c r="H654" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>21/03/2022 15:30</t>
         </is>
       </c>
       <c r="J654" t="inlineStr">
@@ -23314,7 +26139,7 @@
       </c>
       <c r="H655" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>21/03/2022 15:30</t>
         </is>
       </c>
       <c r="J655" t="inlineStr">
@@ -23362,7 +26187,7 @@
       </c>
       <c r="H656" t="inlineStr">
         <is>
-          <t>2021-07-28</t>
+          <t>21/03/2022 15:30</t>
         </is>
       </c>
       <c r="J656" t="inlineStr">
@@ -23410,7 +26235,7 @@
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>2021-07-26</t>
+          <t>21/03/2022 15:30</t>
         </is>
       </c>
       <c r="J657" t="inlineStr">
@@ -23458,7 +26283,7 @@
       </c>
       <c r="H658" t="inlineStr">
         <is>
-          <t>2021-07-25</t>
+          <t>21/03/2022 15:30</t>
         </is>
       </c>
       <c r="J658" t="inlineStr">
@@ -23506,7 +26331,7 @@
       </c>
       <c r="H659" t="inlineStr">
         <is>
-          <t>2021-07-26</t>
+          <t>21/03/2022 15:30</t>
         </is>
       </c>
       <c r="J659" t="inlineStr">
@@ -23554,7 +26379,7 @@
       </c>
       <c r="H660" t="inlineStr">
         <is>
-          <t>2021-07-18</t>
+          <t>18/07/2021 00:00</t>
         </is>
       </c>
       <c r="J660" t="inlineStr">
@@ -23602,7 +26427,7 @@
       </c>
       <c r="H661" t="inlineStr">
         <is>
-          <t>2021-07-27</t>
+          <t>21/03/2022 15:30</t>
         </is>
       </c>
       <c r="J661" t="inlineStr">
@@ -23650,7 +26475,7 @@
       </c>
       <c r="H662" t="inlineStr">
         <is>
-          <t>2021-07-19</t>
+          <t>19/07/2021 00:00</t>
         </is>
       </c>
       <c r="J662" t="inlineStr">
@@ -23698,7 +26523,7 @@
       </c>
       <c r="H663" t="inlineStr">
         <is>
-          <t>2021-07-24</t>
+          <t>21/03/2022 15:30</t>
         </is>
       </c>
       <c r="J663" t="inlineStr">
@@ -23746,7 +26571,7 @@
       </c>
       <c r="H664" t="inlineStr">
         <is>
-          <t>2021-07-12</t>
+          <t>12/07/2021 00:00</t>
         </is>
       </c>
       <c r="J664" t="inlineStr">
@@ -23794,7 +26619,7 @@
       </c>
       <c r="H665" t="inlineStr">
         <is>
-          <t>2021-08-07</t>
+          <t>07/08/2021 00:00</t>
         </is>
       </c>
       <c r="J665" t="inlineStr">
@@ -23842,7 +26667,7 @@
       </c>
       <c r="H666" t="inlineStr">
         <is>
-          <t>2021-08-07</t>
+          <t>07/08/2021 00:00</t>
         </is>
       </c>
       <c r="I666" t="inlineStr">
@@ -23895,7 +26720,7 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>2021-07-27</t>
+          <t>21/03/2022 15:30</t>
         </is>
       </c>
       <c r="J667" t="inlineStr">
@@ -23931,6 +26756,11 @@
       <c r="D668">
         <v>10.11814907</v>
       </c>
+      <c r="H668" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J668" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -23976,7 +26806,7 @@
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>2021-07-21</t>
+          <t>21/03/2022 15:30</t>
         </is>
       </c>
       <c r="J669" t="inlineStr">
@@ -24024,7 +26854,7 @@
       </c>
       <c r="H670" t="inlineStr">
         <is>
-          <t>2021-07-09</t>
+          <t>09/07/2021 00:00</t>
         </is>
       </c>
       <c r="J670" t="inlineStr">
@@ -24060,6 +26890,11 @@
       <c r="D671">
         <v>10.5364565910276</v>
       </c>
+      <c r="H671" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J671" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -24105,7 +26940,7 @@
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>2021-07-13</t>
+          <t>13/07/2021 00:00</t>
         </is>
       </c>
       <c r="J672" t="inlineStr">
@@ -24153,7 +26988,7 @@
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>2021-07-09</t>
+          <t>09/07/2021 00:00</t>
         </is>
       </c>
       <c r="J673" t="inlineStr">
@@ -24201,7 +27036,7 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>2021-08-07</t>
+          <t>07/08/2021 00:00</t>
         </is>
       </c>
       <c r="J674" t="inlineStr">
@@ -24249,7 +27084,7 @@
       </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>2021-07-19</t>
+          <t>19/07/2021 00:00</t>
         </is>
       </c>
       <c r="J675" t="inlineStr">
@@ -24297,7 +27132,7 @@
       </c>
       <c r="H676" t="inlineStr">
         <is>
-          <t>2021-07-25</t>
+          <t>21/03/2022 15:30</t>
         </is>
       </c>
       <c r="J676" t="inlineStr">
@@ -24345,7 +27180,7 @@
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>2021-07-17</t>
+          <t>17/07/2021 00:00</t>
         </is>
       </c>
       <c r="J677" t="inlineStr">
@@ -24393,7 +27228,7 @@
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>2021-07-25</t>
+          <t>21/03/2022 15:30</t>
         </is>
       </c>
       <c r="J678" t="inlineStr">
@@ -24441,7 +27276,7 @@
       </c>
       <c r="H679" t="inlineStr">
         <is>
-          <t>2021-07-20</t>
+          <t>20/07/2021 00:00</t>
         </is>
       </c>
       <c r="J679" t="inlineStr">
@@ -24489,7 +27324,7 @@
       </c>
       <c r="H680" t="inlineStr">
         <is>
-          <t>2021-07-12</t>
+          <t>12/07/2021 00:00</t>
         </is>
       </c>
       <c r="J680" t="inlineStr">
@@ -24537,7 +27372,7 @@
       </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>2021-07-11</t>
+          <t>11/07/2021 00:00</t>
         </is>
       </c>
       <c r="J681" t="inlineStr">
@@ -24585,7 +27420,7 @@
       </c>
       <c r="H682" t="inlineStr">
         <is>
-          <t>2021-07-20</t>
+          <t>20/07/2021 00:00</t>
         </is>
       </c>
       <c r="J682" t="inlineStr">
@@ -24633,7 +27468,7 @@
       </c>
       <c r="H683" t="inlineStr">
         <is>
-          <t>2021-07-25</t>
+          <t>21/03/2022 15:30</t>
         </is>
       </c>
       <c r="J683" t="inlineStr">
@@ -24681,7 +27516,7 @@
       </c>
       <c r="H684" t="inlineStr">
         <is>
-          <t>2021-07-03</t>
+          <t>03/07/2021 00:00</t>
         </is>
       </c>
       <c r="I684" t="inlineStr">
@@ -24734,7 +27569,7 @@
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>2021-07-18</t>
+          <t>18/07/2021 00:00</t>
         </is>
       </c>
       <c r="J685" t="inlineStr">
@@ -24782,7 +27617,7 @@
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>2021-07-18</t>
+          <t>18/07/2021 00:00</t>
         </is>
       </c>
       <c r="J686" t="inlineStr">
@@ -24830,7 +27665,7 @@
       </c>
       <c r="H687" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>14/07/2021 00:00</t>
         </is>
       </c>
       <c r="J687" t="inlineStr">
@@ -24878,7 +27713,7 @@
       </c>
       <c r="H688" t="inlineStr">
         <is>
-          <t>2021-07-04</t>
+          <t>04/07/2021 00:00</t>
         </is>
       </c>
       <c r="J688" t="inlineStr">
@@ -24926,7 +27761,7 @@
       </c>
       <c r="H689" t="inlineStr">
         <is>
-          <t>2021-07-08</t>
+          <t>08/07/2021 00:00</t>
         </is>
       </c>
       <c r="J689" t="inlineStr">
@@ -24974,7 +27809,7 @@
       </c>
       <c r="H690" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>14/07/2021 00:00</t>
         </is>
       </c>
       <c r="J690" t="inlineStr">
@@ -25022,7 +27857,7 @@
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>21/03/2022 15:30</t>
         </is>
       </c>
       <c r="J691" t="inlineStr">
@@ -25070,7 +27905,7 @@
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>2021-07-21</t>
+          <t>21/03/2022 15:30</t>
         </is>
       </c>
       <c r="J692" t="inlineStr">
@@ -25118,7 +27953,7 @@
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>2021-07-13</t>
+          <t>13/07/2021 00:00</t>
         </is>
       </c>
       <c r="J693" t="inlineStr">
@@ -25166,7 +28001,7 @@
       </c>
       <c r="H694" t="inlineStr">
         <is>
-          <t>2021-07-08</t>
+          <t>08/07/2021 00:00</t>
         </is>
       </c>
       <c r="I694" t="inlineStr">
@@ -25207,6 +28042,11 @@
       <c r="D695">
         <v>10.12584848</v>
       </c>
+      <c r="H695" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J695" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -25240,6 +28080,11 @@
       <c r="D696">
         <v>10.536576008844</v>
       </c>
+      <c r="H696" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J696" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -25273,6 +28118,11 @@
       <c r="D697">
         <v>10.1381147</v>
       </c>
+      <c r="H697" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J697" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -25306,6 +28156,11 @@
       <c r="D698">
         <v>10.5689037093065</v>
       </c>
+      <c r="H698" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J698" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -25339,6 +28194,11 @@
       <c r="D699">
         <v>10.5374698574464</v>
       </c>
+      <c r="H699" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J699" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -25372,6 +28232,11 @@
       <c r="D700">
         <v>10.15589767</v>
       </c>
+      <c r="H700" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J700" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -25405,6 +28270,11 @@
       <c r="D701">
         <v>10.17183571</v>
       </c>
+      <c r="H701" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J701" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -25438,6 +28308,11 @@
       <c r="D702">
         <v>10.5439007855516</v>
       </c>
+      <c r="H702" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J702" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -25471,6 +28346,11 @@
       <c r="D703">
         <v>10.5483012073016</v>
       </c>
+      <c r="H703" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J703" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -25504,6 +28384,11 @@
       <c r="D704">
         <v>10.12169699</v>
       </c>
+      <c r="H704" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J704" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -25537,6 +28422,11 @@
       <c r="D705">
         <v>10.1787862</v>
       </c>
+      <c r="H705" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J705" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -25570,6 +28460,11 @@
       <c r="D706">
         <v>10.5432462674956</v>
       </c>
+      <c r="H706" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J706" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -25603,6 +28498,11 @@
       <c r="D707">
         <v>10.5429734633906</v>
       </c>
+      <c r="H707" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J707" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -25636,6 +28536,11 @@
       <c r="D708">
         <v>10.5469688882335</v>
       </c>
+      <c r="H708" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J708" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -25669,6 +28574,11 @@
       <c r="D709">
         <v>10.20329319</v>
       </c>
+      <c r="H709" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J709" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -25702,6 +28612,11 @@
       <c r="D710">
         <v>10.16064266</v>
       </c>
+      <c r="H710" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J710" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -25735,6 +28650,11 @@
       <c r="D711">
         <v>10.15913116</v>
       </c>
+      <c r="H711" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J711" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -25768,6 +28688,11 @@
       <c r="D712">
         <v>10.12657086</v>
       </c>
+      <c r="H712" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J712" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -25801,6 +28726,11 @@
       <c r="D713">
         <v>10.5689949494207</v>
       </c>
+      <c r="H713" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J713" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -25834,6 +28764,11 @@
       <c r="D714">
         <v>10.17546554</v>
       </c>
+      <c r="H714" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J714" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -25867,6 +28802,11 @@
       <c r="D715">
         <v>10.5380871389547</v>
       </c>
+      <c r="H715" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J715" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -25900,6 +28840,11 @@
       <c r="D716">
         <v>10.12126313</v>
       </c>
+      <c r="H716" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J716" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -25933,6 +28878,11 @@
       <c r="D717">
         <v>10.542947408911</v>
       </c>
+      <c r="H717" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J717" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -25966,6 +28916,11 @@
       <c r="D718">
         <v>10.5474985593074</v>
       </c>
+      <c r="H718" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J718" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -25999,6 +28954,11 @@
       <c r="D719">
         <v>10.14382884</v>
       </c>
+      <c r="H719" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J719" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -26032,6 +28992,11 @@
       <c r="D720">
         <v>10.15904079</v>
       </c>
+      <c r="H720" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J720" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -26065,6 +29030,11 @@
       <c r="D721">
         <v>10.20542362</v>
       </c>
+      <c r="H721" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J721" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -26098,6 +29068,11 @@
       <c r="D722">
         <v>10.20443249</v>
       </c>
+      <c r="H722" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J722" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -26131,6 +29106,11 @@
       <c r="D723">
         <v>10.15941719</v>
       </c>
+      <c r="H723" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J723" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -26164,6 +29144,11 @@
       <c r="D724">
         <v>10.17969732</v>
       </c>
+      <c r="H724" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J724" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -26197,6 +29182,11 @@
       <c r="D725">
         <v>10.15938297</v>
       </c>
+      <c r="H725" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J725" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -26230,6 +29220,11 @@
       <c r="D726">
         <v>10.20507617</v>
       </c>
+      <c r="H726" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J726" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -26263,6 +29258,11 @@
       <c r="D727">
         <v>10.5429581814141</v>
       </c>
+      <c r="H727" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J727" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -26296,6 +29296,11 @@
       <c r="D728">
         <v>10.5438053401519</v>
       </c>
+      <c r="H728" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J728" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -26323,6 +29328,11 @@
           <t>MFD10610</t>
         </is>
       </c>
+      <c r="H729" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J729" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -26345,6 +29355,11 @@
           <t>MFD10670</t>
         </is>
       </c>
+      <c r="H730" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J730" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -26367,6 +29382,11 @@
           <t>MFD10671</t>
         </is>
       </c>
+      <c r="H731" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J731" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -26389,6 +29409,11 @@
           <t>MFD10672</t>
         </is>
       </c>
+      <c r="H732" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J732" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -26411,6 +29436,11 @@
           <t>MFD10673</t>
         </is>
       </c>
+      <c r="H733" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J733" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -26433,6 +29463,11 @@
           <t>MFD10674</t>
         </is>
       </c>
+      <c r="H734" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J734" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -26455,6 +29490,11 @@
           <t>MFD10675</t>
         </is>
       </c>
+      <c r="H735" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J735" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -26477,6 +29517,11 @@
           <t>MFD10691</t>
         </is>
       </c>
+      <c r="H736" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J736" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -26499,6 +29544,11 @@
           <t>MFD10695</t>
         </is>
       </c>
+      <c r="H737" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J737" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -26521,6 +29571,11 @@
           <t>MFD10697</t>
         </is>
       </c>
+      <c r="H738" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J738" t="inlineStr">
         <is>
           <t>P08_5</t>
@@ -26541,6 +29596,11 @@
       <c r="A739" t="inlineStr">
         <is>
           <t>MFD10698</t>
+        </is>
+      </c>
+      <c r="H739" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
         </is>
       </c>
       <c r="J739" t="inlineStr">

--- a/analysis/metadata/P08_5/P08_5_minimal_metadata.xlsx
+++ b/analysis/metadata/P08_5/P08_5_minimal_metadata.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -529,7 +529,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -605,7 +605,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2315,7 +2315,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2353,7 +2353,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2429,7 +2429,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2619,7 +2619,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2695,7 +2695,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -2999,7 +2999,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3075,7 +3075,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3113,7 +3113,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3265,7 +3265,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -3341,7 +3341,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -3379,7 +3379,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3455,7 +3455,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -3759,7 +3759,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3797,7 +3797,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3835,7 +3835,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3873,7 +3873,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3911,7 +3911,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3949,7 +3949,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3987,7 +3987,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4025,7 +4025,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4063,7 +4063,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -4139,7 +4139,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -4177,7 +4177,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -4253,7 +4253,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -4291,7 +4291,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -4329,7 +4329,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -4405,7 +4405,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -4443,7 +4443,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -4481,7 +4481,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -4519,7 +4519,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -4557,7 +4557,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -4595,7 +4595,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -4747,7 +4747,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -4823,7 +4823,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -4937,7 +4937,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -5013,7 +5013,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -5051,7 +5051,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -5089,7 +5089,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -5127,7 +5127,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -5165,7 +5165,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -5279,7 +5279,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -5317,7 +5317,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -5355,7 +5355,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -5393,7 +5393,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -5431,7 +5431,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -5469,7 +5469,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -5507,7 +5507,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -5621,7 +5621,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -5659,7 +5659,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -5697,7 +5697,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -5735,7 +5735,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -5773,7 +5773,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -5849,7 +5849,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -5887,7 +5887,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -5925,7 +5925,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -5963,7 +5963,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -6001,7 +6001,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -6039,7 +6039,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -6077,7 +6077,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -6115,7 +6115,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -6153,7 +6153,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -6191,7 +6191,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -6229,7 +6229,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -6305,7 +6305,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -6343,7 +6343,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -6419,7 +6419,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -6495,7 +6495,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -6533,7 +6533,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>06/07/2021 00:00</t>
+          <t>2021-07-06</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -6629,7 +6629,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>03/07/2021 00:00</t>
+          <t>2021-07-03</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -6672,7 +6672,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -6710,7 +6710,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -6748,7 +6748,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -6786,7 +6786,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -6834,7 +6834,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>21/03/2022 15:30</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -6882,7 +6882,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>06/07/2021 00:00</t>
+          <t>2021-07-06</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -6920,7 +6920,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -6958,7 +6958,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -7034,7 +7034,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -7082,7 +7082,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>21/03/2022 15:30</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -7130,7 +7130,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>21/03/2022 15:30</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -7168,7 +7168,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>05/07/2021 00:00</t>
+          <t>2021-07-05</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -7264,7 +7264,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>06/07/2021 00:00</t>
+          <t>2021-07-06</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -7312,7 +7312,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>03/07/2021 00:00</t>
+          <t>2021-07-03</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -7350,7 +7350,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -7398,7 +7398,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>08/07/2021 00:00</t>
+          <t>2021-07-08</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>04/07/2021 00:00</t>
+          <t>2021-07-04</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -7484,7 +7484,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -7560,7 +7560,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -7598,7 +7598,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -7636,7 +7636,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -7674,7 +7674,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -7712,7 +7712,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -7750,7 +7750,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -7788,7 +7788,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -7826,7 +7826,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -7902,7 +7902,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -7940,7 +7940,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -7978,7 +7978,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -8016,7 +8016,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -8054,7 +8054,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -8130,7 +8130,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -8168,7 +8168,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -8206,7 +8206,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -8282,7 +8282,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -8320,7 +8320,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -8358,7 +8358,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -8396,7 +8396,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -8434,7 +8434,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -8472,7 +8472,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -8510,7 +8510,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -8548,7 +8548,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -8586,7 +8586,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -8624,7 +8624,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -8662,7 +8662,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -8700,7 +8700,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -8738,7 +8738,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -8814,7 +8814,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -8852,7 +8852,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -8890,7 +8890,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -8928,7 +8928,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -8966,7 +8966,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -9004,7 +9004,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -9042,7 +9042,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -9080,7 +9080,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -9118,7 +9118,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -9194,7 +9194,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -9232,7 +9232,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -9280,7 +9280,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>21/03/2022 15:30</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -9318,7 +9318,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -9356,7 +9356,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -9394,7 +9394,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -9432,7 +9432,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -9470,7 +9470,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -9518,7 +9518,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>21/03/2022 15:30</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -9556,7 +9556,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -9594,7 +9594,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -9632,7 +9632,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -9670,7 +9670,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -9708,7 +9708,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -9746,7 +9746,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -9794,7 +9794,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>21/03/2022 15:30</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -9870,7 +9870,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -9908,7 +9908,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -9946,7 +9946,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -9984,7 +9984,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -10022,7 +10022,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -10060,7 +10060,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -10098,7 +10098,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -10136,7 +10136,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -10174,7 +10174,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -10222,7 +10222,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>06/07/2021 00:00</t>
+          <t>2021-07-06</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -10298,7 +10298,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -10336,7 +10336,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -10374,7 +10374,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -10412,7 +10412,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -10450,7 +10450,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -10488,7 +10488,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -10526,7 +10526,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -10564,7 +10564,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -10602,7 +10602,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -10640,7 +10640,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -10688,7 +10688,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>10/07/2021 00:00</t>
+          <t>2021-07-10</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -10726,7 +10726,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -10768,7 +10768,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>21/03/2022 15:30</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -10805,7 +10805,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>21/03/2022 15:30</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -10838,7 +10838,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -10876,7 +10876,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -10914,7 +10914,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -10952,7 +10952,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -10990,7 +10990,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -11038,7 +11038,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>04/07/2021 00:00</t>
+          <t>2021-07-04</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -11086,7 +11086,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>06/07/2021 00:00</t>
+          <t>2021-07-06</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -11162,7 +11162,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -11200,7 +11200,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -11238,7 +11238,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -11276,7 +11276,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -11314,7 +11314,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -11352,7 +11352,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -11390,7 +11390,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
@@ -11428,7 +11428,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -11466,7 +11466,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -11504,7 +11504,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -11542,7 +11542,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -11580,7 +11580,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -11618,7 +11618,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>21/03/2022 15:30</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -11742,7 +11742,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -11780,7 +11780,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -11818,7 +11818,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -11866,7 +11866,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>06/07/2021 00:00</t>
+          <t>2021-07-06</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -11904,7 +11904,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -11942,7 +11942,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -11980,7 +11980,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -12018,7 +12018,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -12056,7 +12056,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -12094,7 +12094,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -12132,7 +12132,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -12170,7 +12170,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -12208,7 +12208,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -12246,7 +12246,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -12284,7 +12284,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -12322,7 +12322,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -12360,7 +12360,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -12398,7 +12398,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -12436,7 +12436,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -12474,7 +12474,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -12512,7 +12512,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -12550,7 +12550,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -12588,7 +12588,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -12626,7 +12626,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -12702,7 +12702,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -12740,7 +12740,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -12778,7 +12778,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -12816,7 +12816,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -12854,7 +12854,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -12892,7 +12892,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -12930,7 +12930,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -12968,7 +12968,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -13006,7 +13006,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -13044,7 +13044,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -13082,7 +13082,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -13120,7 +13120,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -13158,7 +13158,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -13196,7 +13196,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -13234,7 +13234,7 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -13272,7 +13272,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -13310,7 +13310,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -13348,7 +13348,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -13386,7 +13386,7 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -13424,7 +13424,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -13462,7 +13462,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -13500,7 +13500,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -13538,7 +13538,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -13614,7 +13614,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -13652,7 +13652,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -13690,7 +13690,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -13728,7 +13728,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -13766,7 +13766,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -13804,7 +13804,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -13842,7 +13842,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -13880,7 +13880,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -13918,7 +13918,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -13956,7 +13956,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -13994,7 +13994,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -14032,7 +14032,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -14070,7 +14070,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -14108,7 +14108,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -14146,7 +14146,7 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -14184,7 +14184,7 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -14222,7 +14222,7 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -14260,7 +14260,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -14298,7 +14298,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -14336,7 +14336,7 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -14374,7 +14374,7 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -14412,7 +14412,7 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -14450,7 +14450,7 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -14526,7 +14526,7 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -14564,7 +14564,7 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -14602,7 +14602,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -14640,7 +14640,7 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
@@ -14678,7 +14678,7 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -14716,7 +14716,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -14754,7 +14754,7 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -14792,7 +14792,7 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -14830,7 +14830,7 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -14868,7 +14868,7 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -14906,7 +14906,7 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -14944,7 +14944,7 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
@@ -14982,7 +14982,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
@@ -15020,7 +15020,7 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
@@ -15058,7 +15058,7 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
@@ -15096,7 +15096,7 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -15134,7 +15134,7 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -15172,7 +15172,7 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -15210,7 +15210,7 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -15248,7 +15248,7 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -15286,7 +15286,7 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -15324,7 +15324,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -15362,7 +15362,7 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -15438,7 +15438,7 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -15476,7 +15476,7 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -15514,7 +15514,7 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -15552,7 +15552,7 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -15590,7 +15590,7 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -15628,7 +15628,7 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
@@ -15666,7 +15666,7 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
@@ -15704,7 +15704,7 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -15742,7 +15742,7 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -15780,7 +15780,7 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
@@ -15818,7 +15818,7 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -15856,7 +15856,7 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -15894,7 +15894,7 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -15932,7 +15932,7 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -15970,7 +15970,7 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -16008,7 +16008,7 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -16046,7 +16046,7 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -16084,7 +16084,7 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -16122,7 +16122,7 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -16160,7 +16160,7 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -16198,7 +16198,7 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -16236,7 +16236,7 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -16274,7 +16274,7 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -16350,7 +16350,7 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -16388,7 +16388,7 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -16426,7 +16426,7 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -16464,7 +16464,7 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -16502,7 +16502,7 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -16540,7 +16540,7 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -16578,7 +16578,7 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -16616,7 +16616,7 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -16654,7 +16654,7 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -16692,7 +16692,7 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -16730,7 +16730,7 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -16768,7 +16768,7 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -16806,7 +16806,7 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -16844,7 +16844,7 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -16882,7 +16882,7 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -16920,7 +16920,7 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -16958,7 +16958,7 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -16996,7 +16996,7 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -17034,7 +17034,7 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -17072,7 +17072,7 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -17110,7 +17110,7 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -17148,7 +17148,7 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -17186,7 +17186,7 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -17262,7 +17262,7 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -17300,7 +17300,7 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -17338,7 +17338,7 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
@@ -17376,7 +17376,7 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
@@ -17414,7 +17414,7 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
@@ -17452,7 +17452,7 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
@@ -17490,7 +17490,7 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
@@ -17528,7 +17528,7 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -17566,7 +17566,7 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
@@ -17604,7 +17604,7 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -17642,7 +17642,7 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
@@ -17680,7 +17680,7 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -17718,7 +17718,7 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -17756,7 +17756,7 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -17794,7 +17794,7 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -17832,7 +17832,7 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
@@ -17870,7 +17870,7 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -17918,7 +17918,7 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>19/07/2021 00:00</t>
+          <t>2021-07-19</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -17956,7 +17956,7 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -18004,7 +18004,7 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>19/07/2021 00:00</t>
+          <t>2021-07-19</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -18052,7 +18052,7 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>21/03/2022 15:30</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -18090,7 +18090,7 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -18138,7 +18138,7 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>19/07/2021 00:00</t>
+          <t>2021-07-19</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -18176,7 +18176,7 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -18214,7 +18214,7 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -18252,7 +18252,7 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -18290,7 +18290,7 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -18328,7 +18328,7 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -18366,7 +18366,7 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -18404,7 +18404,7 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -18442,7 +18442,7 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -18480,7 +18480,7 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -18518,7 +18518,7 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -18556,7 +18556,7 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -18594,7 +18594,7 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -18632,7 +18632,7 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -18670,7 +18670,7 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -18708,7 +18708,7 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -18746,7 +18746,7 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -18784,7 +18784,7 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -18832,7 +18832,7 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>13/07/2021 00:00</t>
+          <t>2021-07-13</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -18870,7 +18870,7 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
@@ -18908,7 +18908,7 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
@@ -18946,7 +18946,7 @@
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
@@ -18984,7 +18984,7 @@
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
@@ -19022,7 +19022,7 @@
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
@@ -19060,7 +19060,7 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
@@ -19098,7 +19098,7 @@
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
@@ -19136,7 +19136,7 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">
@@ -19174,7 +19174,7 @@
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
@@ -19212,7 +19212,7 @@
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
@@ -19260,7 +19260,7 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>15/07/2021 00:00</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
@@ -19298,7 +19298,7 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
@@ -19336,7 +19336,7 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -19374,7 +19374,7 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
@@ -19412,7 +19412,7 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
@@ -19450,7 +19450,7 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
@@ -19488,7 +19488,7 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
@@ -19526,7 +19526,7 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
@@ -19564,7 +19564,7 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
@@ -19602,7 +19602,7 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -19640,7 +19640,7 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -19678,7 +19678,7 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">
@@ -19716,7 +19716,7 @@
       </c>
       <c r="H502" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J502" t="inlineStr">
@@ -19754,7 +19754,7 @@
       </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J503" t="inlineStr">
@@ -19792,7 +19792,7 @@
       </c>
       <c r="H504" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J504" t="inlineStr">
@@ -19830,7 +19830,7 @@
       </c>
       <c r="H505" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J505" t="inlineStr">
@@ -19868,7 +19868,7 @@
       </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J506" t="inlineStr">
@@ -19916,7 +19916,7 @@
       </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>14/07/2021 00:00</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="J507" t="inlineStr">
@@ -19954,7 +19954,7 @@
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J508" t="inlineStr">
@@ -19992,7 +19992,7 @@
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J509" t="inlineStr">
@@ -20030,7 +20030,7 @@
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J510" t="inlineStr">
@@ -20068,7 +20068,7 @@
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J511" t="inlineStr">
@@ -20106,7 +20106,7 @@
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J512" t="inlineStr">
@@ -20144,7 +20144,7 @@
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J513" t="inlineStr">
@@ -20182,7 +20182,7 @@
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J514" t="inlineStr">
@@ -20220,7 +20220,7 @@
       </c>
       <c r="H515" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J515" t="inlineStr">
@@ -20258,7 +20258,7 @@
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J516" t="inlineStr">
@@ -20306,7 +20306,7 @@
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>15/07/2021 00:00</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="J517" t="inlineStr">
@@ -20354,7 +20354,7 @@
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>14/07/2021 00:00</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="J518" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J519" t="inlineStr">
@@ -20430,7 +20430,7 @@
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J520" t="inlineStr">
@@ -20478,7 +20478,7 @@
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>15/07/2021 00:00</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="J521" t="inlineStr">
@@ -20526,7 +20526,7 @@
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>15/07/2021 00:00</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="J522" t="inlineStr">
@@ -20574,7 +20574,7 @@
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>16/07/2021 00:00</t>
+          <t>2021-07-16</t>
         </is>
       </c>
       <c r="J523" t="inlineStr">
@@ -20612,7 +20612,7 @@
       </c>
       <c r="H524" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J524" t="inlineStr">
@@ -20660,7 +20660,7 @@
       </c>
       <c r="H525" t="inlineStr">
         <is>
-          <t>15/07/2021 00:00</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="J525" t="inlineStr">
@@ -20708,7 +20708,7 @@
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>16/07/2021 00:00</t>
+          <t>2021-07-16</t>
         </is>
       </c>
       <c r="J526" t="inlineStr">
@@ -20746,7 +20746,7 @@
       </c>
       <c r="H527" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J527" t="inlineStr">
@@ -20784,7 +20784,7 @@
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J528" t="inlineStr">
@@ -20822,7 +20822,7 @@
       </c>
       <c r="H529" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J529" t="inlineStr">
@@ -20860,7 +20860,7 @@
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J530" t="inlineStr">
@@ -20898,7 +20898,7 @@
       </c>
       <c r="H531" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J531" t="inlineStr">
@@ -20936,7 +20936,7 @@
       </c>
       <c r="H532" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J532" t="inlineStr">
@@ -20984,7 +20984,7 @@
       </c>
       <c r="H533" t="inlineStr">
         <is>
-          <t>15/07/2021 00:00</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="J533" t="inlineStr">
@@ -21022,7 +21022,7 @@
       </c>
       <c r="H534" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J534" t="inlineStr">
@@ -21060,7 +21060,7 @@
       </c>
       <c r="H535" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J535" t="inlineStr">
@@ -21108,7 +21108,7 @@
       </c>
       <c r="H536" t="inlineStr">
         <is>
-          <t>15/07/2021 00:00</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="J536" t="inlineStr">
@@ -21156,7 +21156,7 @@
       </c>
       <c r="H537" t="inlineStr">
         <is>
-          <t>21/03/2022 15:30</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="J537" t="inlineStr">
@@ -21194,7 +21194,7 @@
       </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J538" t="inlineStr">
@@ -21232,7 +21232,7 @@
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J539" t="inlineStr">
@@ -21280,7 +21280,7 @@
       </c>
       <c r="H540" t="inlineStr">
         <is>
-          <t>16/07/2021 00:00</t>
+          <t>2021-07-16</t>
         </is>
       </c>
       <c r="J540" t="inlineStr">
@@ -21328,7 +21328,7 @@
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>16/07/2021 00:00</t>
+          <t>2021-07-16</t>
         </is>
       </c>
       <c r="J541" t="inlineStr">
@@ -21376,7 +21376,7 @@
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>19/07/2021 00:00</t>
+          <t>2021-07-19</t>
         </is>
       </c>
       <c r="J542" t="inlineStr">
@@ -21414,7 +21414,7 @@
       </c>
       <c r="H543" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J543" t="inlineStr">
@@ -21462,7 +21462,7 @@
       </c>
       <c r="H544" t="inlineStr">
         <is>
-          <t>19/07/2021 00:00</t>
+          <t>2021-07-19</t>
         </is>
       </c>
       <c r="J544" t="inlineStr">
@@ -21510,7 +21510,7 @@
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>19/07/2021 00:00</t>
+          <t>2021-07-19</t>
         </is>
       </c>
       <c r="J545" t="inlineStr">
@@ -21548,7 +21548,7 @@
       </c>
       <c r="H546" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J546" t="inlineStr">
@@ -21590,7 +21590,7 @@
       </c>
       <c r="H547" t="inlineStr">
         <is>
-          <t>16/07/2021 00:00</t>
+          <t>2021-07-16</t>
         </is>
       </c>
       <c r="J547" t="inlineStr">
@@ -21623,7 +21623,7 @@
       </c>
       <c r="H548" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J548" t="inlineStr">
@@ -21661,7 +21661,7 @@
       </c>
       <c r="H549" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J549" t="inlineStr">
@@ -21699,7 +21699,7 @@
       </c>
       <c r="H550" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J550" t="inlineStr">
@@ -21747,7 +21747,7 @@
       </c>
       <c r="H551" t="inlineStr">
         <is>
-          <t>14/07/2021 00:00</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="J551" t="inlineStr">
@@ -21785,7 +21785,7 @@
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J552" t="inlineStr">
@@ -21823,7 +21823,7 @@
       </c>
       <c r="H553" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J553" t="inlineStr">
@@ -21861,7 +21861,7 @@
       </c>
       <c r="H554" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J554" t="inlineStr">
@@ -21899,7 +21899,7 @@
       </c>
       <c r="H555" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J555" t="inlineStr">
@@ -21937,7 +21937,7 @@
       </c>
       <c r="H556" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J556" t="inlineStr">
@@ -21985,7 +21985,7 @@
       </c>
       <c r="H557" t="inlineStr">
         <is>
-          <t>14/07/2021 00:00</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="J557" t="inlineStr">
@@ -22023,7 +22023,7 @@
       </c>
       <c r="H558" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J558" t="inlineStr">
@@ -22061,7 +22061,7 @@
       </c>
       <c r="H559" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J559" t="inlineStr">
@@ -22109,7 +22109,7 @@
       </c>
       <c r="H560" t="inlineStr">
         <is>
-          <t>13/07/2021 00:00</t>
+          <t>2021-07-13</t>
         </is>
       </c>
       <c r="J560" t="inlineStr">
@@ -22147,7 +22147,7 @@
       </c>
       <c r="H561" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J561" t="inlineStr">
@@ -22185,7 +22185,7 @@
       </c>
       <c r="H562" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J562" t="inlineStr">
@@ -22223,7 +22223,7 @@
       </c>
       <c r="H563" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J563" t="inlineStr">
@@ -22261,7 +22261,7 @@
       </c>
       <c r="H564" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J564" t="inlineStr">
@@ -22299,7 +22299,7 @@
       </c>
       <c r="H565" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J565" t="inlineStr">
@@ -22337,7 +22337,7 @@
       </c>
       <c r="H566" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J566" t="inlineStr">
@@ -22375,7 +22375,7 @@
       </c>
       <c r="H567" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J567" t="inlineStr">
@@ -22423,7 +22423,7 @@
       </c>
       <c r="H568" t="inlineStr">
         <is>
-          <t>14/07/2021 00:00</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="J568" t="inlineStr">
@@ -22461,7 +22461,7 @@
       </c>
       <c r="H569" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J569" t="inlineStr">
@@ -22499,7 +22499,7 @@
       </c>
       <c r="H570" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J570" t="inlineStr">
@@ -22537,7 +22537,7 @@
       </c>
       <c r="H571" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J571" t="inlineStr">
@@ -22585,7 +22585,7 @@
       </c>
       <c r="H572" t="inlineStr">
         <is>
-          <t>19/07/2021 00:00</t>
+          <t>2021-07-19</t>
         </is>
       </c>
       <c r="J572" t="inlineStr">
@@ -22633,7 +22633,7 @@
       </c>
       <c r="H573" t="inlineStr">
         <is>
-          <t>21/03/2022 15:30</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="J573" t="inlineStr">
@@ -22681,7 +22681,7 @@
       </c>
       <c r="H574" t="inlineStr">
         <is>
-          <t>19/07/2021 00:00</t>
+          <t>2021-07-19</t>
         </is>
       </c>
       <c r="J574" t="inlineStr">
@@ -22729,7 +22729,7 @@
       </c>
       <c r="H575" t="inlineStr">
         <is>
-          <t>21/03/2022 15:30</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="J575" t="inlineStr">
@@ -22767,7 +22767,7 @@
       </c>
       <c r="H576" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J576" t="inlineStr">
@@ -22815,7 +22815,7 @@
       </c>
       <c r="H577" t="inlineStr">
         <is>
-          <t>19/07/2021 00:00</t>
+          <t>2021-07-19</t>
         </is>
       </c>
       <c r="J577" t="inlineStr">
@@ -22853,7 +22853,7 @@
       </c>
       <c r="H578" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J578" t="inlineStr">
@@ -22901,7 +22901,7 @@
       </c>
       <c r="H579" t="inlineStr">
         <is>
-          <t>16/07/2021 00:00</t>
+          <t>2021-07-16</t>
         </is>
       </c>
       <c r="J579" t="inlineStr">
@@ -22949,7 +22949,7 @@
       </c>
       <c r="H580" t="inlineStr">
         <is>
-          <t>21/03/2022 15:30</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="J580" t="inlineStr">
@@ -22997,7 +22997,7 @@
       </c>
       <c r="H581" t="inlineStr">
         <is>
-          <t>14/07/2021 00:00</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="J581" t="inlineStr">
@@ -23045,7 +23045,7 @@
       </c>
       <c r="H582" t="inlineStr">
         <is>
-          <t>19/07/2021 00:00</t>
+          <t>2021-07-19</t>
         </is>
       </c>
       <c r="J582" t="inlineStr">
@@ -23083,7 +23083,7 @@
       </c>
       <c r="H583" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J583" t="inlineStr">
@@ -23121,7 +23121,7 @@
       </c>
       <c r="H584" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J584" t="inlineStr">
@@ -23169,7 +23169,7 @@
       </c>
       <c r="H585" t="inlineStr">
         <is>
-          <t>13/07/2021 00:00</t>
+          <t>2021-07-13</t>
         </is>
       </c>
       <c r="J585" t="inlineStr">
@@ -23217,7 +23217,7 @@
       </c>
       <c r="H586" t="inlineStr">
         <is>
-          <t>21/03/2022 15:30</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="J586" t="inlineStr">
@@ -23265,7 +23265,7 @@
       </c>
       <c r="H587" t="inlineStr">
         <is>
-          <t>15/07/2021 00:00</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="J587" t="inlineStr">
@@ -23303,7 +23303,7 @@
       </c>
       <c r="H588" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J588" t="inlineStr">
@@ -23341,7 +23341,7 @@
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J589" t="inlineStr">
@@ -23389,7 +23389,7 @@
       </c>
       <c r="H590" t="inlineStr">
         <is>
-          <t>13/07/2021 00:00</t>
+          <t>2021-07-13</t>
         </is>
       </c>
       <c r="J590" t="inlineStr">
@@ -23437,7 +23437,7 @@
       </c>
       <c r="H591" t="inlineStr">
         <is>
-          <t>13/07/2021 00:00</t>
+          <t>2021-07-13</t>
         </is>
       </c>
       <c r="J591" t="inlineStr">
@@ -23475,7 +23475,7 @@
       </c>
       <c r="H592" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J592" t="inlineStr">
@@ -23513,7 +23513,7 @@
       </c>
       <c r="H593" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J593" t="inlineStr">
@@ -23551,7 +23551,7 @@
       </c>
       <c r="H594" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J594" t="inlineStr">
@@ -23599,7 +23599,7 @@
       </c>
       <c r="H595" t="inlineStr">
         <is>
-          <t>13/07/2021 00:00</t>
+          <t>2021-07-13</t>
         </is>
       </c>
       <c r="J595" t="inlineStr">
@@ -23647,7 +23647,7 @@
       </c>
       <c r="H596" t="inlineStr">
         <is>
-          <t>14/07/2021 00:00</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="J596" t="inlineStr">
@@ -23695,7 +23695,7 @@
       </c>
       <c r="H597" t="inlineStr">
         <is>
-          <t>14/07/2021 00:00</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="J597" t="inlineStr">
@@ -23733,7 +23733,7 @@
       </c>
       <c r="H598" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J598" t="inlineStr">
@@ -23771,7 +23771,7 @@
       </c>
       <c r="H599" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J599" t="inlineStr">
@@ -23809,7 +23809,7 @@
       </c>
       <c r="H600" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J600" t="inlineStr">
@@ -23847,7 +23847,7 @@
       </c>
       <c r="H601" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J601" t="inlineStr">
@@ -23885,7 +23885,7 @@
       </c>
       <c r="H602" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J602" t="inlineStr">
@@ -23933,7 +23933,7 @@
       </c>
       <c r="H603" t="inlineStr">
         <is>
-          <t>14/07/2021 00:00</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="J603" t="inlineStr">
@@ -23971,7 +23971,7 @@
       </c>
       <c r="H604" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J604" t="inlineStr">
@@ -24019,7 +24019,7 @@
       </c>
       <c r="H605" t="inlineStr">
         <is>
-          <t>10/07/2021 00:00</t>
+          <t>2021-07-10</t>
         </is>
       </c>
       <c r="J605" t="inlineStr">
@@ -24057,7 +24057,7 @@
       </c>
       <c r="H606" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J606" t="inlineStr">
@@ -24105,7 +24105,7 @@
       </c>
       <c r="H607" t="inlineStr">
         <is>
-          <t>08/07/2021 00:00</t>
+          <t>2021-07-08</t>
         </is>
       </c>
       <c r="I607" t="inlineStr">
@@ -24148,7 +24148,7 @@
       </c>
       <c r="H608" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J608" t="inlineStr">
@@ -24186,7 +24186,7 @@
       </c>
       <c r="H609" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J609" t="inlineStr">
@@ -24234,7 +24234,7 @@
       </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>15/07/2021 00:00</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="J610" t="inlineStr">
@@ -24272,7 +24272,7 @@
       </c>
       <c r="H611" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J611" t="inlineStr">
@@ -24310,7 +24310,7 @@
       </c>
       <c r="H612" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J612" t="inlineStr">
@@ -24348,7 +24348,7 @@
       </c>
       <c r="H613" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J613" t="inlineStr">
@@ -24386,7 +24386,7 @@
       </c>
       <c r="H614" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J614" t="inlineStr">
@@ -24424,7 +24424,7 @@
       </c>
       <c r="H615" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J615" t="inlineStr">
@@ -24462,7 +24462,7 @@
       </c>
       <c r="H616" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J616" t="inlineStr">
@@ -24500,7 +24500,7 @@
       </c>
       <c r="H617" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J617" t="inlineStr">
@@ -24538,7 +24538,7 @@
       </c>
       <c r="H618" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J618" t="inlineStr">
@@ -24586,7 +24586,7 @@
       </c>
       <c r="H619" t="inlineStr">
         <is>
-          <t>17/07/2021 00:00</t>
+          <t>2021-07-17</t>
         </is>
       </c>
       <c r="J619" t="inlineStr">
@@ -24624,7 +24624,7 @@
       </c>
       <c r="H620" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J620" t="inlineStr">
@@ -24662,7 +24662,7 @@
       </c>
       <c r="H621" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J621" t="inlineStr">
@@ -24700,7 +24700,7 @@
       </c>
       <c r="H622" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J622" t="inlineStr">
@@ -24738,7 +24738,7 @@
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J623" t="inlineStr">
@@ -24776,7 +24776,7 @@
       </c>
       <c r="H624" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J624" t="inlineStr">
@@ -24824,7 +24824,7 @@
       </c>
       <c r="H625" t="inlineStr">
         <is>
-          <t>07/08/2021 00:00</t>
+          <t>2021-08-07</t>
         </is>
       </c>
       <c r="J625" t="inlineStr">
@@ -24862,7 +24862,7 @@
       </c>
       <c r="H626" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J626" t="inlineStr">
@@ -24910,7 +24910,7 @@
       </c>
       <c r="H627" t="inlineStr">
         <is>
-          <t>15/07/2021 00:00</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="J627" t="inlineStr">
@@ -24948,7 +24948,7 @@
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J628" t="inlineStr">
@@ -24986,7 +24986,7 @@
       </c>
       <c r="H629" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J629" t="inlineStr">
@@ -25024,7 +25024,7 @@
       </c>
       <c r="H630" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J630" t="inlineStr">
@@ -25062,7 +25062,7 @@
       </c>
       <c r="H631" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J631" t="inlineStr">
@@ -25110,7 +25110,7 @@
       </c>
       <c r="H632" t="inlineStr">
         <is>
-          <t>21/03/2022 15:30</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="J632" t="inlineStr">
@@ -25158,7 +25158,7 @@
       </c>
       <c r="H633" t="inlineStr">
         <is>
-          <t>21/03/2022 15:30</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="J633" t="inlineStr">
@@ -25196,7 +25196,7 @@
       </c>
       <c r="H634" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J634" t="inlineStr">
@@ -25244,7 +25244,7 @@
       </c>
       <c r="H635" t="inlineStr">
         <is>
-          <t>14/07/2021 00:00</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="J635" t="inlineStr">
@@ -25282,7 +25282,7 @@
       </c>
       <c r="H636" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J636" t="inlineStr">
@@ -25330,7 +25330,7 @@
       </c>
       <c r="H637" t="inlineStr">
         <is>
-          <t>21/03/2022 15:30</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="J637" t="inlineStr">
@@ -25378,7 +25378,7 @@
       </c>
       <c r="H638" t="inlineStr">
         <is>
-          <t>20/07/2021 00:00</t>
+          <t>2021-07-20</t>
         </is>
       </c>
       <c r="J638" t="inlineStr">
@@ -25426,7 +25426,7 @@
       </c>
       <c r="H639" t="inlineStr">
         <is>
-          <t>20/07/2021 00:00</t>
+          <t>2021-07-20</t>
         </is>
       </c>
       <c r="J639" t="inlineStr">
@@ -25474,7 +25474,7 @@
       </c>
       <c r="H640" t="inlineStr">
         <is>
-          <t>19/07/2021 00:00</t>
+          <t>2021-07-19</t>
         </is>
       </c>
       <c r="J640" t="inlineStr">
@@ -25522,7 +25522,7 @@
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>21/03/2022 15:30</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="I641" t="inlineStr">
@@ -25575,7 +25575,7 @@
       </c>
       <c r="H642" t="inlineStr">
         <is>
-          <t>21/03/2022 15:30</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="J642" t="inlineStr">
@@ -25613,7 +25613,7 @@
       </c>
       <c r="H643" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J643" t="inlineStr">
@@ -25661,7 +25661,7 @@
       </c>
       <c r="H644" t="inlineStr">
         <is>
-          <t>21/03/2022 15:30</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="J644" t="inlineStr">
@@ -25699,7 +25699,7 @@
       </c>
       <c r="H645" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J645" t="inlineStr">
@@ -25737,7 +25737,7 @@
       </c>
       <c r="H646" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J646" t="inlineStr">
@@ -25785,7 +25785,7 @@
       </c>
       <c r="H647" t="inlineStr">
         <is>
-          <t>21/03/2022 15:30</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="J647" t="inlineStr">
@@ -25823,7 +25823,7 @@
       </c>
       <c r="H648" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J648" t="inlineStr">
@@ -25861,7 +25861,7 @@
       </c>
       <c r="H649" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J649" t="inlineStr">
@@ -25899,7 +25899,7 @@
       </c>
       <c r="H650" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J650" t="inlineStr">
@@ -25947,7 +25947,7 @@
       </c>
       <c r="H651" t="inlineStr">
         <is>
-          <t>21/03/2022 15:30</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="J651" t="inlineStr">
@@ -25995,7 +25995,7 @@
       </c>
       <c r="H652" t="inlineStr">
         <is>
-          <t>11/07/2021 00:00</t>
+          <t>2021-07-11</t>
         </is>
       </c>
       <c r="J652" t="inlineStr">
@@ -26043,7 +26043,7 @@
       </c>
       <c r="H653" t="inlineStr">
         <is>
-          <t>19/07/2021 00:00</t>
+          <t>2021-07-19</t>
         </is>
       </c>
       <c r="J653" t="inlineStr">
@@ -26091,7 +26091,7 @@
       </c>
       <c r="H654" t="inlineStr">
         <is>
-          <t>21/03/2022 15:30</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="J654" t="inlineStr">
@@ -26139,7 +26139,7 @@
       </c>
       <c r="H655" t="inlineStr">
         <is>
-          <t>21/03/2022 15:30</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="J655" t="inlineStr">
@@ -26187,7 +26187,7 @@
       </c>
       <c r="H656" t="inlineStr">
         <is>
-          <t>21/03/2022 15:30</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="J656" t="inlineStr">
@@ -26235,7 +26235,7 @@
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>21/03/2022 15:30</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="J657" t="inlineStr">
@@ -26283,7 +26283,7 @@
       </c>
       <c r="H658" t="inlineStr">
         <is>
-          <t>21/03/2022 15:30</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="J658" t="inlineStr">
@@ -26331,7 +26331,7 @@
       </c>
       <c r="H659" t="inlineStr">
         <is>
-          <t>21/03/2022 15:30</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="J659" t="inlineStr">
@@ -26379,7 +26379,7 @@
       </c>
       <c r="H660" t="inlineStr">
         <is>
-          <t>18/07/2021 00:00</t>
+          <t>2021-07-18</t>
         </is>
       </c>
       <c r="J660" t="inlineStr">
@@ -26427,7 +26427,7 @@
       </c>
       <c r="H661" t="inlineStr">
         <is>
-          <t>21/03/2022 15:30</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="J661" t="inlineStr">
@@ -26475,7 +26475,7 @@
       </c>
       <c r="H662" t="inlineStr">
         <is>
-          <t>19/07/2021 00:00</t>
+          <t>2021-07-19</t>
         </is>
       </c>
       <c r="J662" t="inlineStr">
@@ -26523,7 +26523,7 @@
       </c>
       <c r="H663" t="inlineStr">
         <is>
-          <t>21/03/2022 15:30</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="J663" t="inlineStr">
@@ -26571,7 +26571,7 @@
       </c>
       <c r="H664" t="inlineStr">
         <is>
-          <t>12/07/2021 00:00</t>
+          <t>2021-07-12</t>
         </is>
       </c>
       <c r="J664" t="inlineStr">
@@ -26619,7 +26619,7 @@
       </c>
       <c r="H665" t="inlineStr">
         <is>
-          <t>07/08/2021 00:00</t>
+          <t>2021-08-07</t>
         </is>
       </c>
       <c r="J665" t="inlineStr">
@@ -26667,7 +26667,7 @@
       </c>
       <c r="H666" t="inlineStr">
         <is>
-          <t>07/08/2021 00:00</t>
+          <t>2021-08-07</t>
         </is>
       </c>
       <c r="I666" t="inlineStr">
@@ -26720,7 +26720,7 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>21/03/2022 15:30</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="J667" t="inlineStr">
@@ -26758,7 +26758,7 @@
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J668" t="inlineStr">
@@ -26806,7 +26806,7 @@
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>21/03/2022 15:30</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="J669" t="inlineStr">
@@ -26854,7 +26854,7 @@
       </c>
       <c r="H670" t="inlineStr">
         <is>
-          <t>09/07/2021 00:00</t>
+          <t>2021-07-09</t>
         </is>
       </c>
       <c r="J670" t="inlineStr">
@@ -26892,7 +26892,7 @@
       </c>
       <c r="H671" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J671" t="inlineStr">
@@ -26940,7 +26940,7 @@
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>13/07/2021 00:00</t>
+          <t>2021-07-13</t>
         </is>
       </c>
       <c r="J672" t="inlineStr">
@@ -26988,7 +26988,7 @@
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>09/07/2021 00:00</t>
+          <t>2021-07-09</t>
         </is>
       </c>
       <c r="J673" t="inlineStr">
@@ -27036,7 +27036,7 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>07/08/2021 00:00</t>
+          <t>2021-08-07</t>
         </is>
       </c>
       <c r="J674" t="inlineStr">
@@ -27084,7 +27084,7 @@
       </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>19/07/2021 00:00</t>
+          <t>2021-07-19</t>
         </is>
       </c>
       <c r="J675" t="inlineStr">
@@ -27132,7 +27132,7 @@
       </c>
       <c r="H676" t="inlineStr">
         <is>
-          <t>21/03/2022 15:30</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="J676" t="inlineStr">
@@ -27180,7 +27180,7 @@
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>17/07/2021 00:00</t>
+          <t>2021-07-17</t>
         </is>
       </c>
       <c r="J677" t="inlineStr">
@@ -27228,7 +27228,7 @@
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>21/03/2022 15:30</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="J678" t="inlineStr">
@@ -27276,7 +27276,7 @@
       </c>
       <c r="H679" t="inlineStr">
         <is>
-          <t>20/07/2021 00:00</t>
+          <t>2021-07-20</t>
         </is>
       </c>
       <c r="J679" t="inlineStr">
@@ -27324,7 +27324,7 @@
       </c>
       <c r="H680" t="inlineStr">
         <is>
-          <t>12/07/2021 00:00</t>
+          <t>2021-07-12</t>
         </is>
       </c>
       <c r="J680" t="inlineStr">
@@ -27372,7 +27372,7 @@
       </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>11/07/2021 00:00</t>
+          <t>2021-07-11</t>
         </is>
       </c>
       <c r="J681" t="inlineStr">
@@ -27420,7 +27420,7 @@
       </c>
       <c r="H682" t="inlineStr">
         <is>
-          <t>20/07/2021 00:00</t>
+          <t>2021-07-20</t>
         </is>
       </c>
       <c r="J682" t="inlineStr">
@@ -27468,7 +27468,7 @@
       </c>
       <c r="H683" t="inlineStr">
         <is>
-          <t>21/03/2022 15:30</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="J683" t="inlineStr">
@@ -27516,7 +27516,7 @@
       </c>
       <c r="H684" t="inlineStr">
         <is>
-          <t>03/07/2021 00:00</t>
+          <t>2021-07-03</t>
         </is>
       </c>
       <c r="I684" t="inlineStr">
@@ -27569,7 +27569,7 @@
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>18/07/2021 00:00</t>
+          <t>2021-07-18</t>
         </is>
       </c>
       <c r="J685" t="inlineStr">
@@ -27617,7 +27617,7 @@
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>18/07/2021 00:00</t>
+          <t>2021-07-18</t>
         </is>
       </c>
       <c r="J686" t="inlineStr">
@@ -27665,7 +27665,7 @@
       </c>
       <c r="H687" t="inlineStr">
         <is>
-          <t>14/07/2021 00:00</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="J687" t="inlineStr">
@@ -27713,7 +27713,7 @@
       </c>
       <c r="H688" t="inlineStr">
         <is>
-          <t>04/07/2021 00:00</t>
+          <t>2021-07-04</t>
         </is>
       </c>
       <c r="J688" t="inlineStr">
@@ -27761,7 +27761,7 @@
       </c>
       <c r="H689" t="inlineStr">
         <is>
-          <t>08/07/2021 00:00</t>
+          <t>2021-07-08</t>
         </is>
       </c>
       <c r="J689" t="inlineStr">
@@ -27809,7 +27809,7 @@
       </c>
       <c r="H690" t="inlineStr">
         <is>
-          <t>14/07/2021 00:00</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="J690" t="inlineStr">
@@ -27857,7 +27857,7 @@
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>21/03/2022 15:30</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="J691" t="inlineStr">
@@ -27905,7 +27905,7 @@
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>21/03/2022 15:30</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="J692" t="inlineStr">
@@ -27953,7 +27953,7 @@
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>13/07/2021 00:00</t>
+          <t>2021-07-13</t>
         </is>
       </c>
       <c r="J693" t="inlineStr">
@@ -28001,7 +28001,7 @@
       </c>
       <c r="H694" t="inlineStr">
         <is>
-          <t>08/07/2021 00:00</t>
+          <t>2021-07-08</t>
         </is>
       </c>
       <c r="I694" t="inlineStr">
@@ -28044,7 +28044,7 @@
       </c>
       <c r="H695" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J695" t="inlineStr">
@@ -28082,7 +28082,7 @@
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J696" t="inlineStr">
@@ -28120,7 +28120,7 @@
       </c>
       <c r="H697" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J697" t="inlineStr">
@@ -28158,7 +28158,7 @@
       </c>
       <c r="H698" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J698" t="inlineStr">
@@ -28196,7 +28196,7 @@
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J699" t="inlineStr">
@@ -28234,7 +28234,7 @@
       </c>
       <c r="H700" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J700" t="inlineStr">
@@ -28272,7 +28272,7 @@
       </c>
       <c r="H701" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J701" t="inlineStr">
@@ -28310,7 +28310,7 @@
       </c>
       <c r="H702" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J702" t="inlineStr">
@@ -28348,7 +28348,7 @@
       </c>
       <c r="H703" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J703" t="inlineStr">
@@ -28386,7 +28386,7 @@
       </c>
       <c r="H704" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J704" t="inlineStr">
@@ -28424,7 +28424,7 @@
       </c>
       <c r="H705" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J705" t="inlineStr">
@@ -28462,7 +28462,7 @@
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J706" t="inlineStr">
@@ -28500,7 +28500,7 @@
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J707" t="inlineStr">
@@ -28538,7 +28538,7 @@
       </c>
       <c r="H708" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J708" t="inlineStr">
@@ -28576,7 +28576,7 @@
       </c>
       <c r="H709" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J709" t="inlineStr">
@@ -28614,7 +28614,7 @@
       </c>
       <c r="H710" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J710" t="inlineStr">
@@ -28652,7 +28652,7 @@
       </c>
       <c r="H711" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J711" t="inlineStr">
@@ -28690,7 +28690,7 @@
       </c>
       <c r="H712" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J712" t="inlineStr">
@@ -28728,7 +28728,7 @@
       </c>
       <c r="H713" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J713" t="inlineStr">
@@ -28766,7 +28766,7 @@
       </c>
       <c r="H714" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J714" t="inlineStr">
@@ -28804,7 +28804,7 @@
       </c>
       <c r="H715" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J715" t="inlineStr">
@@ -28842,7 +28842,7 @@
       </c>
       <c r="H716" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J716" t="inlineStr">
@@ -28880,7 +28880,7 @@
       </c>
       <c r="H717" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J717" t="inlineStr">
@@ -28918,7 +28918,7 @@
       </c>
       <c r="H718" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J718" t="inlineStr">
@@ -28956,7 +28956,7 @@
       </c>
       <c r="H719" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J719" t="inlineStr">
@@ -28994,7 +28994,7 @@
       </c>
       <c r="H720" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J720" t="inlineStr">
@@ -29032,7 +29032,7 @@
       </c>
       <c r="H721" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J721" t="inlineStr">
@@ -29070,7 +29070,7 @@
       </c>
       <c r="H722" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J722" t="inlineStr">
@@ -29108,7 +29108,7 @@
       </c>
       <c r="H723" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J723" t="inlineStr">
@@ -29146,7 +29146,7 @@
       </c>
       <c r="H724" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J724" t="inlineStr">
@@ -29184,7 +29184,7 @@
       </c>
       <c r="H725" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J725" t="inlineStr">
@@ -29222,7 +29222,7 @@
       </c>
       <c r="H726" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J726" t="inlineStr">
@@ -29260,7 +29260,7 @@
       </c>
       <c r="H727" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J727" t="inlineStr">
@@ -29298,7 +29298,7 @@
       </c>
       <c r="H728" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J728" t="inlineStr">
@@ -29330,7 +29330,7 @@
       </c>
       <c r="H729" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J729" t="inlineStr">
@@ -29357,7 +29357,7 @@
       </c>
       <c r="H730" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J730" t="inlineStr">
@@ -29384,7 +29384,7 @@
       </c>
       <c r="H731" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J731" t="inlineStr">
@@ -29411,7 +29411,7 @@
       </c>
       <c r="H732" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J732" t="inlineStr">
@@ -29438,7 +29438,7 @@
       </c>
       <c r="H733" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J733" t="inlineStr">
@@ -29465,7 +29465,7 @@
       </c>
       <c r="H734" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J734" t="inlineStr">
@@ -29492,7 +29492,7 @@
       </c>
       <c r="H735" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J735" t="inlineStr">
@@ -29519,7 +29519,7 @@
       </c>
       <c r="H736" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J736" t="inlineStr">
@@ -29546,7 +29546,7 @@
       </c>
       <c r="H737" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J737" t="inlineStr">
@@ -29573,7 +29573,7 @@
       </c>
       <c r="H738" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J738" t="inlineStr">
@@ -29600,7 +29600,7 @@
       </c>
       <c r="H739" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J739" t="inlineStr">

--- a/analysis/metadata/P08_5/P08_5_minimal_metadata.xlsx
+++ b/analysis/metadata/P08_5/P08_5_minimal_metadata.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P738"/>
+  <dimension ref="A1:P739"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -29503,7 +29503,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>MFD10695</t>
+          <t>MFD10692</t>
         </is>
       </c>
       <c r="H736" t="inlineStr">
@@ -29530,7 +29530,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>MFD10697</t>
+          <t>MFD10695</t>
         </is>
       </c>
       <c r="H737" t="inlineStr">
@@ -29557,25 +29557,52 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
+          <t>MFD10697</t>
+        </is>
+      </c>
+      <c r="H738" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="J738" t="inlineStr">
+        <is>
+          <t>P08_5</t>
+        </is>
+      </c>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L738" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
           <t>MFD10698</t>
         </is>
       </c>
-      <c r="H738" t="inlineStr">
-        <is>
-          <t>2022-06-30</t>
-        </is>
-      </c>
-      <c r="J738" t="inlineStr">
-        <is>
-          <t>P08_5</t>
-        </is>
-      </c>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L738" t="inlineStr">
+      <c r="H739" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="J739" t="inlineStr">
+        <is>
+          <t>P08_5</t>
+        </is>
+      </c>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L739" t="inlineStr">
         <is>
           <t>Natural</t>
         </is>

--- a/analysis/metadata/P08_5/P08_5_minimal_metadata.xlsx
+++ b/analysis/metadata/P08_5/P08_5_minimal_metadata.xlsx
@@ -1255,11 +1255,6 @@
       <c r="D15">
         <v>8.15906148</v>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G15" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -1288,11 +1283,6 @@
       <c r="M15" t="inlineStr">
         <is>
           <t>2022-02-16</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -1802,11 +1792,6 @@
       <c r="D24">
         <v>8.15387307</v>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G24" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -1835,11 +1820,6 @@
       <c r="M24" t="inlineStr">
         <is>
           <t>2022-02-16</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -1981,11 +1961,6 @@
       <c r="D27">
         <v>8.16335014</v>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G27" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -2014,11 +1989,6 @@
       <c r="M27" t="inlineStr">
         <is>
           <t>2022-02-16</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -2286,11 +2256,6 @@
       <c r="D32">
         <v>8.157458050000001</v>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G32" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -2319,11 +2284,6 @@
       <c r="M32" t="inlineStr">
         <is>
           <t>2022-02-16</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -3022,11 +2982,6 @@
       <c r="D44">
         <v>8.48490726</v>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G44" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -3055,11 +3010,6 @@
       <c r="M44" t="inlineStr">
         <is>
           <t>2022-03-14</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -3322,11 +3272,6 @@
       <c r="D49">
         <v>9.85323034</v>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G49" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -3355,11 +3300,6 @@
       <c r="M49" t="inlineStr">
         <is>
           <t>2022-03-23</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -3438,11 +3378,6 @@
       <c r="D51">
         <v>8.158108110000001</v>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G51" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -3471,11 +3406,6 @@
       <c r="M51" t="inlineStr">
         <is>
           <t>2022-02-16</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -3617,11 +3547,6 @@
       <c r="D54">
         <v>8.402143179999999</v>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G54" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -3650,11 +3575,6 @@
       <c r="M54" t="inlineStr">
         <is>
           <t>2022-03-16</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -3728,11 +3648,6 @@
       <c r="D56">
         <v>8.388415569999999</v>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G56" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -3761,11 +3676,6 @@
       <c r="M56" t="inlineStr">
         <is>
           <t>2022-03-16</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -4338,11 +4248,6 @@
       <c r="D66">
         <v>8.152297989999999</v>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G66" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -4371,11 +4276,6 @@
       <c r="M66" t="inlineStr">
         <is>
           <t>2022-02-16</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -4391,11 +4291,6 @@
       <c r="D67">
         <v>8.15241353</v>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G67" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -4424,11 +4319,6 @@
       <c r="M67" t="inlineStr">
         <is>
           <t>2022-02-16</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -4749,11 +4639,6 @@
       <c r="D73">
         <v>9.85999408</v>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G73" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -4782,11 +4667,6 @@
       <c r="M73" t="inlineStr">
         <is>
           <t>2022-03-23</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -5170,11 +5050,6 @@
       <c r="D80">
         <v>8.164109140000001</v>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G80" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -5203,11 +5078,6 @@
       <c r="M80" t="inlineStr">
         <is>
           <t>2022-02-16</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -7161,11 +7031,6 @@
       <c r="D112">
         <v>8.162831110000001</v>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G112" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -7194,11 +7059,6 @@
       <c r="M112" t="inlineStr">
         <is>
           <t>2022-02-16</t>
-        </is>
-      </c>
-      <c r="N112" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -7640,11 +7500,6 @@
       <c r="D120">
         <v>8.1580893</v>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G120" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -7673,11 +7528,6 @@
       <c r="M120" t="inlineStr">
         <is>
           <t>2022-02-16</t>
-        </is>
-      </c>
-      <c r="N120" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -8487,11 +8337,6 @@
       <c r="D134">
         <v>8.157472670000001</v>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G134" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -8520,11 +8365,6 @@
       <c r="M134" t="inlineStr">
         <is>
           <t>2022-02-16</t>
-        </is>
-      </c>
-      <c r="N134" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -9039,11 +8879,6 @@
       <c r="D143">
         <v>9.84422118</v>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G143" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -9072,11 +8907,6 @@
       <c r="M143" t="inlineStr">
         <is>
           <t>2022-03-23</t>
-        </is>
-      </c>
-      <c r="N143" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -9276,11 +9106,6 @@
       <c r="D147">
         <v>8.15384937</v>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G147" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -9309,11 +9134,6 @@
       <c r="M147" t="inlineStr">
         <is>
           <t>2022-02-16</t>
-        </is>
-      </c>
-      <c r="N147" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -9455,11 +9275,6 @@
       <c r="D150">
         <v>8.163454290000001</v>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G150" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -9488,11 +9303,6 @@
       <c r="M150" t="inlineStr">
         <is>
           <t>2022-02-16</t>
-        </is>
-      </c>
-      <c r="N150" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -9566,11 +9376,6 @@
       <c r="D152">
         <v>8.154523940000001</v>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G152" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -9599,11 +9404,6 @@
       <c r="M152" t="inlineStr">
         <is>
           <t>2022-02-16</t>
-        </is>
-      </c>
-      <c r="N152" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -9619,11 +9419,6 @@
       <c r="D153">
         <v>8.15861479</v>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G153" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -9652,11 +9447,6 @@
       <c r="M153" t="inlineStr">
         <is>
           <t>2022-02-16</t>
-        </is>
-      </c>
-      <c r="N153" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -9798,11 +9588,6 @@
       <c r="D156">
         <v>9.85687296</v>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G156" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -9831,11 +9616,6 @@
       <c r="M156" t="inlineStr">
         <is>
           <t>2022-03-23</t>
-        </is>
-      </c>
-      <c r="N156" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -9977,11 +9757,6 @@
       <c r="D159">
         <v>8.16146565</v>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G159" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -10010,11 +9785,6 @@
       <c r="M159" t="inlineStr">
         <is>
           <t>2022-02-16</t>
-        </is>
-      </c>
-      <c r="N159" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -10093,11 +9863,6 @@
       <c r="D161">
         <v>10.11080487</v>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G161" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -10126,11 +9891,6 @@
       <c r="M161" t="inlineStr">
         <is>
           <t>2022-06-01</t>
-        </is>
-      </c>
-      <c r="N161" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -11718,11 +11478,6 @@
       <c r="D186">
         <v>10.11696927</v>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G186" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -11751,11 +11506,6 @@
       <c r="M186" t="inlineStr">
         <is>
           <t>2022-05-11</t>
-        </is>
-      </c>
-      <c r="N186" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -11829,11 +11579,6 @@
       <c r="D188">
         <v>10.11070196</v>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G188" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -11862,11 +11607,6 @@
       <c r="M188" t="inlineStr">
         <is>
           <t>2022-06-03</t>
-        </is>
-      </c>
-      <c r="N188" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -12061,11 +11801,6 @@
       <c r="D192">
         <v>10.11177664</v>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G192" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -12094,11 +11829,6 @@
       <c r="M192" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="N192" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -12114,11 +11844,6 @@
       <c r="D193">
         <v>10.10882371</v>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G193" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -12147,11 +11872,6 @@
       <c r="M193" t="inlineStr">
         <is>
           <t>2022-06-03</t>
-        </is>
-      </c>
-      <c r="N193" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -12225,11 +11945,6 @@
       <c r="D195">
         <v>10.10725653</v>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G195" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -12258,11 +11973,6 @@
       <c r="M195" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="N195" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -12452,11 +12162,6 @@
       <c r="D199">
         <v>10.10978584</v>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G199" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -12485,11 +12190,6 @@
       <c r="M199" t="inlineStr">
         <is>
           <t>2022-06-03</t>
-        </is>
-      </c>
-      <c r="N199" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -12505,11 +12205,6 @@
       <c r="D200">
         <v>10.11057034</v>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G200" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -12538,11 +12233,6 @@
       <c r="M200" t="inlineStr">
         <is>
           <t>2022-06-03</t>
-        </is>
-      </c>
-      <c r="N200" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -12616,11 +12306,6 @@
       <c r="D202">
         <v>10.10933983</v>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G202" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -12649,11 +12334,6 @@
       <c r="M202" t="inlineStr">
         <is>
           <t>2022-06-03</t>
-        </is>
-      </c>
-      <c r="N202" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -12669,11 +12349,6 @@
       <c r="D203">
         <v>10.10901534</v>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G203" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -12702,11 +12377,6 @@
       <c r="M203" t="inlineStr">
         <is>
           <t>2022-06-03</t>
-        </is>
-      </c>
-      <c r="N203" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -12891,11 +12561,6 @@
       <c r="D207">
         <v>10.12374484</v>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G207" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -12924,11 +12589,6 @@
       <c r="M207" t="inlineStr">
         <is>
           <t>2022-06-03</t>
-        </is>
-      </c>
-      <c r="N207" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -13002,11 +12662,6 @@
       <c r="D209">
         <v>10.10966126</v>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G209" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -13035,11 +12690,6 @@
       <c r="M209" t="inlineStr">
         <is>
           <t>2022-06-01</t>
-        </is>
-      </c>
-      <c r="N209" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -13055,11 +12705,6 @@
       <c r="D210">
         <v>10.1082956</v>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G210" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -13088,11 +12733,6 @@
       <c r="M210" t="inlineStr">
         <is>
           <t>2022-06-03</t>
-        </is>
-      </c>
-      <c r="N210" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -13219,11 +12859,6 @@
       <c r="D213">
         <v>10.10879764</v>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G213" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -13252,11 +12887,6 @@
       <c r="M213" t="inlineStr">
         <is>
           <t>2022-06-03</t>
-        </is>
-      </c>
-      <c r="N213" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -14394,11 +14024,6 @@
       <c r="D233">
         <v>10.11080928</v>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G233" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -14427,11 +14052,6 @@
       <c r="M233" t="inlineStr">
         <is>
           <t>2022-06-03</t>
-        </is>
-      </c>
-      <c r="N233" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -14636,11 +14256,6 @@
       <c r="D237">
         <v>10.11466423</v>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G237" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -14669,11 +14284,6 @@
       <c r="M237" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="N237" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -15869,11 +15479,6 @@
       <c r="D258">
         <v>10.10824251</v>
       </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G258" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -15902,11 +15507,6 @@
       <c r="M258" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="N258" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -15980,11 +15580,6 @@
       <c r="D260">
         <v>10.11097765</v>
       </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G260" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -16013,11 +15608,6 @@
       <c r="M260" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="N260" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -16396,11 +15986,6 @@
       <c r="D267">
         <v>10.11101107</v>
       </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G267" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -16429,11 +16014,6 @@
       <c r="M267" t="inlineStr">
         <is>
           <t>2022-06-03</t>
-        </is>
-      </c>
-      <c r="N267" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -16486,11 +16066,6 @@
       <c r="D269">
         <v>10.10931959</v>
       </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G269" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -16519,11 +16094,6 @@
       <c r="M269" t="inlineStr">
         <is>
           <t>2022-06-01</t>
-        </is>
-      </c>
-      <c r="N269" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -17358,11 +16928,6 @@
       <c r="D283">
         <v>10.11051666</v>
       </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G283" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -17391,11 +16956,6 @@
       <c r="M283" t="inlineStr">
         <is>
           <t>2022-06-03</t>
-        </is>
-      </c>
-      <c r="N283" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -17411,11 +16971,6 @@
       <c r="D284">
         <v>10.11633434</v>
       </c>
-      <c r="F284" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G284" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -17444,11 +16999,6 @@
       <c r="M284" t="inlineStr">
         <is>
           <t>2022-05-11</t>
-        </is>
-      </c>
-      <c r="N284" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -17464,11 +17014,6 @@
       <c r="D285">
         <v>10.10965298</v>
       </c>
-      <c r="F285" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G285" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -17497,11 +17042,6 @@
       <c r="M285" t="inlineStr">
         <is>
           <t>2022-06-03</t>
-        </is>
-      </c>
-      <c r="N285" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -17633,11 +17173,6 @@
       <c r="D288">
         <v>10.11305482</v>
       </c>
-      <c r="F288" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G288" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -17666,11 +17201,6 @@
       <c r="M288" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="N288" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -17865,11 +17395,6 @@
       <c r="D292">
         <v>10.11625215</v>
       </c>
-      <c r="F292" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G292" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -17898,11 +17423,6 @@
       <c r="M292" t="inlineStr">
         <is>
           <t>2022-05-23</t>
-        </is>
-      </c>
-      <c r="N292" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -18349,11 +17869,6 @@
       <c r="D300">
         <v>10.11076534</v>
       </c>
-      <c r="F300" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G300" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -18382,11 +17897,6 @@
       <c r="M300" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="N300" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -19504,11 +19014,6 @@
       <c r="D320">
         <v>10.11231221</v>
       </c>
-      <c r="F320" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G320" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -19537,11 +19042,6 @@
       <c r="M320" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="N320" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -19731,11 +19231,6 @@
       <c r="D324">
         <v>10.11322318</v>
       </c>
-      <c r="F324" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G324" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -19764,11 +19259,6 @@
       <c r="M324" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="N324" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -19784,11 +19274,6 @@
       <c r="D325">
         <v>10.11265762</v>
       </c>
-      <c r="F325" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G325" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -19817,11 +19302,6 @@
       <c r="M325" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="N325" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -20243,11 +19723,6 @@
       <c r="D333">
         <v>10.10843718</v>
       </c>
-      <c r="F333" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G333" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -20276,11 +19751,6 @@
       <c r="M333" t="inlineStr">
         <is>
           <t>2022-06-03</t>
-        </is>
-      </c>
-      <c r="N333" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -21032,11 +20502,6 @@
       <c r="D346">
         <v>9.720592634999999</v>
       </c>
-      <c r="F346" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G346" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -21065,11 +20530,6 @@
       <c r="M346" t="inlineStr">
         <is>
           <t>2022-03-02</t>
-        </is>
-      </c>
-      <c r="N346" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -26355,11 +25815,6 @@
       <c r="D432">
         <v>9.71987843</v>
       </c>
-      <c r="F432" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G432" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -26388,11 +25843,6 @@
       <c r="M432" t="inlineStr">
         <is>
           <t>2022-03-02</t>
-        </is>
-      </c>
-      <c r="N432" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -27139,11 +26589,6 @@
       <c r="D445">
         <v>9.720240240000001</v>
       </c>
-      <c r="F445" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G445" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -27172,11 +26617,6 @@
       <c r="M445" t="inlineStr">
         <is>
           <t>2022-03-02</t>
-        </is>
-      </c>
-      <c r="N445" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -28190,11 +27630,6 @@
       <c r="D462">
         <v>9.837258135000001</v>
       </c>
-      <c r="F462" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G462" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -28223,11 +27658,6 @@
       <c r="M462" t="inlineStr">
         <is>
           <t>2022-03-25</t>
-        </is>
-      </c>
-      <c r="N462" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -30766,11 +30196,6 @@
       <c r="D504">
         <v>10.11711239</v>
       </c>
-      <c r="F504" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G504" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -30799,11 +30224,6 @@
       <c r="M504" t="inlineStr">
         <is>
           <t>2022-05-04</t>
-        </is>
-      </c>
-      <c r="N504" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -32323,11 +31743,6 @@
       <c r="D528">
         <v>9.720617969999999</v>
       </c>
-      <c r="F528" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G528" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -32356,11 +31771,6 @@
       <c r="M528" t="inlineStr">
         <is>
           <t>2022-01-18</t>
-        </is>
-      </c>
-      <c r="N528" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -32429,11 +31839,6 @@
       <c r="D530">
         <v>9.72048234</v>
       </c>
-      <c r="F530" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G530" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -32462,11 +31867,6 @@
       <c r="M530" t="inlineStr">
         <is>
           <t>2022-01-18</t>
-        </is>
-      </c>
-      <c r="N530" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -33351,11 +32751,6 @@
       <c r="D544">
         <v>9.71963528</v>
       </c>
-      <c r="F544" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G544" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -33384,11 +32779,6 @@
       <c r="M544" t="inlineStr">
         <is>
           <t>2022-01-18</t>
-        </is>
-      </c>
-      <c r="N544" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -34885,11 +34275,6 @@
       <c r="D569">
         <v>10.12138981</v>
       </c>
-      <c r="F569" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G569" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -34918,11 +34303,6 @@
       <c r="M569" t="inlineStr">
         <is>
           <t>2022-05-04</t>
-        </is>
-      </c>
-      <c r="N569" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -38127,11 +37507,6 @@
       <c r="D618">
         <v>10.12134588</v>
       </c>
-      <c r="F618" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G618" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -38160,11 +37535,6 @@
       <c r="M618" t="inlineStr">
         <is>
           <t>2022-05-04</t>
-        </is>
-      </c>
-      <c r="N618" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -38180,11 +37550,6 @@
       <c r="D619">
         <v>10.12143175</v>
       </c>
-      <c r="F619" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G619" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -38213,11 +37578,6 @@
       <c r="M619" t="inlineStr">
         <is>
           <t>2022-05-04</t>
-        </is>
-      </c>
-      <c r="N619" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -38495,11 +37855,6 @@
       <c r="D624">
         <v>10.12451672</v>
       </c>
-      <c r="F624" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G624" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -38528,11 +37883,6 @@
       <c r="M624" t="inlineStr">
         <is>
           <t>2022-05-04</t>
-        </is>
-      </c>
-      <c r="N624" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -40039,11 +39389,6 @@
       <c r="D647">
         <v>10.12176065</v>
       </c>
-      <c r="F647" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G647" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -40072,11 +39417,6 @@
       <c r="M647" t="inlineStr">
         <is>
           <t>2022-05-04</t>
-        </is>
-      </c>
-      <c r="N647" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -45616,11 +44956,6 @@
       <c r="D731">
         <v>10.54270592</v>
       </c>
-      <c r="F731" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G731" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -45649,11 +44984,6 @@
       <c r="M731" t="inlineStr">
         <is>
           <t>2015-06-20</t>
-        </is>
-      </c>
-      <c r="N731" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>
@@ -45848,11 +45178,6 @@
       <c r="D735">
         <v>10.53622484</v>
       </c>
-      <c r="F735" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
       <c r="G735" t="inlineStr">
         <is>
           <t>ikke habitatnatur</t>
@@ -45881,11 +45206,6 @@
       <c r="M735" t="inlineStr">
         <is>
           <t>2015-06-20</t>
-        </is>
-      </c>
-      <c r="N735" t="inlineStr">
-        <is>
-          <t>Dunes</t>
         </is>
       </c>
     </row>

--- a/analysis/metadata/P08_5/P08_5_minimal_metadata.xlsx
+++ b/analysis/metadata/P08_5/P08_5_minimal_metadata.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P738"/>
+  <dimension ref="A1:P739"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32793,11 +32793,27 @@
           <t>soil</t>
         </is>
       </c>
+      <c r="C545">
+        <v>56.23154404</v>
+      </c>
+      <c r="D545">
+        <v>10.57174294</v>
+      </c>
       <c r="E545" t="inlineStr">
         <is>
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>6230</t>
+        </is>
+      </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>Surt overdrev</t>
+        </is>
+      </c>
       <c r="H545" t="inlineStr">
         <is>
           <t>2021-07-16</t>
@@ -32816,6 +32832,26 @@
       <c r="L545" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M545" t="inlineStr">
+        <is>
+          <t>2016-07-20</t>
+        </is>
+      </c>
+      <c r="N545" t="inlineStr">
+        <is>
+          <t>Grassland formations</t>
+        </is>
+      </c>
+      <c r="O545" t="inlineStr">
+        <is>
+          <t>Semi-natural dry grasslands</t>
+        </is>
+      </c>
+      <c r="P545" t="inlineStr">
+        <is>
+          <t>Species-rich Nardus upland grassland</t>
         </is>
       </c>
     </row>
@@ -45380,6 +45416,69 @@
       <c r="O738" t="inlineStr">
         <is>
           <t>Temperate forests</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>MDF06762</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="C739">
+        <v>55.704087</v>
+      </c>
+      <c r="D739">
+        <v>11.843488</v>
+      </c>
+      <c r="F739" t="inlineStr">
+        <is>
+          <t>7230</t>
+        </is>
+      </c>
+      <c r="I739" t="inlineStr">
+        <is>
+          <t>Rigkær</t>
+        </is>
+      </c>
+      <c r="J739" t="inlineStr">
+        <is>
+          <t>P08_5</t>
+        </is>
+      </c>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L739" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="M739" t="inlineStr">
+        <is>
+          <t>17-05-2022</t>
+        </is>
+      </c>
+      <c r="N739" t="inlineStr">
+        <is>
+          <t>Bogs, mires and fens</t>
+        </is>
+      </c>
+      <c r="O739" t="inlineStr">
+        <is>
+          <t>Calcareous fens</t>
+        </is>
+      </c>
+      <c r="P739" t="inlineStr">
+        <is>
+          <t>Alkaline fens</t>
         </is>
       </c>
     </row>

--- a/analysis/metadata/P08_5/P08_5_minimal_metadata.xlsx
+++ b/analysis/metadata/P08_5/P08_5_minimal_metadata.xlsx
@@ -39728,6 +39728,16 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L651" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M651" t="inlineStr">
         <is>
           <t>2022-06-03</t>
@@ -39985,9 +39995,34 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L655" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M655" t="inlineStr">
         <is>
           <t>2016-05-20</t>
+        </is>
+      </c>
+      <c r="N655" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O655" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
+        </is>
+      </c>
+      <c r="P655" t="inlineStr">
+        <is>
+          <t>Beech forests Luzulo-Fagetum</t>
         </is>
       </c>
     </row>
@@ -40023,9 +40058,34 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L656" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M656" t="inlineStr">
         <is>
           <t>2002-06-20</t>
+        </is>
+      </c>
+      <c r="N656" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O656" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
+        </is>
+      </c>
+      <c r="P656" t="inlineStr">
+        <is>
+          <t>Alluvial woodland</t>
         </is>
       </c>
     </row>
@@ -40061,9 +40121,34 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L657" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M657" t="inlineStr">
         <is>
           <t>2017-05-20</t>
+        </is>
+      </c>
+      <c r="N657" t="inlineStr">
+        <is>
+          <t>Grassland formations</t>
+        </is>
+      </c>
+      <c r="O657" t="inlineStr">
+        <is>
+          <t>Semi-natural dry grasslands</t>
+        </is>
+      </c>
+      <c r="P657" t="inlineStr">
+        <is>
+          <t>Calcareous grassland</t>
         </is>
       </c>
     </row>
@@ -40464,9 +40549,34 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L663" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M663" t="inlineStr">
         <is>
           <t>2018-05-20</t>
+        </is>
+      </c>
+      <c r="N663" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O663" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
+        </is>
+      </c>
+      <c r="P663" t="inlineStr">
+        <is>
+          <t>Beech forests Asperulo-Fagetum</t>
         </is>
       </c>
     </row>
@@ -40502,9 +40612,24 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L664" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M664" t="inlineStr">
         <is>
           <t>2022-05-04</t>
+        </is>
+      </c>
+      <c r="N664" t="inlineStr">
+        <is>
+          <t>Bogs, mires and fens</t>
         </is>
       </c>
     </row>
@@ -40540,9 +40665,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L665" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M665" t="inlineStr">
         <is>
           <t>2030-05-20</t>
+        </is>
+      </c>
+      <c r="N665" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O665" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -40792,6 +40937,16 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L669" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M669" t="inlineStr">
         <is>
           <t>2022-05-04</t>
@@ -40981,9 +41136,34 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L672" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M672" t="inlineStr">
         <is>
           <t>2017-05-20</t>
+        </is>
+      </c>
+      <c r="N672" t="inlineStr">
+        <is>
+          <t>Grassland formations</t>
+        </is>
+      </c>
+      <c r="O672" t="inlineStr">
+        <is>
+          <t>Semi-natural dry grasslands</t>
+        </is>
+      </c>
+      <c r="P672" t="inlineStr">
+        <is>
+          <t>Calcareous grassland</t>
         </is>
       </c>
     </row>
@@ -41092,9 +41272,34 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L674" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M674" t="inlineStr">
         <is>
           <t>2018-05-20</t>
+        </is>
+      </c>
+      <c r="N674" t="inlineStr">
+        <is>
+          <t>Grassland formations</t>
+        </is>
+      </c>
+      <c r="O674" t="inlineStr">
+        <is>
+          <t>Semi-natural dry grasslands</t>
+        </is>
+      </c>
+      <c r="P674" t="inlineStr">
+        <is>
+          <t>Species-rich Nardus upland grassland</t>
         </is>
       </c>
     </row>
@@ -41611,9 +41816,34 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L682" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M682" t="inlineStr">
         <is>
           <t>2017-05-20</t>
+        </is>
+      </c>
+      <c r="N682" t="inlineStr">
+        <is>
+          <t>Grassland formations</t>
+        </is>
+      </c>
+      <c r="O682" t="inlineStr">
+        <is>
+          <t>Semi-natural dry grasslands</t>
+        </is>
+      </c>
+      <c r="P682" t="inlineStr">
+        <is>
+          <t>Calcareous grassland</t>
         </is>
       </c>
     </row>
@@ -41795,9 +42025,34 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L685" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M685" t="inlineStr">
         <is>
           <t>2017-05-20</t>
+        </is>
+      </c>
+      <c r="N685" t="inlineStr">
+        <is>
+          <t>Grassland formations</t>
+        </is>
+      </c>
+      <c r="O685" t="inlineStr">
+        <is>
+          <t>Semi-natural dry grasslands</t>
+        </is>
+      </c>
+      <c r="P685" t="inlineStr">
+        <is>
+          <t>Calcareous grassland</t>
         </is>
       </c>
     </row>
@@ -42193,6 +42448,16 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L691" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M691" t="inlineStr">
         <is>
           <t>2015-06-20</t>
@@ -42377,9 +42642,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L694" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M694" t="inlineStr">
         <is>
           <t>2018-05-20</t>
+        </is>
+      </c>
+      <c r="N694" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O694" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -42493,9 +42778,24 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L696" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M696" t="inlineStr">
         <is>
           <t>2022-05-04</t>
+        </is>
+      </c>
+      <c r="N696" t="inlineStr">
+        <is>
+          <t>Bogs, mires and fens</t>
         </is>
       </c>
     </row>
@@ -42750,9 +43050,34 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L700" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M700" t="inlineStr">
         <is>
           <t>2015-06-20</t>
+        </is>
+      </c>
+      <c r="N700" t="inlineStr">
+        <is>
+          <t>Bogs, mires and fens</t>
+        </is>
+      </c>
+      <c r="O700" t="inlineStr">
+        <is>
+          <t>Sphagnum acid bogs</t>
+        </is>
+      </c>
+      <c r="P700" t="inlineStr">
+        <is>
+          <t>Quaking bogs</t>
         </is>
       </c>
     </row>
@@ -43007,9 +43332,34 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L704" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M704" t="inlineStr">
         <is>
           <t>2002-06-20</t>
+        </is>
+      </c>
+      <c r="N704" t="inlineStr">
+        <is>
+          <t>Bogs, mires and fens</t>
+        </is>
+      </c>
+      <c r="O704" t="inlineStr">
+        <is>
+          <t>Calcareous fens</t>
+        </is>
+      </c>
+      <c r="P704" t="inlineStr">
+        <is>
+          <t>Alkaline fens</t>
         </is>
       </c>
     </row>
@@ -43118,9 +43468,34 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L706" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M706" t="inlineStr">
         <is>
           <t>2016-05-20</t>
+        </is>
+      </c>
+      <c r="N706" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O706" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
+        </is>
+      </c>
+      <c r="P706" t="inlineStr">
+        <is>
+          <t>Oak forest  Old acidophilous woods with Q. robur on sandy plains</t>
         </is>
       </c>
     </row>
@@ -45407,9 +45782,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L744" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M744" t="inlineStr">
         <is>
           <t>2016-06-20</t>
+        </is>
+      </c>
+      <c r="N744" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O744" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -45445,9 +45840,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L745" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M745" t="inlineStr">
         <is>
           <t>2009-06-20</t>
+        </is>
+      </c>
+      <c r="N745" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O745" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -45478,6 +45893,16 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L746" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M746" t="inlineStr">
         <is>
           <t>2015-06-20</t>
@@ -45516,9 +45941,34 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L747" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M747" t="inlineStr">
         <is>
           <t>2015-06-20</t>
+        </is>
+      </c>
+      <c r="N747" t="inlineStr">
+        <is>
+          <t>Grassland formations</t>
+        </is>
+      </c>
+      <c r="O747" t="inlineStr">
+        <is>
+          <t>Semi-natural dry grasslands</t>
+        </is>
+      </c>
+      <c r="P747" t="inlineStr">
+        <is>
+          <t>Species-rich Nardus upland grassland</t>
         </is>
       </c>
     </row>
@@ -45554,9 +46004,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L748" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M748" t="inlineStr">
         <is>
           <t>2016-06-20</t>
+        </is>
+      </c>
+      <c r="N748" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O748" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -45592,9 +46062,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L749" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M749" t="inlineStr">
         <is>
           <t>2015-06-20</t>
+        </is>
+      </c>
+      <c r="N749" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O749" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -45625,6 +46115,16 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L750" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M750" t="inlineStr">
         <is>
           <t>2015-06-20</t>
@@ -45663,9 +46163,34 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L751" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M751" t="inlineStr">
         <is>
           <t>2013-06-20</t>
+        </is>
+      </c>
+      <c r="N751" t="inlineStr">
+        <is>
+          <t>Grassland formations</t>
+        </is>
+      </c>
+      <c r="O751" t="inlineStr">
+        <is>
+          <t>Semi-natural dry grasslands</t>
+        </is>
+      </c>
+      <c r="P751" t="inlineStr">
+        <is>
+          <t>Species-rich Nardus upland grassland</t>
         </is>
       </c>
     </row>
@@ -45701,9 +46226,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L752" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M752" t="inlineStr">
         <is>
           <t>2009-06-20</t>
+        </is>
+      </c>
+      <c r="N752" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O752" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -45739,9 +46284,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L753" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M753" t="inlineStr">
         <is>
           <t>2009-06-20</t>
+        </is>
+      </c>
+      <c r="N753" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O753" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -45777,9 +46342,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L754" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M754" t="inlineStr">
         <is>
           <t>2014-06-20</t>
+        </is>
+      </c>
+      <c r="N754" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O754" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -45815,9 +46400,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L755" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M755" t="inlineStr">
         <is>
           <t>2009-06-20</t>
+        </is>
+      </c>
+      <c r="N755" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O755" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -45853,9 +46458,34 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L756" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M756" t="inlineStr">
         <is>
           <t>2013-06-20</t>
+        </is>
+      </c>
+      <c r="N756" t="inlineStr">
+        <is>
+          <t>Grassland formations</t>
+        </is>
+      </c>
+      <c r="O756" t="inlineStr">
+        <is>
+          <t>Semi-natural dry grasslands</t>
+        </is>
+      </c>
+      <c r="P756" t="inlineStr">
+        <is>
+          <t>Species-rich Nardus upland grassland</t>
         </is>
       </c>
     </row>
@@ -45891,9 +46521,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L757" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M757" t="inlineStr">
         <is>
           <t>2009-06-20</t>
+        </is>
+      </c>
+      <c r="N757" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O757" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -45929,9 +46579,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L758" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M758" t="inlineStr">
         <is>
           <t>2014-06-20</t>
+        </is>
+      </c>
+      <c r="N758" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O758" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -45967,9 +46637,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L759" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M759" t="inlineStr">
         <is>
           <t>2013-06-20</t>
+        </is>
+      </c>
+      <c r="N759" t="inlineStr">
+        <is>
+          <t>Grassland formations</t>
+        </is>
+      </c>
+      <c r="O759" t="inlineStr">
+        <is>
+          <t>Semi-natural dry grasslands</t>
         </is>
       </c>
     </row>
@@ -46005,9 +46695,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L760" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M760" t="inlineStr">
         <is>
           <t>2008-06-20</t>
+        </is>
+      </c>
+      <c r="N760" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O760" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -46043,9 +46753,34 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L761" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M761" t="inlineStr">
         <is>
           <t>2013-06-20</t>
+        </is>
+      </c>
+      <c r="N761" t="inlineStr">
+        <is>
+          <t>Grassland formations</t>
+        </is>
+      </c>
+      <c r="O761" t="inlineStr">
+        <is>
+          <t>Semi-natural dry grasslands</t>
+        </is>
+      </c>
+      <c r="P761" t="inlineStr">
+        <is>
+          <t>Species-rich Nardus upland grassland</t>
         </is>
       </c>
     </row>
@@ -46081,9 +46816,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L762" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M762" t="inlineStr">
         <is>
           <t>2008-06-20</t>
+        </is>
+      </c>
+      <c r="N762" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O762" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -46177,9 +46932,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L764" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M764" t="inlineStr">
         <is>
           <t>2009-06-20</t>
+        </is>
+      </c>
+      <c r="N764" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O764" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -46215,9 +46990,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L765" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M765" t="inlineStr">
         <is>
           <t>2008-06-20</t>
+        </is>
+      </c>
+      <c r="N765" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O765" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -46253,9 +47048,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L766" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M766" t="inlineStr">
         <is>
           <t>2015-06-20</t>
+        </is>
+      </c>
+      <c r="N766" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O766" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -46291,9 +47106,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L767" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M767" t="inlineStr">
         <is>
           <t>2009-06-20</t>
+        </is>
+      </c>
+      <c r="N767" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O767" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -46329,9 +47164,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L768" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M768" t="inlineStr">
         <is>
           <t>2015-06-20</t>
+        </is>
+      </c>
+      <c r="N768" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O768" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -46367,9 +47222,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L769" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M769" t="inlineStr">
         <is>
           <t>2015-06-20</t>
+        </is>
+      </c>
+      <c r="N769" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O769" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -46405,9 +47280,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L770" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M770" t="inlineStr">
         <is>
           <t>2008-06-20</t>
+        </is>
+      </c>
+      <c r="N770" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O770" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -46443,9 +47338,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L771" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M771" t="inlineStr">
         <is>
           <t>2015-06-20</t>
+        </is>
+      </c>
+      <c r="N771" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O771" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -46481,9 +47396,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L772" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M772" t="inlineStr">
         <is>
           <t>2008-06-20</t>
+        </is>
+      </c>
+      <c r="N772" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O772" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -46519,9 +47454,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L773" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M773" t="inlineStr">
         <is>
           <t>2013-06-20</t>
+        </is>
+      </c>
+      <c r="N773" t="inlineStr">
+        <is>
+          <t>Grassland formations</t>
+        </is>
+      </c>
+      <c r="O773" t="inlineStr">
+        <is>
+          <t>Semi-natural dry grasslands</t>
         </is>
       </c>
     </row>
@@ -46557,9 +47512,34 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L774" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M774" t="inlineStr">
         <is>
           <t>2008-06-20</t>
+        </is>
+      </c>
+      <c r="N774" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O774" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
+        </is>
+      </c>
+      <c r="P774" t="inlineStr">
+        <is>
+          <t>Beech forests Asperulo-Fagetum</t>
         </is>
       </c>
     </row>
@@ -46595,9 +47575,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L775" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M775" t="inlineStr">
         <is>
           <t>2009-06-20</t>
+        </is>
+      </c>
+      <c r="N775" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O775" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -46633,9 +47633,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L776" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M776" t="inlineStr">
         <is>
           <t>2014-06-20</t>
+        </is>
+      </c>
+      <c r="N776" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O776" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -46671,9 +47691,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L777" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M777" t="inlineStr">
         <is>
           <t>2015-06-20</t>
+        </is>
+      </c>
+      <c r="N777" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O777" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -46709,9 +47749,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L778" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M778" t="inlineStr">
         <is>
           <t>2014-06-20</t>
+        </is>
+      </c>
+      <c r="N778" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O778" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -46747,9 +47807,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L779" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M779" t="inlineStr">
         <is>
           <t>2015-06-20</t>
+        </is>
+      </c>
+      <c r="N779" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O779" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -46785,9 +47865,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L780" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M780" t="inlineStr">
         <is>
           <t>2009-06-20</t>
+        </is>
+      </c>
+      <c r="N780" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O780" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -46823,9 +47923,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L781" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M781" t="inlineStr">
         <is>
           <t>2008-06-20</t>
+        </is>
+      </c>
+      <c r="N781" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O781" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -46861,9 +47981,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L782" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M782" t="inlineStr">
         <is>
           <t>2008-06-20</t>
+        </is>
+      </c>
+      <c r="N782" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O782" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -46899,9 +48039,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L783" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M783" t="inlineStr">
         <is>
           <t>2008-06-20</t>
+        </is>
+      </c>
+      <c r="N783" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O783" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -46937,9 +48097,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L784" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M784" t="inlineStr">
         <is>
           <t>2015-06-20</t>
+        </is>
+      </c>
+      <c r="N784" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O784" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -46975,9 +48155,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L785" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M785" t="inlineStr">
         <is>
           <t>2013-06-20</t>
+        </is>
+      </c>
+      <c r="N785" t="inlineStr">
+        <is>
+          <t>Grassland formations</t>
+        </is>
+      </c>
+      <c r="O785" t="inlineStr">
+        <is>
+          <t>Semi-natural dry grasslands</t>
         </is>
       </c>
     </row>
@@ -47013,9 +48213,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L786" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M786" t="inlineStr">
         <is>
           <t>2008-06-20</t>
+        </is>
+      </c>
+      <c r="N786" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O786" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -47051,9 +48271,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L787" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M787" t="inlineStr">
         <is>
           <t>2009-06-20</t>
+        </is>
+      </c>
+      <c r="N787" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O787" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -47084,6 +48324,16 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L788" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M788" t="inlineStr">
         <is>
           <t>2013-06-20</t>
@@ -47122,9 +48372,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L789" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M789" t="inlineStr">
         <is>
           <t>2013-06-20</t>
+        </is>
+      </c>
+      <c r="N789" t="inlineStr">
+        <is>
+          <t>Grassland formations</t>
+        </is>
+      </c>
+      <c r="O789" t="inlineStr">
+        <is>
+          <t>Semi-natural dry grasslands</t>
         </is>
       </c>
     </row>
@@ -47160,9 +48430,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L790" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M790" t="inlineStr">
         <is>
           <t>2015-06-20</t>
+        </is>
+      </c>
+      <c r="N790" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O790" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -47198,9 +48488,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L791" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M791" t="inlineStr">
         <is>
           <t>2015-06-20</t>
+        </is>
+      </c>
+      <c r="N791" t="inlineStr">
+        <is>
+          <t>Grassland formations</t>
+        </is>
+      </c>
+      <c r="O791" t="inlineStr">
+        <is>
+          <t>Semi-natural dry grasslands</t>
         </is>
       </c>
     </row>
@@ -47236,9 +48546,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L792" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M792" t="inlineStr">
         <is>
           <t>2008-06-20</t>
+        </is>
+      </c>
+      <c r="N792" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O792" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -47274,9 +48604,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L793" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M793" t="inlineStr">
         <is>
           <t>2008-06-20</t>
+        </is>
+      </c>
+      <c r="N793" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O793" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -47312,9 +48662,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L794" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M794" t="inlineStr">
         <is>
           <t>2015-06-20</t>
+        </is>
+      </c>
+      <c r="N794" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O794" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -47350,9 +48720,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L795" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M795" t="inlineStr">
         <is>
           <t>2008-06-20</t>
+        </is>
+      </c>
+      <c r="N795" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O795" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -47388,9 +48778,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L796" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M796" t="inlineStr">
         <is>
           <t>2014-06-20</t>
+        </is>
+      </c>
+      <c r="N796" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O796" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -47426,9 +48836,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L797" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M797" t="inlineStr">
         <is>
           <t>2009-06-20</t>
+        </is>
+      </c>
+      <c r="N797" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O797" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -47464,9 +48894,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L798" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M798" t="inlineStr">
         <is>
           <t>2009-06-20</t>
+        </is>
+      </c>
+      <c r="N798" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O798" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -47502,9 +48952,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L799" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M799" t="inlineStr">
         <is>
           <t>2008-06-20</t>
+        </is>
+      </c>
+      <c r="N799" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O799" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -47535,6 +49005,16 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L800" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M800" t="inlineStr">
         <is>
           <t>2013-06-20</t>
@@ -47573,9 +49053,34 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L801" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M801" t="inlineStr">
         <is>
           <t>2013-06-20</t>
+        </is>
+      </c>
+      <c r="N801" t="inlineStr">
+        <is>
+          <t>Grassland formations</t>
+        </is>
+      </c>
+      <c r="O801" t="inlineStr">
+        <is>
+          <t>Semi-natural dry grasslands</t>
+        </is>
+      </c>
+      <c r="P801" t="inlineStr">
+        <is>
+          <t>Species-rich Nardus upland grassland</t>
         </is>
       </c>
     </row>
@@ -47611,9 +49116,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L802" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M802" t="inlineStr">
         <is>
           <t>2014-06-20</t>
+        </is>
+      </c>
+      <c r="N802" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O802" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -47649,9 +49174,34 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L803" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M803" t="inlineStr">
         <is>
           <t>2013-06-20</t>
+        </is>
+      </c>
+      <c r="N803" t="inlineStr">
+        <is>
+          <t>Grassland formations</t>
+        </is>
+      </c>
+      <c r="O803" t="inlineStr">
+        <is>
+          <t>Semi-natural dry grasslands</t>
+        </is>
+      </c>
+      <c r="P803" t="inlineStr">
+        <is>
+          <t>Species-rich Nardus upland grassland</t>
         </is>
       </c>
     </row>
@@ -47687,9 +49237,34 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L804" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M804" t="inlineStr">
         <is>
           <t>2015-06-20</t>
+        </is>
+      </c>
+      <c r="N804" t="inlineStr">
+        <is>
+          <t>Grassland formations</t>
+        </is>
+      </c>
+      <c r="O804" t="inlineStr">
+        <is>
+          <t>Semi-natural dry grasslands</t>
+        </is>
+      </c>
+      <c r="P804" t="inlineStr">
+        <is>
+          <t>Species-rich Nardus upland grassland</t>
         </is>
       </c>
     </row>
@@ -47725,9 +49300,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L805" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M805" t="inlineStr">
         <is>
           <t>2015-06-20</t>
+        </is>
+      </c>
+      <c r="N805" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O805" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -47763,9 +49358,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L806" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M806" t="inlineStr">
         <is>
           <t>2013-06-20</t>
+        </is>
+      </c>
+      <c r="N806" t="inlineStr">
+        <is>
+          <t>Grassland formations</t>
+        </is>
+      </c>
+      <c r="O806" t="inlineStr">
+        <is>
+          <t>Semi-natural dry grasslands</t>
         </is>
       </c>
     </row>
@@ -47801,9 +49416,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L807" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M807" t="inlineStr">
         <is>
           <t>2009-06-20</t>
+        </is>
+      </c>
+      <c r="N807" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O807" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -47839,9 +49474,34 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L808" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M808" t="inlineStr">
         <is>
           <t>2015-06-20</t>
+        </is>
+      </c>
+      <c r="N808" t="inlineStr">
+        <is>
+          <t>Grassland formations</t>
+        </is>
+      </c>
+      <c r="O808" t="inlineStr">
+        <is>
+          <t>Semi-natural dry grasslands</t>
+        </is>
+      </c>
+      <c r="P808" t="inlineStr">
+        <is>
+          <t>Species-rich Nardus upland grassland</t>
         </is>
       </c>
     </row>
@@ -48215,9 +49875,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L815" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M815" t="inlineStr">
         <is>
           <t>2008-06-20</t>
+        </is>
+      </c>
+      <c r="N815" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O815" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -48253,9 +49933,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L816" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M816" t="inlineStr">
         <is>
           <t>2009-06-20</t>
+        </is>
+      </c>
+      <c r="N816" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O816" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -48291,9 +49991,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L817" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M817" t="inlineStr">
         <is>
           <t>2008-06-20</t>
+        </is>
+      </c>
+      <c r="N817" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O817" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -48329,9 +50049,34 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L818" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M818" t="inlineStr">
         <is>
           <t>2015-06-20</t>
+        </is>
+      </c>
+      <c r="N818" t="inlineStr">
+        <is>
+          <t>Grassland formations</t>
+        </is>
+      </c>
+      <c r="O818" t="inlineStr">
+        <is>
+          <t>Semi-natural dry grasslands</t>
+        </is>
+      </c>
+      <c r="P818" t="inlineStr">
+        <is>
+          <t>Species-rich Nardus upland grassland</t>
         </is>
       </c>
     </row>
@@ -48367,9 +50112,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L819" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M819" t="inlineStr">
         <is>
           <t>2008-06-20</t>
+        </is>
+      </c>
+      <c r="N819" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O819" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -48405,9 +50170,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L820" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M820" t="inlineStr">
         <is>
           <t>2008-06-20</t>
+        </is>
+      </c>
+      <c r="N820" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O820" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -48443,9 +50228,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L821" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M821" t="inlineStr">
         <is>
           <t>2013-06-20</t>
+        </is>
+      </c>
+      <c r="N821" t="inlineStr">
+        <is>
+          <t>Grassland formations</t>
+        </is>
+      </c>
+      <c r="O821" t="inlineStr">
+        <is>
+          <t>Semi-natural dry grasslands</t>
         </is>
       </c>
     </row>
@@ -48481,9 +50286,34 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L822" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M822" t="inlineStr">
         <is>
           <t>2015-06-20</t>
+        </is>
+      </c>
+      <c r="N822" t="inlineStr">
+        <is>
+          <t>Grassland formations</t>
+        </is>
+      </c>
+      <c r="O822" t="inlineStr">
+        <is>
+          <t>Semi-natural dry grasslands</t>
+        </is>
+      </c>
+      <c r="P822" t="inlineStr">
+        <is>
+          <t>Species-rich Nardus upland grassland</t>
         </is>
       </c>
     </row>
@@ -48519,9 +50349,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L823" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M823" t="inlineStr">
         <is>
           <t>2015-06-20</t>
+        </is>
+      </c>
+      <c r="N823" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O823" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -48557,9 +50407,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L824" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M824" t="inlineStr">
         <is>
           <t>2016-06-20</t>
+        </is>
+      </c>
+      <c r="N824" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O824" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -48595,9 +50465,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L825" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M825" t="inlineStr">
         <is>
           <t>2008-06-20</t>
+        </is>
+      </c>
+      <c r="N825" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O825" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -48908,6 +50798,16 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L831" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M831" t="inlineStr">
         <is>
           <t>2015-06-20</t>
@@ -48946,9 +50846,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L832" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M832" t="inlineStr">
         <is>
           <t>2014-06-20</t>
+        </is>
+      </c>
+      <c r="N832" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O832" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -48984,9 +50904,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L833" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M833" t="inlineStr">
         <is>
           <t>2009-06-20</t>
+        </is>
+      </c>
+      <c r="N833" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O833" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -49022,9 +50962,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L834" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M834" t="inlineStr">
         <is>
           <t>2013-06-20</t>
+        </is>
+      </c>
+      <c r="N834" t="inlineStr">
+        <is>
+          <t>Grassland formations</t>
+        </is>
+      </c>
+      <c r="O834" t="inlineStr">
+        <is>
+          <t>Semi-natural dry grasslands</t>
         </is>
       </c>
     </row>
@@ -49060,9 +51020,34 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L835" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M835" t="inlineStr">
         <is>
           <t>2015-06-20</t>
+        </is>
+      </c>
+      <c r="N835" t="inlineStr">
+        <is>
+          <t>Grassland formations</t>
+        </is>
+      </c>
+      <c r="O835" t="inlineStr">
+        <is>
+          <t>Semi-natural dry grasslands</t>
+        </is>
+      </c>
+      <c r="P835" t="inlineStr">
+        <is>
+          <t>Species-rich Nardus upland grassland</t>
         </is>
       </c>
     </row>
@@ -49098,9 +51083,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L836" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M836" t="inlineStr">
         <is>
           <t>2009-06-20</t>
+        </is>
+      </c>
+      <c r="N836" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O836" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -49136,9 +51141,29 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L837" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M837" t="inlineStr">
         <is>
           <t>2013-06-20</t>
+        </is>
+      </c>
+      <c r="N837" t="inlineStr">
+        <is>
+          <t>Grassland formations</t>
+        </is>
+      </c>
+      <c r="O837" t="inlineStr">
+        <is>
+          <t>Semi-natural dry grasslands</t>
         </is>
       </c>
     </row>
@@ -49174,9 +51199,34 @@
           <t>P08_5</t>
         </is>
       </c>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L838" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M838" t="inlineStr">
         <is>
           <t>2015-06-20</t>
+        </is>
+      </c>
+      <c r="N838" t="inlineStr">
+        <is>
+          <t>Grassland formations</t>
+        </is>
+      </c>
+      <c r="O838" t="inlineStr">
+        <is>
+          <t>Semi-natural dry grasslands</t>
+        </is>
+      </c>
+      <c r="P838" t="inlineStr">
+        <is>
+          <t>Species-rich Nardus upland grassland</t>
         </is>
       </c>
     </row>
@@ -49217,9 +51267,24 @@
           <t>Sediment</t>
         </is>
       </c>
+      <c r="L839" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="M839" t="inlineStr">
         <is>
           <t>2016-06-20</t>
+        </is>
+      </c>
+      <c r="N839" t="inlineStr">
+        <is>
+          <t>Freshwater</t>
+        </is>
+      </c>
+      <c r="O839" t="inlineStr">
+        <is>
+          <t>Standing freshwater</t>
         </is>
       </c>
     </row>

--- a/analysis/metadata/P08_5/P08_5_minimal_metadata.xlsx
+++ b/analysis/metadata/P08_5/P08_5_minimal_metadata.xlsx
@@ -32799,7 +32799,7 @@
       </c>
       <c r="M544" t="inlineStr">
         <is>
-          <t>2016-07-20</t>
+          <t>2021-07-16</t>
         </is>
       </c>
       <c r="N544" t="inlineStr">
@@ -40007,7 +40007,7 @@
       </c>
       <c r="M655" t="inlineStr">
         <is>
-          <t>2016-05-20</t>
+          <t>2022-05-16</t>
         </is>
       </c>
       <c r="N655" t="inlineStr">
@@ -40070,7 +40070,7 @@
       </c>
       <c r="M656" t="inlineStr">
         <is>
-          <t>2002-06-20</t>
+          <t>2022-06-02</t>
         </is>
       </c>
       <c r="N656" t="inlineStr">
@@ -40133,7 +40133,7 @@
       </c>
       <c r="M657" t="inlineStr">
         <is>
-          <t>2017-05-20</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="N657" t="inlineStr">
@@ -40561,7 +40561,7 @@
       </c>
       <c r="M663" t="inlineStr">
         <is>
-          <t>2018-05-20</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N663" t="inlineStr">
@@ -40677,7 +40677,7 @@
       </c>
       <c r="M665" t="inlineStr">
         <is>
-          <t>2030-05-20</t>
+          <t>2022-05-30</t>
         </is>
       </c>
       <c r="N665" t="inlineStr">
@@ -41148,7 +41148,7 @@
       </c>
       <c r="M672" t="inlineStr">
         <is>
-          <t>2017-05-20</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="N672" t="inlineStr">
@@ -41284,7 +41284,7 @@
       </c>
       <c r="M674" t="inlineStr">
         <is>
-          <t>2018-05-20</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N674" t="inlineStr">
@@ -41828,7 +41828,7 @@
       </c>
       <c r="M682" t="inlineStr">
         <is>
-          <t>2017-05-20</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="N682" t="inlineStr">
@@ -42037,7 +42037,7 @@
       </c>
       <c r="M685" t="inlineStr">
         <is>
-          <t>2017-05-20</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="N685" t="inlineStr">
@@ -42460,7 +42460,7 @@
       </c>
       <c r="M691" t="inlineStr">
         <is>
-          <t>2015-06-20</t>
+          <t>2022-06-15</t>
         </is>
       </c>
     </row>
@@ -42654,7 +42654,7 @@
       </c>
       <c r="M694" t="inlineStr">
         <is>
-          <t>2018-05-20</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N694" t="inlineStr">
@@ -43062,7 +43062,7 @@
       </c>
       <c r="M700" t="inlineStr">
         <is>
-          <t>2015-06-20</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="N700" t="inlineStr">
@@ -43344,7 +43344,7 @@
       </c>
       <c r="M704" t="inlineStr">
         <is>
-          <t>2002-06-20</t>
+          <t>2022-06-02</t>
         </is>
       </c>
       <c r="N704" t="inlineStr">
@@ -43480,7 +43480,7 @@
       </c>
       <c r="M706" t="inlineStr">
         <is>
-          <t>2016-05-20</t>
+          <t>2022-05-16</t>
         </is>
       </c>
       <c r="N706" t="inlineStr">
@@ -45794,7 +45794,7 @@
       </c>
       <c r="M744" t="inlineStr">
         <is>
-          <t>2016-06-20</t>
+          <t>2022-06-16</t>
         </is>
       </c>
       <c r="N744" t="inlineStr">
@@ -45852,7 +45852,7 @@
       </c>
       <c r="M745" t="inlineStr">
         <is>
-          <t>2009-06-20</t>
+          <t>2022-06-09</t>
         </is>
       </c>
       <c r="N745" t="inlineStr">
@@ -45905,7 +45905,7 @@
       </c>
       <c r="M746" t="inlineStr">
         <is>
-          <t>2015-06-20</t>
+          <t>2022-06-15</t>
         </is>
       </c>
     </row>
@@ -45953,7 +45953,7 @@
       </c>
       <c r="M747" t="inlineStr">
         <is>
-          <t>2015-06-20</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="N747" t="inlineStr">
@@ -46016,7 +46016,7 @@
       </c>
       <c r="M748" t="inlineStr">
         <is>
-          <t>2016-06-20</t>
+          <t>2022-06-16</t>
         </is>
       </c>
       <c r="N748" t="inlineStr">
@@ -46074,7 +46074,7 @@
       </c>
       <c r="M749" t="inlineStr">
         <is>
-          <t>2015-06-20</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="N749" t="inlineStr">
@@ -46127,7 +46127,7 @@
       </c>
       <c r="M750" t="inlineStr">
         <is>
-          <t>2015-06-20</t>
+          <t>2022-06-15</t>
         </is>
       </c>
     </row>
@@ -46175,7 +46175,7 @@
       </c>
       <c r="M751" t="inlineStr">
         <is>
-          <t>2013-06-20</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="N751" t="inlineStr">
@@ -46238,7 +46238,7 @@
       </c>
       <c r="M752" t="inlineStr">
         <is>
-          <t>2009-06-20</t>
+          <t>2022-06-09</t>
         </is>
       </c>
       <c r="N752" t="inlineStr">
@@ -46296,7 +46296,7 @@
       </c>
       <c r="M753" t="inlineStr">
         <is>
-          <t>2009-06-20</t>
+          <t>2022-06-09</t>
         </is>
       </c>
       <c r="N753" t="inlineStr">
@@ -46354,7 +46354,7 @@
       </c>
       <c r="M754" t="inlineStr">
         <is>
-          <t>2014-06-20</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="N754" t="inlineStr">
@@ -46412,7 +46412,7 @@
       </c>
       <c r="M755" t="inlineStr">
         <is>
-          <t>2009-06-20</t>
+          <t>2022-06-09</t>
         </is>
       </c>
       <c r="N755" t="inlineStr">
@@ -46470,7 +46470,7 @@
       </c>
       <c r="M756" t="inlineStr">
         <is>
-          <t>2013-06-20</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="N756" t="inlineStr">
@@ -46533,7 +46533,7 @@
       </c>
       <c r="M757" t="inlineStr">
         <is>
-          <t>2009-06-20</t>
+          <t>2022-06-09</t>
         </is>
       </c>
       <c r="N757" t="inlineStr">
@@ -46591,7 +46591,7 @@
       </c>
       <c r="M758" t="inlineStr">
         <is>
-          <t>2014-06-20</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="N758" t="inlineStr">
@@ -46649,7 +46649,7 @@
       </c>
       <c r="M759" t="inlineStr">
         <is>
-          <t>2013-06-20</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="N759" t="inlineStr">
@@ -46707,7 +46707,7 @@
       </c>
       <c r="M760" t="inlineStr">
         <is>
-          <t>2008-06-20</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="N760" t="inlineStr">
@@ -46765,7 +46765,7 @@
       </c>
       <c r="M761" t="inlineStr">
         <is>
-          <t>2013-06-20</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="N761" t="inlineStr">
@@ -46828,7 +46828,7 @@
       </c>
       <c r="M762" t="inlineStr">
         <is>
-          <t>2008-06-20</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="N762" t="inlineStr">
@@ -46886,7 +46886,7 @@
       </c>
       <c r="M763" t="inlineStr">
         <is>
-          <t>2014-06-20</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="N763" t="inlineStr">
@@ -46944,7 +46944,7 @@
       </c>
       <c r="M764" t="inlineStr">
         <is>
-          <t>2009-06-20</t>
+          <t>2022-06-09</t>
         </is>
       </c>
       <c r="N764" t="inlineStr">
@@ -47002,7 +47002,7 @@
       </c>
       <c r="M765" t="inlineStr">
         <is>
-          <t>2008-06-20</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="N765" t="inlineStr">
@@ -47060,7 +47060,7 @@
       </c>
       <c r="M766" t="inlineStr">
         <is>
-          <t>2015-06-20</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="N766" t="inlineStr">
@@ -47118,7 +47118,7 @@
       </c>
       <c r="M767" t="inlineStr">
         <is>
-          <t>2009-06-20</t>
+          <t>2022-06-09</t>
         </is>
       </c>
       <c r="N767" t="inlineStr">
@@ -47176,7 +47176,7 @@
       </c>
       <c r="M768" t="inlineStr">
         <is>
-          <t>2015-06-20</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="N768" t="inlineStr">
@@ -47234,7 +47234,7 @@
       </c>
       <c r="M769" t="inlineStr">
         <is>
-          <t>2015-06-20</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="N769" t="inlineStr">
@@ -47292,7 +47292,7 @@
       </c>
       <c r="M770" t="inlineStr">
         <is>
-          <t>2008-06-20</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="N770" t="inlineStr">
@@ -47350,7 +47350,7 @@
       </c>
       <c r="M771" t="inlineStr">
         <is>
-          <t>2015-06-20</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="N771" t="inlineStr">
@@ -47408,7 +47408,7 @@
       </c>
       <c r="M772" t="inlineStr">
         <is>
-          <t>2008-06-20</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="N772" t="inlineStr">
@@ -47466,7 +47466,7 @@
       </c>
       <c r="M773" t="inlineStr">
         <is>
-          <t>2013-06-20</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="N773" t="inlineStr">
@@ -47524,7 +47524,7 @@
       </c>
       <c r="M774" t="inlineStr">
         <is>
-          <t>2008-06-20</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="N774" t="inlineStr">
@@ -47587,7 +47587,7 @@
       </c>
       <c r="M775" t="inlineStr">
         <is>
-          <t>2009-06-20</t>
+          <t>2022-06-09</t>
         </is>
       </c>
       <c r="N775" t="inlineStr">
@@ -47645,7 +47645,7 @@
       </c>
       <c r="M776" t="inlineStr">
         <is>
-          <t>2014-06-20</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="N776" t="inlineStr">
@@ -47703,7 +47703,7 @@
       </c>
       <c r="M777" t="inlineStr">
         <is>
-          <t>2015-06-20</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="N777" t="inlineStr">
@@ -47761,7 +47761,7 @@
       </c>
       <c r="M778" t="inlineStr">
         <is>
-          <t>2014-06-20</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="N778" t="inlineStr">
@@ -47819,7 +47819,7 @@
       </c>
       <c r="M779" t="inlineStr">
         <is>
-          <t>2015-06-20</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="N779" t="inlineStr">
@@ -47877,7 +47877,7 @@
       </c>
       <c r="M780" t="inlineStr">
         <is>
-          <t>2009-06-20</t>
+          <t>2022-06-09</t>
         </is>
       </c>
       <c r="N780" t="inlineStr">
@@ -47935,7 +47935,7 @@
       </c>
       <c r="M781" t="inlineStr">
         <is>
-          <t>2008-06-20</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="N781" t="inlineStr">
@@ -47993,7 +47993,7 @@
       </c>
       <c r="M782" t="inlineStr">
         <is>
-          <t>2008-06-20</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="N782" t="inlineStr">
@@ -48051,7 +48051,7 @@
       </c>
       <c r="M783" t="inlineStr">
         <is>
-          <t>2008-06-20</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="N783" t="inlineStr">
@@ -48109,7 +48109,7 @@
       </c>
       <c r="M784" t="inlineStr">
         <is>
-          <t>2015-06-20</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="N784" t="inlineStr">
@@ -48167,7 +48167,7 @@
       </c>
       <c r="M785" t="inlineStr">
         <is>
-          <t>2013-06-20</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="N785" t="inlineStr">
@@ -48225,7 +48225,7 @@
       </c>
       <c r="M786" t="inlineStr">
         <is>
-          <t>2008-06-20</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="N786" t="inlineStr">
@@ -48283,7 +48283,7 @@
       </c>
       <c r="M787" t="inlineStr">
         <is>
-          <t>2009-06-20</t>
+          <t>2022-06-09</t>
         </is>
       </c>
       <c r="N787" t="inlineStr">
@@ -48336,7 +48336,7 @@
       </c>
       <c r="M788" t="inlineStr">
         <is>
-          <t>2013-06-20</t>
+          <t>2022-06-13</t>
         </is>
       </c>
     </row>
@@ -48384,7 +48384,7 @@
       </c>
       <c r="M789" t="inlineStr">
         <is>
-          <t>2013-06-20</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="N789" t="inlineStr">
@@ -48442,7 +48442,7 @@
       </c>
       <c r="M790" t="inlineStr">
         <is>
-          <t>2015-06-20</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="N790" t="inlineStr">
@@ -48500,7 +48500,7 @@
       </c>
       <c r="M791" t="inlineStr">
         <is>
-          <t>2015-06-20</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="N791" t="inlineStr">
@@ -48558,7 +48558,7 @@
       </c>
       <c r="M792" t="inlineStr">
         <is>
-          <t>2008-06-20</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="N792" t="inlineStr">
@@ -48616,7 +48616,7 @@
       </c>
       <c r="M793" t="inlineStr">
         <is>
-          <t>2008-06-20</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="N793" t="inlineStr">
@@ -48674,7 +48674,7 @@
       </c>
       <c r="M794" t="inlineStr">
         <is>
-          <t>2015-06-20</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="N794" t="inlineStr">
@@ -48732,7 +48732,7 @@
       </c>
       <c r="M795" t="inlineStr">
         <is>
-          <t>2008-06-20</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="N795" t="inlineStr">
@@ -48790,7 +48790,7 @@
       </c>
       <c r="M796" t="inlineStr">
         <is>
-          <t>2014-06-20</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="N796" t="inlineStr">
@@ -48848,7 +48848,7 @@
       </c>
       <c r="M797" t="inlineStr">
         <is>
-          <t>2009-06-20</t>
+          <t>2022-06-09</t>
         </is>
       </c>
       <c r="N797" t="inlineStr">
@@ -48906,7 +48906,7 @@
       </c>
       <c r="M798" t="inlineStr">
         <is>
-          <t>2009-06-20</t>
+          <t>2022-06-09</t>
         </is>
       </c>
       <c r="N798" t="inlineStr">
@@ -48964,7 +48964,7 @@
       </c>
       <c r="M799" t="inlineStr">
         <is>
-          <t>2008-06-20</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="N799" t="inlineStr">
@@ -49017,7 +49017,7 @@
       </c>
       <c r="M800" t="inlineStr">
         <is>
-          <t>2013-06-20</t>
+          <t>2022-06-13</t>
         </is>
       </c>
     </row>
@@ -49065,7 +49065,7 @@
       </c>
       <c r="M801" t="inlineStr">
         <is>
-          <t>2013-06-20</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="N801" t="inlineStr">
@@ -49128,7 +49128,7 @@
       </c>
       <c r="M802" t="inlineStr">
         <is>
-          <t>2014-06-20</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="N802" t="inlineStr">
@@ -49186,7 +49186,7 @@
       </c>
       <c r="M803" t="inlineStr">
         <is>
-          <t>2013-06-20</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="N803" t="inlineStr">
@@ -49249,7 +49249,7 @@
       </c>
       <c r="M804" t="inlineStr">
         <is>
-          <t>2015-06-20</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="N804" t="inlineStr">
@@ -49312,7 +49312,7 @@
       </c>
       <c r="M805" t="inlineStr">
         <is>
-          <t>2015-06-20</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="N805" t="inlineStr">
@@ -49370,7 +49370,7 @@
       </c>
       <c r="M806" t="inlineStr">
         <is>
-          <t>2013-06-20</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="N806" t="inlineStr">
@@ -49428,7 +49428,7 @@
       </c>
       <c r="M807" t="inlineStr">
         <is>
-          <t>2009-06-20</t>
+          <t>2022-06-09</t>
         </is>
       </c>
       <c r="N807" t="inlineStr">
@@ -49486,7 +49486,7 @@
       </c>
       <c r="M808" t="inlineStr">
         <is>
-          <t>2015-06-20</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="N808" t="inlineStr">
@@ -49549,7 +49549,7 @@
       </c>
       <c r="M809" t="inlineStr">
         <is>
-          <t>2015-06-20</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="N809" t="inlineStr">
@@ -49612,7 +49612,7 @@
       </c>
       <c r="M810" t="inlineStr">
         <is>
-          <t>2009-06-20</t>
+          <t>2022-06-09</t>
         </is>
       </c>
       <c r="N810" t="inlineStr">
@@ -49670,7 +49670,7 @@
       </c>
       <c r="M811" t="inlineStr">
         <is>
-          <t>2013-06-20</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="N811" t="inlineStr">
@@ -49723,7 +49723,7 @@
       </c>
       <c r="M812" t="inlineStr">
         <is>
-          <t>2015-06-20</t>
+          <t>2022-06-15</t>
         </is>
       </c>
     </row>
@@ -49771,7 +49771,7 @@
       </c>
       <c r="M813" t="inlineStr">
         <is>
-          <t>2015-06-20</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="N813" t="inlineStr">
@@ -49829,7 +49829,7 @@
       </c>
       <c r="M814" t="inlineStr">
         <is>
-          <t>2008-06-20</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="N814" t="inlineStr">
@@ -49887,7 +49887,7 @@
       </c>
       <c r="M815" t="inlineStr">
         <is>
-          <t>2008-06-20</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="N815" t="inlineStr">
@@ -49945,7 +49945,7 @@
       </c>
       <c r="M816" t="inlineStr">
         <is>
-          <t>2009-06-20</t>
+          <t>2022-06-09</t>
         </is>
       </c>
       <c r="N816" t="inlineStr">
@@ -50003,7 +50003,7 @@
       </c>
       <c r="M817" t="inlineStr">
         <is>
-          <t>2008-06-20</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="N817" t="inlineStr">
@@ -50061,7 +50061,7 @@
       </c>
       <c r="M818" t="inlineStr">
         <is>
-          <t>2015-06-20</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="N818" t="inlineStr">
@@ -50124,7 +50124,7 @@
       </c>
       <c r="M819" t="inlineStr">
         <is>
-          <t>2008-06-20</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="N819" t="inlineStr">
@@ -50182,7 +50182,7 @@
       </c>
       <c r="M820" t="inlineStr">
         <is>
-          <t>2008-06-20</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="N820" t="inlineStr">
@@ -50240,7 +50240,7 @@
       </c>
       <c r="M821" t="inlineStr">
         <is>
-          <t>2013-06-20</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="N821" t="inlineStr">
@@ -50298,7 +50298,7 @@
       </c>
       <c r="M822" t="inlineStr">
         <is>
-          <t>2015-06-20</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="N822" t="inlineStr">
@@ -50361,7 +50361,7 @@
       </c>
       <c r="M823" t="inlineStr">
         <is>
-          <t>2015-06-20</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="N823" t="inlineStr">
@@ -50419,7 +50419,7 @@
       </c>
       <c r="M824" t="inlineStr">
         <is>
-          <t>2016-06-20</t>
+          <t>2022-06-16</t>
         </is>
       </c>
       <c r="N824" t="inlineStr">
@@ -50477,7 +50477,7 @@
       </c>
       <c r="M825" t="inlineStr">
         <is>
-          <t>2008-06-20</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="N825" t="inlineStr">
@@ -50535,7 +50535,7 @@
       </c>
       <c r="M826" t="inlineStr">
         <is>
-          <t>2015-06-20</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="N826" t="inlineStr">
@@ -50593,7 +50593,7 @@
       </c>
       <c r="M827" t="inlineStr">
         <is>
-          <t>2015-06-20</t>
+          <t>2022-06-15</t>
         </is>
       </c>
     </row>
@@ -50641,7 +50641,7 @@
       </c>
       <c r="M828" t="inlineStr">
         <is>
-          <t>2015-06-20</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="N828" t="inlineStr">
@@ -50699,7 +50699,7 @@
       </c>
       <c r="M829" t="inlineStr">
         <is>
-          <t>2008-06-20</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="N829" t="inlineStr">
@@ -50757,7 +50757,7 @@
       </c>
       <c r="M830" t="inlineStr">
         <is>
-          <t>2015-06-20</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="N830" t="inlineStr">
@@ -50810,7 +50810,7 @@
       </c>
       <c r="M831" t="inlineStr">
         <is>
-          <t>2015-06-20</t>
+          <t>2022-06-15</t>
         </is>
       </c>
     </row>
@@ -50858,7 +50858,7 @@
       </c>
       <c r="M832" t="inlineStr">
         <is>
-          <t>2014-06-20</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="N832" t="inlineStr">
@@ -50916,7 +50916,7 @@
       </c>
       <c r="M833" t="inlineStr">
         <is>
-          <t>2009-06-20</t>
+          <t>2022-06-09</t>
         </is>
       </c>
       <c r="N833" t="inlineStr">
@@ -50974,7 +50974,7 @@
       </c>
       <c r="M834" t="inlineStr">
         <is>
-          <t>2013-06-20</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="N834" t="inlineStr">
@@ -51032,7 +51032,7 @@
       </c>
       <c r="M835" t="inlineStr">
         <is>
-          <t>2015-06-20</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="N835" t="inlineStr">
@@ -51095,7 +51095,7 @@
       </c>
       <c r="M836" t="inlineStr">
         <is>
-          <t>2009-06-20</t>
+          <t>2022-06-09</t>
         </is>
       </c>
       <c r="N836" t="inlineStr">
@@ -51153,7 +51153,7 @@
       </c>
       <c r="M837" t="inlineStr">
         <is>
-          <t>2013-06-20</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="N837" t="inlineStr">
@@ -51211,7 +51211,7 @@
       </c>
       <c r="M838" t="inlineStr">
         <is>
-          <t>2015-06-20</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="N838" t="inlineStr">
@@ -51274,7 +51274,7 @@
       </c>
       <c r="M839" t="inlineStr">
         <is>
-          <t>2016-06-20</t>
+          <t>2022-06-16</t>
         </is>
       </c>
       <c r="N839" t="inlineStr">
@@ -51332,7 +51332,7 @@
       </c>
       <c r="M840" t="inlineStr">
         <is>
-          <t>17-05-2022</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="N840" t="inlineStr">
@@ -51395,7 +51395,7 @@
       </c>
       <c r="M841" t="inlineStr">
         <is>
-          <t>17-09-2022</t>
+          <t>2022-09-17</t>
         </is>
       </c>
       <c r="N841" t="inlineStr">
@@ -51453,7 +51453,7 @@
       </c>
       <c r="M842" t="inlineStr">
         <is>
-          <t>17-09-2022</t>
+          <t>2022-09-17</t>
         </is>
       </c>
       <c r="N842" t="inlineStr">
@@ -51511,7 +51511,7 @@
       </c>
       <c r="M843" t="inlineStr">
         <is>
-          <t>18-09-2022</t>
+          <t>2022-09-18</t>
         </is>
       </c>
       <c r="N843" t="inlineStr">
@@ -51569,7 +51569,7 @@
       </c>
       <c r="M844" t="inlineStr">
         <is>
-          <t>18-09-2022</t>
+          <t>2022-09-18</t>
         </is>
       </c>
       <c r="N844" t="inlineStr">
@@ -51627,7 +51627,7 @@
       </c>
       <c r="M845" t="inlineStr">
         <is>
-          <t>18-09-2022</t>
+          <t>2022-09-18</t>
         </is>
       </c>
       <c r="N845" t="inlineStr">
@@ -51685,7 +51685,7 @@
       </c>
       <c r="M846" t="inlineStr">
         <is>
-          <t>18-09-2022</t>
+          <t>2022-09-18</t>
         </is>
       </c>
       <c r="N846" t="inlineStr">
@@ -51743,7 +51743,7 @@
       </c>
       <c r="M847" t="inlineStr">
         <is>
-          <t>21-09-2022</t>
+          <t>2022-09-21</t>
         </is>
       </c>
       <c r="N847" t="inlineStr">
@@ -51801,7 +51801,7 @@
       </c>
       <c r="M848" t="inlineStr">
         <is>
-          <t>21-09-2022</t>
+          <t>2022-09-21</t>
         </is>
       </c>
       <c r="N848" t="inlineStr">
@@ -51859,7 +51859,7 @@
       </c>
       <c r="M849" t="inlineStr">
         <is>
-          <t>28-09-2022</t>
+          <t>2022-09-28</t>
         </is>
       </c>
       <c r="N849" t="inlineStr">
@@ -51917,7 +51917,7 @@
       </c>
       <c r="M850" t="inlineStr">
         <is>
-          <t>02-10-2022</t>
+          <t>2022-10-02</t>
         </is>
       </c>
       <c r="N850" t="inlineStr">

--- a/analysis/metadata/P08_5/P08_5_minimal_metadata.xlsx
+++ b/analysis/metadata/P08_5/P08_5_minimal_metadata.xlsx
@@ -2709,7 +2709,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Sclerophyllus scrub</t>
+          <t>Sclerophyllous scrub</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Sclerophyllus scrub</t>
+          <t>Sclerophyllous scrub</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3917,7 +3917,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Sclerophyllus scrub</t>
+          <t>Sclerophyllous scrub</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4429,7 +4429,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Sclerophyllus scrub</t>
+          <t>Sclerophyllous scrub</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -4961,7 +4961,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Sclerophyllus scrub</t>
+          <t>Sclerophyllous scrub</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -9731,7 +9731,7 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>Sclerophyllus scrub</t>
+          <t>Sclerophyllous scrub</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>Sclerophyllus scrub</t>
+          <t>Sclerophyllous scrub</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
@@ -14636,7 +14636,7 @@
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>Sclerophyllus scrub</t>
+          <t>Sclerophyllous scrub</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
@@ -26980,7 +26980,7 @@
       </c>
       <c r="N451" t="inlineStr">
         <is>
-          <t>Sclerophyllus scrub</t>
+          <t>Sclerophyllous scrub</t>
         </is>
       </c>
       <c r="O451" t="inlineStr">
